--- a/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegorji\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D3AA2E-572B-4AEA-BD10-161D4CC72374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CA5B3-FEBB-4F85-A28B-5F29AE081C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1501,95 +1501,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>57</v>
       </c>
       <c r="AA11" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AB11" s="11">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="AC11" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD11" s="11">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="AE11" s="11">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AF11" s="11">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="AG11" s="11">
-        <v>87</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>73</v>
-      </c>
-      <c r="AI11" s="11">
         <v>18</v>
       </c>
-      <c r="AJ11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>30</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>35</v>
       </c>
       <c r="AL11" s="11">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AM11" s="11">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AN11" s="11">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AO11" s="11">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AP11" s="11">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AQ11" s="11">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AR11" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AS11" s="11">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="AT11" s="11">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="AU11" s="11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="AW11" s="11">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AX11" s="11">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="AY11" s="11">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AZ11" s="11">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="BA11" s="11">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="BB11" s="11">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1693,41 +1693,41 @@
       <c r="AI12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK12" s="13" t="s">
-        <v>58</v>
+      <c r="AJ12" s="13">
+        <v>566</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>452</v>
       </c>
       <c r="AL12" s="13">
-        <v>566</v>
+        <v>907</v>
       </c>
       <c r="AM12" s="13">
-        <v>452</v>
+        <v>811</v>
       </c>
       <c r="AN12" s="13">
-        <v>907</v>
+        <v>694</v>
       </c>
       <c r="AO12" s="13">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="AP12" s="13">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="AQ12" s="13">
-        <v>791</v>
+        <v>531</v>
       </c>
       <c r="AR12" s="13">
-        <v>760</v>
+        <v>622</v>
       </c>
       <c r="AS12" s="13">
-        <v>531</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>622</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>58</v>
@@ -1819,95 +1819,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>112</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>76</v>
       </c>
       <c r="AA13" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="11">
         <v>112</v>
       </c>
-      <c r="AB13" s="11">
-        <v>76</v>
-      </c>
       <c r="AC13" s="11">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AD13" s="11">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="AE13" s="11">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="AF13" s="11">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="AG13" s="11">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>78</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>111</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>125</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>128</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>94</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>111</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>123</v>
+      </c>
+      <c r="AQ13" s="11">
         <v>83</v>
       </c>
-      <c r="AH13" s="11">
-        <v>116</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>40</v>
-      </c>
-      <c r="AJ13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>78</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>111</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>125</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>128</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>94</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>111</v>
-      </c>
       <c r="AR13" s="11">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AS13" s="11">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AT13" s="11">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="AU13" s="11">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AV13" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AW13" s="11">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AX13" s="11">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="AY13" s="11">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="AZ13" s="11">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="BA13" s="11">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="BB13" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1978,47 +1978,47 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>944</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>911</v>
       </c>
       <c r="AA14" s="13">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="AB14" s="13">
-        <v>911</v>
+        <v>637</v>
       </c>
       <c r="AC14" s="13">
-        <v>949</v>
+        <v>929</v>
       </c>
       <c r="AD14" s="13">
-        <v>637</v>
+        <v>1484</v>
       </c>
       <c r="AE14" s="13">
-        <v>929</v>
+        <v>836</v>
       </c>
       <c r="AF14" s="13">
-        <v>1484</v>
+        <v>831</v>
       </c>
       <c r="AG14" s="13">
-        <v>836</v>
+        <v>316</v>
       </c>
       <c r="AH14" s="13">
-        <v>831</v>
+        <v>647</v>
       </c>
       <c r="AI14" s="13">
-        <v>316</v>
+        <v>1141</v>
       </c>
       <c r="AJ14" s="13">
-        <v>647</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>1141</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM14" s="13" t="s">
         <v>58</v>
@@ -2041,32 +2041,32 @@
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>315</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>64</v>
       </c>
       <c r="AV14" s="13">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="AW14" s="13">
-        <v>64</v>
+        <v>428</v>
       </c>
       <c r="AX14" s="13">
-        <v>202</v>
+        <v>494</v>
       </c>
       <c r="AY14" s="13">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AZ14" s="13">
-        <v>494</v>
+        <v>289</v>
       </c>
       <c r="BA14" s="13">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="BB14" s="13">
-        <v>289</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2136,94 +2136,94 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="Z15" s="15">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="AA15" s="15">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="AB15" s="15">
-        <v>1044</v>
+        <v>855</v>
       </c>
       <c r="AC15" s="15">
-        <v>1074</v>
+        <v>1113</v>
       </c>
       <c r="AD15" s="15">
-        <v>855</v>
+        <v>1723</v>
       </c>
       <c r="AE15" s="15">
-        <v>1113</v>
+        <v>1006</v>
       </c>
       <c r="AF15" s="15">
-        <v>1723</v>
+        <v>1020</v>
       </c>
       <c r="AG15" s="15">
-        <v>1006</v>
+        <v>374</v>
       </c>
       <c r="AH15" s="15">
-        <v>1020</v>
+        <v>647</v>
       </c>
       <c r="AI15" s="15">
-        <v>374</v>
+        <v>1141</v>
       </c>
       <c r="AJ15" s="15">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="AK15" s="15">
-        <v>1141</v>
+        <v>598</v>
       </c>
       <c r="AL15" s="15">
-        <v>674</v>
+        <v>1056</v>
       </c>
       <c r="AM15" s="15">
-        <v>598</v>
+        <v>966</v>
       </c>
       <c r="AN15" s="15">
-        <v>1056</v>
+        <v>826</v>
       </c>
       <c r="AO15" s="15">
-        <v>966</v>
+        <v>948</v>
       </c>
       <c r="AP15" s="15">
-        <v>826</v>
+        <v>979</v>
       </c>
       <c r="AQ15" s="15">
-        <v>948</v>
+        <v>679</v>
       </c>
       <c r="AR15" s="15">
-        <v>979</v>
+        <v>833</v>
       </c>
       <c r="AS15" s="15">
-        <v>679</v>
+        <v>76</v>
       </c>
       <c r="AT15" s="15">
-        <v>833</v>
+        <v>385</v>
       </c>
       <c r="AU15" s="15">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AV15" s="15">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="AW15" s="15">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="AX15" s="15">
-        <v>349</v>
+        <v>608</v>
       </c>
       <c r="AY15" s="15">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="AZ15" s="15">
-        <v>608</v>
+        <v>507</v>
       </c>
       <c r="BA15" s="15">
-        <v>621</v>
+        <v>554</v>
       </c>
       <c r="BB15" s="15">
-        <v>507</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2351,95 +2351,95 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>208</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>148</v>
       </c>
       <c r="AA17" s="11">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AB17" s="11">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AC17" s="11">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="AD17" s="11">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AE17" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF17" s="11">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AG17" s="11">
-        <v>144</v>
+        <v>872</v>
       </c>
       <c r="AH17" s="11">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="AI17" s="11">
-        <v>872</v>
+        <v>133</v>
       </c>
       <c r="AJ17" s="11">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="AK17" s="11">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="AL17" s="11">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AM17" s="11">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AN17" s="11">
+        <v>91</v>
+      </c>
+      <c r="AO17" s="11">
+        <v>146</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>147</v>
+      </c>
+      <c r="AQ17" s="11">
         <v>84</v>
       </c>
-      <c r="AO17" s="11">
-        <v>65</v>
-      </c>
-      <c r="AP17" s="11">
-        <v>91</v>
-      </c>
-      <c r="AQ17" s="11">
-        <v>146</v>
-      </c>
       <c r="AR17" s="11">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AS17" s="11">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="AT17" s="11">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AU17" s="11">
-        <v>421</v>
+        <v>34</v>
       </c>
       <c r="AV17" s="11">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AW17" s="11">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="AX17" s="11">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AY17" s="11">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="AZ17" s="11">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="BA17" s="11">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="BB17" s="11">
-        <v>161</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2509,94 +2509,94 @@
         <v>0</v>
       </c>
       <c r="Y18" s="17">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="Z18" s="17">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="AA18" s="17">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AB18" s="17">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AC18" s="17">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="AD18" s="17">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AE18" s="17">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF18" s="17">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AG18" s="17">
-        <v>144</v>
+        <v>872</v>
       </c>
       <c r="AH18" s="17">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="AI18" s="17">
-        <v>872</v>
+        <v>133</v>
       </c>
       <c r="AJ18" s="17">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="AK18" s="17">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="AL18" s="17">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AM18" s="17">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AN18" s="17">
+        <v>91</v>
+      </c>
+      <c r="AO18" s="17">
+        <v>146</v>
+      </c>
+      <c r="AP18" s="17">
+        <v>147</v>
+      </c>
+      <c r="AQ18" s="17">
         <v>84</v>
       </c>
-      <c r="AO18" s="17">
-        <v>65</v>
-      </c>
-      <c r="AP18" s="17">
-        <v>91</v>
-      </c>
-      <c r="AQ18" s="17">
-        <v>146</v>
-      </c>
       <c r="AR18" s="17">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AS18" s="17">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="AT18" s="17">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AU18" s="17">
-        <v>421</v>
+        <v>34</v>
       </c>
       <c r="AV18" s="17">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AW18" s="17">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="AX18" s="17">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AY18" s="17">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="AZ18" s="17">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="BA18" s="17">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="BB18" s="17">
-        <v>161</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2751,14 +2751,14 @@
       <c r="AG20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH20" s="11" t="s">
-        <v>58</v>
+      <c r="AH20" s="11">
+        <v>0</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ20" s="11">
-        <v>0</v>
+      <c r="AJ20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK20" s="11" t="s">
         <v>58</v>
@@ -2883,11 +2883,11 @@
       <c r="X21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>58</v>
+      <c r="Y21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>0</v>
       </c>
       <c r="AA21" s="13">
         <v>0</v>
@@ -2910,11 +2910,11 @@
       <c r="AG21" s="13">
         <v>0</v>
       </c>
-      <c r="AH21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="13">
-        <v>0</v>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
@@ -3040,11 +3040,11 @@
       <c r="X22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z22" s="15" t="s">
-        <v>58</v>
+      <c r="Y22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>0</v>
       </c>
       <c r="AA22" s="15">
         <v>0</v>
@@ -3198,94 +3198,94 @@
         <v>0</v>
       </c>
       <c r="Y23" s="17">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="Z23" s="17">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="AA23" s="17">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="AB23" s="17">
-        <v>1192</v>
+        <v>1015</v>
       </c>
       <c r="AC23" s="17">
-        <v>1313</v>
+        <v>1254</v>
       </c>
       <c r="AD23" s="17">
-        <v>1015</v>
+        <v>1867</v>
       </c>
       <c r="AE23" s="17">
-        <v>1254</v>
+        <v>1150</v>
       </c>
       <c r="AF23" s="17">
-        <v>1867</v>
+        <v>1115</v>
       </c>
       <c r="AG23" s="17">
-        <v>1150</v>
+        <v>1246</v>
       </c>
       <c r="AH23" s="17">
-        <v>1115</v>
+        <v>710</v>
       </c>
       <c r="AI23" s="17">
-        <v>1246</v>
+        <v>1274</v>
       </c>
       <c r="AJ23" s="17">
-        <v>710</v>
+        <v>1058</v>
       </c>
       <c r="AK23" s="17">
-        <v>1274</v>
+        <v>817</v>
       </c>
       <c r="AL23" s="17">
-        <v>1058</v>
+        <v>1140</v>
       </c>
       <c r="AM23" s="17">
-        <v>817</v>
+        <v>1031</v>
       </c>
       <c r="AN23" s="17">
-        <v>1140</v>
+        <v>917</v>
       </c>
       <c r="AO23" s="17">
-        <v>1031</v>
+        <v>1094</v>
       </c>
       <c r="AP23" s="17">
-        <v>917</v>
+        <v>1126</v>
       </c>
       <c r="AQ23" s="17">
-        <v>1094</v>
+        <v>763</v>
       </c>
       <c r="AR23" s="17">
-        <v>1126</v>
+        <v>893</v>
       </c>
       <c r="AS23" s="17">
+        <v>497</v>
+      </c>
+      <c r="AT23" s="17">
+        <v>423</v>
+      </c>
+      <c r="AU23" s="17">
+        <v>137</v>
+      </c>
+      <c r="AV23" s="17">
+        <v>369</v>
+      </c>
+      <c r="AW23" s="17">
+        <v>740</v>
+      </c>
+      <c r="AX23" s="17">
+        <v>744</v>
+      </c>
+      <c r="AY23" s="17">
         <v>763</v>
       </c>
-      <c r="AT23" s="17">
-        <v>893</v>
-      </c>
-      <c r="AU23" s="17">
-        <v>497</v>
-      </c>
-      <c r="AV23" s="17">
-        <v>423</v>
-      </c>
-      <c r="AW23" s="17">
-        <v>137</v>
-      </c>
-      <c r="AX23" s="17">
-        <v>369</v>
-      </c>
-      <c r="AY23" s="17">
-        <v>740</v>
-      </c>
       <c r="AZ23" s="17">
-        <v>744</v>
+        <v>668</v>
       </c>
       <c r="BA23" s="17">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="BB23" s="17">
-        <v>668</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3790,95 +3790,95 @@
       <c r="X30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>58</v>
+      <c r="Y30" s="11">
+        <v>52</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>54</v>
       </c>
       <c r="AA30" s="11">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AB30" s="11">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="AC30" s="11">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AD30" s="11">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="AE30" s="11">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AF30" s="11">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AG30" s="11">
-        <v>98</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>79</v>
-      </c>
-      <c r="AI30" s="11">
         <v>36</v>
       </c>
-      <c r="AJ30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>58</v>
+      <c r="AH30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>71</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>33</v>
       </c>
       <c r="AL30" s="11">
+        <v>28</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>28</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>39</v>
+      </c>
+      <c r="AO30" s="11">
+        <v>44</v>
+      </c>
+      <c r="AP30" s="11">
+        <v>93</v>
+      </c>
+      <c r="AQ30" s="11">
         <v>71</v>
       </c>
-      <c r="AM30" s="11">
-        <v>33</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>28</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>28</v>
-      </c>
-      <c r="AP30" s="11">
-        <v>39</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>44</v>
-      </c>
       <c r="AR30" s="11">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AS30" s="11">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AT30" s="11">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="AU30" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="11">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="AW30" s="11">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AX30" s="11">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="AY30" s="11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AZ30" s="11">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="BA30" s="11">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="BB30" s="11">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3982,41 +3982,41 @@
       <c r="AI31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK31" s="13" t="s">
-        <v>58</v>
+      <c r="AJ31" s="13">
+        <v>453</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>652</v>
       </c>
       <c r="AL31" s="13">
-        <v>453</v>
+        <v>810</v>
       </c>
       <c r="AM31" s="13">
-        <v>652</v>
+        <v>793</v>
       </c>
       <c r="AN31" s="13">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="AO31" s="13">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="AP31" s="13">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="AQ31" s="13">
-        <v>762</v>
+        <v>583</v>
       </c>
       <c r="AR31" s="13">
-        <v>759</v>
+        <v>588</v>
       </c>
       <c r="AS31" s="13">
-        <v>583</v>
-      </c>
-      <c r="AT31" s="13">
-        <v>588</v>
-      </c>
-      <c r="AU31" s="13">
         <v>36</v>
+      </c>
+      <c r="AT31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV31" s="13" t="s">
         <v>58</v>
@@ -4108,95 +4108,95 @@
       <c r="X32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z32" s="11" t="s">
-        <v>58</v>
+      <c r="Y32" s="11">
+        <v>107</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>80</v>
       </c>
       <c r="AA32" s="11">
+        <v>95</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>105</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>130</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>159</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>133</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>79</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>147</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>128</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>111</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>125</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AO32" s="11">
+        <v>117</v>
+      </c>
+      <c r="AP32" s="11">
         <v>107</v>
       </c>
-      <c r="AB32" s="11">
+      <c r="AQ32" s="11">
+        <v>90</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>100</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>38</v>
+      </c>
+      <c r="AT32" s="11">
+        <v>63</v>
+      </c>
+      <c r="AU32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="11">
+        <v>71</v>
+      </c>
+      <c r="AW32" s="11">
+        <v>67</v>
+      </c>
+      <c r="AX32" s="11">
+        <v>81</v>
+      </c>
+      <c r="AY32" s="11">
+        <v>122</v>
+      </c>
+      <c r="AZ32" s="11">
+        <v>123</v>
+      </c>
+      <c r="BA32" s="11">
         <v>80</v>
       </c>
-      <c r="AC32" s="11">
-        <v>95</v>
-      </c>
-      <c r="AD32" s="11">
-        <v>105</v>
-      </c>
-      <c r="AE32" s="11">
-        <v>130</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>159</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>133</v>
-      </c>
-      <c r="AI32" s="11">
-        <v>79</v>
-      </c>
-      <c r="AJ32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>147</v>
-      </c>
-      <c r="AM32" s="11">
-        <v>128</v>
-      </c>
-      <c r="AN32" s="11">
-        <v>111</v>
-      </c>
-      <c r="AO32" s="11">
-        <v>125</v>
-      </c>
-      <c r="AP32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AQ32" s="11">
-        <v>117</v>
-      </c>
-      <c r="AR32" s="11">
-        <v>107</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>90</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>100</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>38</v>
-      </c>
-      <c r="AV32" s="11">
+      <c r="BB32" s="11">
         <v>63</v>
-      </c>
-      <c r="AW32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="11">
-        <v>71</v>
-      </c>
-      <c r="AY32" s="11">
-        <v>67</v>
-      </c>
-      <c r="AZ32" s="11">
-        <v>81</v>
-      </c>
-      <c r="BA32" s="11">
-        <v>122</v>
-      </c>
-      <c r="BB32" s="11">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4267,47 +4267,47 @@
       <c r="X33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="13" t="s">
-        <v>58</v>
+      <c r="Y33" s="13">
+        <v>944</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>1001</v>
       </c>
       <c r="AA33" s="13">
-        <v>944</v>
+        <v>1028</v>
       </c>
       <c r="AB33" s="13">
-        <v>1001</v>
+        <v>744</v>
       </c>
       <c r="AC33" s="13">
-        <v>1028</v>
+        <v>642</v>
       </c>
       <c r="AD33" s="13">
-        <v>744</v>
+        <v>1094</v>
       </c>
       <c r="AE33" s="13">
-        <v>642</v>
+        <v>1089</v>
       </c>
       <c r="AF33" s="13">
-        <v>1094</v>
+        <v>1027</v>
       </c>
       <c r="AG33" s="13">
-        <v>1089</v>
+        <v>644</v>
       </c>
       <c r="AH33" s="13">
-        <v>1027</v>
+        <v>449</v>
       </c>
       <c r="AI33" s="13">
-        <v>644</v>
+        <v>1046</v>
       </c>
       <c r="AJ33" s="13">
-        <v>449</v>
-      </c>
-      <c r="AK33" s="13">
-        <v>1046</v>
-      </c>
-      <c r="AL33" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM33" s="13" t="s">
         <v>58</v>
@@ -4330,32 +4330,32 @@
       <c r="AS33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU33" s="13" t="s">
-        <v>58</v>
+      <c r="AT33" s="13">
+        <v>322</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>15</v>
       </c>
       <c r="AV33" s="13">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AW33" s="13">
-        <v>15</v>
+        <v>356</v>
       </c>
       <c r="AX33" s="13">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="AY33" s="13">
-        <v>356</v>
+        <v>202</v>
       </c>
       <c r="AZ33" s="13">
-        <v>497</v>
+        <v>304</v>
       </c>
       <c r="BA33" s="13">
-        <v>202</v>
+        <v>365</v>
       </c>
       <c r="BB33" s="13">
-        <v>304</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4425,94 +4425,94 @@
         <v>0</v>
       </c>
       <c r="Y34" s="15">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="Z34" s="15">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="AA34" s="15">
-        <v>1103</v>
+        <v>1191</v>
       </c>
       <c r="AB34" s="15">
-        <v>1135</v>
+        <v>976</v>
       </c>
       <c r="AC34" s="15">
-        <v>1191</v>
+        <v>864</v>
       </c>
       <c r="AD34" s="15">
+        <v>1285</v>
+      </c>
+      <c r="AE34" s="15">
+        <v>1295</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>1239</v>
+      </c>
+      <c r="AG34" s="15">
+        <v>759</v>
+      </c>
+      <c r="AH34" s="15">
+        <v>449</v>
+      </c>
+      <c r="AI34" s="15">
+        <v>1046</v>
+      </c>
+      <c r="AJ34" s="15">
+        <v>671</v>
+      </c>
+      <c r="AK34" s="15">
+        <v>813</v>
+      </c>
+      <c r="AL34" s="15">
+        <v>949</v>
+      </c>
+      <c r="AM34" s="15">
+        <v>946</v>
+      </c>
+      <c r="AN34" s="15">
         <v>976</v>
       </c>
-      <c r="AE34" s="15">
-        <v>864</v>
-      </c>
-      <c r="AF34" s="15">
-        <v>1285</v>
-      </c>
-      <c r="AG34" s="15">
-        <v>1295</v>
-      </c>
-      <c r="AH34" s="15">
-        <v>1239</v>
-      </c>
-      <c r="AI34" s="15">
-        <v>759</v>
-      </c>
-      <c r="AJ34" s="15">
-        <v>449</v>
-      </c>
-      <c r="AK34" s="15">
-        <v>1046</v>
-      </c>
-      <c r="AL34" s="15">
-        <v>671</v>
-      </c>
-      <c r="AM34" s="15">
-        <v>813</v>
-      </c>
-      <c r="AN34" s="15">
-        <v>949</v>
-      </c>
       <c r="AO34" s="15">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="AP34" s="15">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="AQ34" s="15">
-        <v>923</v>
+        <v>744</v>
       </c>
       <c r="AR34" s="15">
-        <v>959</v>
+        <v>804</v>
       </c>
       <c r="AS34" s="15">
-        <v>744</v>
+        <v>108</v>
       </c>
       <c r="AT34" s="15">
-        <v>804</v>
+        <v>398</v>
       </c>
       <c r="AU34" s="15">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="AV34" s="15">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="AW34" s="15">
-        <v>15</v>
+        <v>501</v>
       </c>
       <c r="AX34" s="15">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="AY34" s="15">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="AZ34" s="15">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="BA34" s="15">
-        <v>381</v>
+        <v>582</v>
       </c>
       <c r="BB34" s="15">
-        <v>544</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4640,95 +4640,95 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>208</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>159</v>
       </c>
       <c r="AA36" s="11">
+        <v>180</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>160</v>
+      </c>
+      <c r="AC36" s="11">
         <v>208</v>
       </c>
-      <c r="AB36" s="11">
-        <v>159</v>
-      </c>
-      <c r="AC36" s="11">
-        <v>180</v>
-      </c>
       <c r="AD36" s="11">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="AE36" s="11">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="AF36" s="11">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AG36" s="11">
-        <v>144</v>
+        <v>872</v>
       </c>
       <c r="AH36" s="11">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="AI36" s="11">
-        <v>872</v>
+        <v>133</v>
       </c>
       <c r="AJ36" s="11">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="AK36" s="11">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="AL36" s="11">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AM36" s="11">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AN36" s="11">
+        <v>91</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>146</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>147</v>
+      </c>
+      <c r="AQ36" s="11">
         <v>84</v>
       </c>
-      <c r="AO36" s="11">
-        <v>65</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>91</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>146</v>
-      </c>
       <c r="AR36" s="11">
+        <v>60</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>463</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>38</v>
+      </c>
+      <c r="AU36" s="11">
+        <v>17</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>20</v>
+      </c>
+      <c r="AW36" s="11">
         <v>147</v>
       </c>
-      <c r="AS36" s="11">
-        <v>84</v>
-      </c>
-      <c r="AT36" s="11">
-        <v>60</v>
-      </c>
-      <c r="AU36" s="11">
-        <v>463</v>
-      </c>
-      <c r="AV36" s="11">
-        <v>38</v>
-      </c>
-      <c r="AW36" s="11">
-        <v>17</v>
-      </c>
       <c r="AX36" s="11">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AY36" s="11">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AZ36" s="11">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="BA36" s="11">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="BB36" s="11">
-        <v>161</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4798,94 +4798,94 @@
         <v>0</v>
       </c>
       <c r="Y37" s="17">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="Z37" s="17">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="AA37" s="17">
+        <v>180</v>
+      </c>
+      <c r="AB37" s="17">
+        <v>160</v>
+      </c>
+      <c r="AC37" s="17">
         <v>208</v>
       </c>
-      <c r="AB37" s="17">
-        <v>159</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>180</v>
-      </c>
       <c r="AD37" s="17">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="AE37" s="17">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="AF37" s="17">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AG37" s="17">
-        <v>144</v>
+        <v>872</v>
       </c>
       <c r="AH37" s="17">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="AI37" s="17">
-        <v>872</v>
+        <v>133</v>
       </c>
       <c r="AJ37" s="17">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="AK37" s="17">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="AL37" s="17">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AM37" s="17">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AN37" s="17">
+        <v>91</v>
+      </c>
+      <c r="AO37" s="17">
+        <v>146</v>
+      </c>
+      <c r="AP37" s="17">
+        <v>147</v>
+      </c>
+      <c r="AQ37" s="17">
         <v>84</v>
       </c>
-      <c r="AO37" s="17">
-        <v>65</v>
-      </c>
-      <c r="AP37" s="17">
-        <v>91</v>
-      </c>
-      <c r="AQ37" s="17">
-        <v>146</v>
-      </c>
       <c r="AR37" s="17">
+        <v>60</v>
+      </c>
+      <c r="AS37" s="17">
+        <v>463</v>
+      </c>
+      <c r="AT37" s="17">
+        <v>38</v>
+      </c>
+      <c r="AU37" s="17">
+        <v>17</v>
+      </c>
+      <c r="AV37" s="17">
+        <v>20</v>
+      </c>
+      <c r="AW37" s="17">
         <v>147</v>
       </c>
-      <c r="AS37" s="17">
-        <v>84</v>
-      </c>
-      <c r="AT37" s="17">
-        <v>60</v>
-      </c>
-      <c r="AU37" s="17">
-        <v>463</v>
-      </c>
-      <c r="AV37" s="17">
-        <v>38</v>
-      </c>
-      <c r="AW37" s="17">
-        <v>17</v>
-      </c>
       <c r="AX37" s="17">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AY37" s="17">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AZ37" s="17">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="BA37" s="17">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="BB37" s="17">
-        <v>161</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5040,14 +5040,14 @@
       <c r="AG39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH39" s="11" t="s">
-        <v>58</v>
+      <c r="AH39" s="11">
+        <v>0</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ39" s="11">
-        <v>0</v>
+      <c r="AJ39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK39" s="11" t="s">
         <v>58</v>
@@ -5172,11 +5172,11 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>0</v>
       </c>
       <c r="AA40" s="13">
         <v>0</v>
@@ -5199,11 +5199,11 @@
       <c r="AG40" s="13">
         <v>0</v>
       </c>
-      <c r="AH40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>0</v>
+      <c r="AH40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ40" s="13" t="s">
         <v>58</v>
@@ -5329,11 +5329,11 @@
       <c r="X41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z41" s="15" t="s">
-        <v>58</v>
+      <c r="Y41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="15">
+        <v>0</v>
       </c>
       <c r="AA41" s="15">
         <v>0</v>
@@ -5543,11 +5543,11 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>0</v>
       </c>
       <c r="AA43" s="15">
         <v>0</v>
@@ -5701,94 +5701,94 @@
         <v>0</v>
       </c>
       <c r="Y44" s="17">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="Z44" s="17">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="AA44" s="17">
-        <v>1311</v>
+        <v>1371</v>
       </c>
       <c r="AB44" s="17">
-        <v>1294</v>
+        <v>1136</v>
       </c>
       <c r="AC44" s="17">
-        <v>1371</v>
+        <v>1072</v>
       </c>
       <c r="AD44" s="17">
-        <v>1136</v>
+        <v>1410</v>
       </c>
       <c r="AE44" s="17">
-        <v>1072</v>
+        <v>1439</v>
       </c>
       <c r="AF44" s="17">
-        <v>1410</v>
+        <v>1334</v>
       </c>
       <c r="AG44" s="17">
-        <v>1439</v>
+        <v>1631</v>
       </c>
       <c r="AH44" s="17">
-        <v>1334</v>
+        <v>512</v>
       </c>
       <c r="AI44" s="17">
-        <v>1631</v>
+        <v>1179</v>
       </c>
       <c r="AJ44" s="17">
-        <v>512</v>
+        <v>1055</v>
       </c>
       <c r="AK44" s="17">
-        <v>1179</v>
+        <v>1032</v>
       </c>
       <c r="AL44" s="17">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="AM44" s="17">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="AN44" s="17">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="AO44" s="17">
-        <v>1011</v>
+        <v>1069</v>
       </c>
       <c r="AP44" s="17">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="AQ44" s="17">
-        <v>1069</v>
+        <v>828</v>
       </c>
       <c r="AR44" s="17">
-        <v>1106</v>
+        <v>864</v>
       </c>
       <c r="AS44" s="17">
-        <v>828</v>
+        <v>571</v>
       </c>
       <c r="AT44" s="17">
-        <v>864</v>
+        <v>436</v>
       </c>
       <c r="AU44" s="17">
-        <v>571</v>
+        <v>32</v>
       </c>
       <c r="AV44" s="17">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="AW44" s="17">
-        <v>32</v>
+        <v>648</v>
       </c>
       <c r="AX44" s="17">
-        <v>464</v>
+        <v>744</v>
       </c>
       <c r="AY44" s="17">
-        <v>648</v>
+        <v>523</v>
       </c>
       <c r="AZ44" s="17">
-        <v>744</v>
+        <v>705</v>
       </c>
       <c r="BA44" s="17">
-        <v>523</v>
+        <v>888</v>
       </c>
       <c r="BB44" s="17">
-        <v>705</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6293,95 +6293,95 @@
       <c r="X51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>58</v>
+      <c r="Y51" s="11">
+        <v>12962</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>11838</v>
       </c>
       <c r="AA51" s="11">
-        <v>12962</v>
+        <v>15040</v>
       </c>
       <c r="AB51" s="11">
-        <v>11838</v>
+        <v>28208</v>
       </c>
       <c r="AC51" s="11">
-        <v>15040</v>
+        <v>24364</v>
       </c>
       <c r="AD51" s="11">
-        <v>28208</v>
+        <v>9319</v>
       </c>
       <c r="AE51" s="11">
-        <v>24364</v>
+        <v>25128</v>
       </c>
       <c r="AF51" s="11">
-        <v>9319</v>
+        <v>20524</v>
       </c>
       <c r="AG51" s="11">
-        <v>25128</v>
-      </c>
-      <c r="AH51" s="11">
-        <v>20524</v>
-      </c>
-      <c r="AI51" s="11">
         <v>8653</v>
       </c>
-      <c r="AJ51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK51" s="11" t="s">
-        <v>58</v>
+      <c r="AH51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ51" s="11">
+        <v>21324</v>
+      </c>
+      <c r="AK51" s="11">
+        <v>9826</v>
       </c>
       <c r="AL51" s="11">
-        <v>21324</v>
+        <v>8550</v>
       </c>
       <c r="AM51" s="11">
-        <v>9826</v>
+        <v>8991</v>
       </c>
       <c r="AN51" s="11">
-        <v>8550</v>
+        <v>12874</v>
       </c>
       <c r="AO51" s="11">
-        <v>8991</v>
+        <v>17112</v>
       </c>
       <c r="AP51" s="11">
-        <v>12874</v>
+        <v>36680</v>
       </c>
       <c r="AQ51" s="11">
-        <v>17112</v>
+        <v>29292</v>
       </c>
       <c r="AR51" s="11">
-        <v>36680</v>
+        <v>49120</v>
       </c>
       <c r="AS51" s="11">
-        <v>29292</v>
+        <v>14380</v>
       </c>
       <c r="AT51" s="11">
-        <v>49120</v>
+        <v>9472</v>
       </c>
       <c r="AU51" s="11">
-        <v>14380</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="11">
-        <v>9472</v>
+        <v>72135</v>
       </c>
       <c r="AW51" s="11">
-        <v>0</v>
+        <v>54672</v>
       </c>
       <c r="AX51" s="11">
-        <v>72135</v>
+        <v>23415</v>
       </c>
       <c r="AY51" s="11">
-        <v>54672</v>
+        <v>51313</v>
       </c>
       <c r="AZ51" s="11">
-        <v>23415</v>
+        <v>95458</v>
       </c>
       <c r="BA51" s="11">
-        <v>51313</v>
+        <v>111553</v>
       </c>
       <c r="BB51" s="11">
-        <v>95458</v>
+        <v>65064</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6485,41 +6485,41 @@
       <c r="AI52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK52" s="13" t="s">
-        <v>58</v>
+      <c r="AJ52" s="13">
+        <v>120878</v>
+      </c>
+      <c r="AK52" s="13">
+        <v>179709</v>
       </c>
       <c r="AL52" s="13">
-        <v>120878</v>
+        <v>225789</v>
       </c>
       <c r="AM52" s="13">
-        <v>179709</v>
+        <v>231341</v>
       </c>
       <c r="AN52" s="13">
-        <v>225789</v>
+        <v>256539</v>
       </c>
       <c r="AO52" s="13">
-        <v>231341</v>
+        <v>260537</v>
       </c>
       <c r="AP52" s="13">
-        <v>256539</v>
+        <v>260136</v>
       </c>
       <c r="AQ52" s="13">
-        <v>260537</v>
+        <v>214732</v>
       </c>
       <c r="AR52" s="13">
-        <v>260136</v>
+        <v>-386734</v>
       </c>
       <c r="AS52" s="13">
-        <v>214732</v>
-      </c>
-      <c r="AT52" s="13">
-        <v>217920</v>
-      </c>
-      <c r="AU52" s="13">
         <v>13296</v>
+      </c>
+      <c r="AT52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV52" s="13" t="s">
         <v>58</v>
@@ -6611,95 +6611,95 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>21066</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>14361</v>
       </c>
       <c r="AA53" s="11">
-        <v>21066</v>
+        <v>17495</v>
       </c>
       <c r="AB53" s="11">
-        <v>14361</v>
+        <v>18401</v>
       </c>
       <c r="AC53" s="11">
-        <v>17495</v>
+        <v>30175</v>
       </c>
       <c r="AD53" s="11">
-        <v>18401</v>
+        <v>41672</v>
       </c>
       <c r="AE53" s="11">
-        <v>30175</v>
+        <v>25032</v>
       </c>
       <c r="AF53" s="11">
-        <v>41672</v>
+        <v>31354</v>
       </c>
       <c r="AG53" s="11">
-        <v>25032</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>31354</v>
-      </c>
-      <c r="AI53" s="11">
         <v>16112</v>
       </c>
-      <c r="AJ53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK53" s="11" t="s">
-        <v>58</v>
+      <c r="AH53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>43623</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>37717</v>
       </c>
       <c r="AL53" s="11">
-        <v>43623</v>
+        <v>32439</v>
       </c>
       <c r="AM53" s="11">
-        <v>37717</v>
+        <v>39780</v>
       </c>
       <c r="AN53" s="11">
-        <v>32439</v>
+        <v>34651</v>
       </c>
       <c r="AO53" s="11">
-        <v>39780</v>
+        <v>44073</v>
       </c>
       <c r="AP53" s="11">
-        <v>34651</v>
+        <v>40422</v>
       </c>
       <c r="AQ53" s="11">
-        <v>44073</v>
+        <v>35453</v>
       </c>
       <c r="AR53" s="11">
-        <v>40422</v>
+        <v>39981</v>
       </c>
       <c r="AS53" s="11">
-        <v>35453</v>
+        <v>14970</v>
       </c>
       <c r="AT53" s="11">
-        <v>39981</v>
+        <v>28187</v>
       </c>
       <c r="AU53" s="11">
-        <v>14970</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="11">
-        <v>28187</v>
+        <v>45111</v>
       </c>
       <c r="AW53" s="11">
-        <v>0</v>
+        <v>56564</v>
       </c>
       <c r="AX53" s="11">
-        <v>45111</v>
+        <v>70231</v>
       </c>
       <c r="AY53" s="11">
-        <v>56564</v>
+        <v>105959</v>
       </c>
       <c r="AZ53" s="11">
-        <v>70231</v>
+        <v>92588</v>
       </c>
       <c r="BA53" s="11">
-        <v>105959</v>
+        <v>60091</v>
       </c>
       <c r="BB53" s="11">
-        <v>92588</v>
+        <v>47482</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6770,44 +6770,44 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>157513</v>
+      </c>
+      <c r="Z54" s="13">
+        <v>154616</v>
       </c>
       <c r="AA54" s="13">
-        <v>157513</v>
+        <v>186560</v>
       </c>
       <c r="AB54" s="13">
-        <v>154616</v>
+        <v>121686</v>
       </c>
       <c r="AC54" s="13">
-        <v>186560</v>
+        <v>144761</v>
       </c>
       <c r="AD54" s="13">
-        <v>121686</v>
+        <v>267708</v>
       </c>
       <c r="AE54" s="13">
-        <v>144761</v>
+        <v>264137</v>
       </c>
       <c r="AF54" s="13">
-        <v>267708</v>
+        <v>250331</v>
       </c>
       <c r="AG54" s="13">
-        <v>264137</v>
+        <v>89164</v>
       </c>
       <c r="AH54" s="13">
-        <v>250331</v>
+        <v>113936</v>
       </c>
       <c r="AI54" s="13">
-        <v>89164</v>
+        <v>267961</v>
       </c>
       <c r="AJ54" s="13">
-        <v>113936</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="13">
-        <v>267961</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="13">
         <v>0</v>
@@ -6815,11 +6815,11 @@
       <c r="AM54" s="13">
         <v>0</v>
       </c>
-      <c r="AN54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="13">
-        <v>0</v>
+      <c r="AN54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP54" s="13" t="s">
         <v>58</v>
@@ -6833,32 +6833,32 @@
       <c r="AS54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU54" s="13" t="s">
-        <v>58</v>
+      <c r="AT54" s="13">
+        <v>121229</v>
+      </c>
+      <c r="AU54" s="13">
+        <v>5323</v>
       </c>
       <c r="AV54" s="13">
-        <v>121229</v>
+        <v>155961</v>
       </c>
       <c r="AW54" s="13">
-        <v>5323</v>
+        <v>298886</v>
       </c>
       <c r="AX54" s="13">
-        <v>155961</v>
+        <v>421953</v>
       </c>
       <c r="AY54" s="13">
-        <v>298886</v>
+        <v>129291</v>
       </c>
       <c r="AZ54" s="13">
-        <v>421953</v>
+        <v>204901</v>
       </c>
       <c r="BA54" s="13">
-        <v>129291</v>
+        <v>252919</v>
       </c>
       <c r="BB54" s="13">
-        <v>204901</v>
+        <v>74546</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6928,94 +6928,94 @@
         <v>0</v>
       </c>
       <c r="Y55" s="15">
-        <v>0</v>
+        <v>191541</v>
       </c>
       <c r="Z55" s="15">
-        <v>0</v>
+        <v>180815</v>
       </c>
       <c r="AA55" s="15">
-        <v>191541</v>
+        <v>219095</v>
       </c>
       <c r="AB55" s="15">
-        <v>180815</v>
+        <v>168295</v>
       </c>
       <c r="AC55" s="15">
-        <v>219095</v>
+        <v>199300</v>
       </c>
       <c r="AD55" s="15">
-        <v>168295</v>
+        <v>318699</v>
       </c>
       <c r="AE55" s="15">
-        <v>199300</v>
+        <v>314297</v>
       </c>
       <c r="AF55" s="15">
-        <v>318699</v>
+        <v>302209</v>
       </c>
       <c r="AG55" s="15">
-        <v>314297</v>
+        <v>113929</v>
       </c>
       <c r="AH55" s="15">
-        <v>302209</v>
+        <v>113936</v>
       </c>
       <c r="AI55" s="15">
-        <v>113929</v>
+        <v>267961</v>
       </c>
       <c r="AJ55" s="15">
-        <v>113936</v>
+        <v>185825</v>
       </c>
       <c r="AK55" s="15">
-        <v>267961</v>
+        <v>227252</v>
       </c>
       <c r="AL55" s="15">
-        <v>185825</v>
+        <v>266778</v>
       </c>
       <c r="AM55" s="15">
-        <v>227252</v>
+        <v>280112</v>
       </c>
       <c r="AN55" s="15">
-        <v>266778</v>
+        <v>304064</v>
       </c>
       <c r="AO55" s="15">
-        <v>280112</v>
+        <v>321722</v>
       </c>
       <c r="AP55" s="15">
-        <v>304064</v>
+        <v>337238</v>
       </c>
       <c r="AQ55" s="15">
-        <v>321722</v>
+        <v>279477</v>
       </c>
       <c r="AR55" s="15">
-        <v>337238</v>
+        <v>-297633</v>
       </c>
       <c r="AS55" s="15">
-        <v>279477</v>
+        <v>42646</v>
       </c>
       <c r="AT55" s="15">
-        <v>307021</v>
+        <v>158888</v>
       </c>
       <c r="AU55" s="15">
-        <v>42646</v>
+        <v>5323</v>
       </c>
       <c r="AV55" s="15">
-        <v>158888</v>
+        <v>273207</v>
       </c>
       <c r="AW55" s="15">
-        <v>5323</v>
+        <v>410122</v>
       </c>
       <c r="AX55" s="15">
-        <v>273207</v>
+        <v>515599</v>
       </c>
       <c r="AY55" s="15">
-        <v>410122</v>
+        <v>286563</v>
       </c>
       <c r="AZ55" s="15">
-        <v>515599</v>
+        <v>392947</v>
       </c>
       <c r="BA55" s="15">
-        <v>286563</v>
+        <v>424563</v>
       </c>
       <c r="BB55" s="15">
-        <v>392947</v>
+        <v>187092</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7143,95 +7143,95 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>32065</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>23554</v>
       </c>
       <c r="AA57" s="11">
-        <v>32065</v>
+        <v>28816</v>
       </c>
       <c r="AB57" s="11">
-        <v>23554</v>
+        <v>24759</v>
       </c>
       <c r="AC57" s="11">
-        <v>28816</v>
+        <v>33874</v>
       </c>
       <c r="AD57" s="11">
-        <v>24759</v>
+        <v>20415</v>
       </c>
       <c r="AE57" s="11">
-        <v>33874</v>
+        <v>23610</v>
       </c>
       <c r="AF57" s="11">
-        <v>20415</v>
+        <v>15768</v>
       </c>
       <c r="AG57" s="11">
-        <v>23610</v>
+        <v>138324</v>
       </c>
       <c r="AH57" s="11">
-        <v>15768</v>
+        <v>9963</v>
       </c>
       <c r="AI57" s="11">
-        <v>138324</v>
+        <v>21193</v>
       </c>
       <c r="AJ57" s="11">
-        <v>9963</v>
+        <v>89329</v>
       </c>
       <c r="AK57" s="11">
-        <v>21193</v>
+        <v>44996</v>
       </c>
       <c r="AL57" s="11">
-        <v>89329</v>
+        <v>17120</v>
       </c>
       <c r="AM57" s="11">
-        <v>44996</v>
+        <v>13351</v>
       </c>
       <c r="AN57" s="11">
-        <v>17120</v>
+        <v>18885</v>
       </c>
       <c r="AO57" s="11">
-        <v>13351</v>
+        <v>33508</v>
       </c>
       <c r="AP57" s="11">
-        <v>18885</v>
+        <v>32455</v>
       </c>
       <c r="AQ57" s="11">
-        <v>33508</v>
+        <v>19117</v>
       </c>
       <c r="AR57" s="11">
-        <v>32455</v>
+        <v>24106</v>
       </c>
       <c r="AS57" s="11">
-        <v>19117</v>
+        <v>117604</v>
       </c>
       <c r="AT57" s="11">
-        <v>13524</v>
+        <v>10911</v>
       </c>
       <c r="AU57" s="11">
-        <v>117604</v>
+        <v>4780</v>
       </c>
       <c r="AV57" s="11">
-        <v>10911</v>
+        <v>6941</v>
       </c>
       <c r="AW57" s="11">
-        <v>4780</v>
+        <v>28507</v>
       </c>
       <c r="AX57" s="11">
-        <v>6941</v>
+        <v>34884</v>
       </c>
       <c r="AY57" s="11">
-        <v>28507</v>
+        <v>43365</v>
       </c>
       <c r="AZ57" s="11">
-        <v>34884</v>
+        <v>57099</v>
       </c>
       <c r="BA57" s="11">
-        <v>43365</v>
+        <v>105651</v>
       </c>
       <c r="BB57" s="11">
-        <v>57099</v>
+        <v>113383</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7301,94 +7301,94 @@
         <v>0</v>
       </c>
       <c r="Y58" s="17">
-        <v>0</v>
+        <v>32065</v>
       </c>
       <c r="Z58" s="17">
-        <v>0</v>
+        <v>23554</v>
       </c>
       <c r="AA58" s="17">
-        <v>32065</v>
+        <v>28816</v>
       </c>
       <c r="AB58" s="17">
-        <v>23554</v>
+        <v>24759</v>
       </c>
       <c r="AC58" s="17">
-        <v>28816</v>
+        <v>33874</v>
       </c>
       <c r="AD58" s="17">
-        <v>24759</v>
+        <v>20415</v>
       </c>
       <c r="AE58" s="17">
-        <v>33874</v>
+        <v>23610</v>
       </c>
       <c r="AF58" s="17">
-        <v>20415</v>
+        <v>15768</v>
       </c>
       <c r="AG58" s="17">
-        <v>23610</v>
+        <v>138324</v>
       </c>
       <c r="AH58" s="17">
-        <v>15768</v>
+        <v>9963</v>
       </c>
       <c r="AI58" s="17">
-        <v>138324</v>
+        <v>21193</v>
       </c>
       <c r="AJ58" s="17">
-        <v>9963</v>
+        <v>89329</v>
       </c>
       <c r="AK58" s="17">
-        <v>21193</v>
+        <v>44996</v>
       </c>
       <c r="AL58" s="17">
-        <v>89329</v>
+        <v>17120</v>
       </c>
       <c r="AM58" s="17">
-        <v>44996</v>
+        <v>13351</v>
       </c>
       <c r="AN58" s="17">
-        <v>17120</v>
+        <v>18885</v>
       </c>
       <c r="AO58" s="17">
-        <v>13351</v>
+        <v>33508</v>
       </c>
       <c r="AP58" s="17">
-        <v>18885</v>
+        <v>32455</v>
       </c>
       <c r="AQ58" s="17">
-        <v>33508</v>
+        <v>19117</v>
       </c>
       <c r="AR58" s="17">
-        <v>32455</v>
+        <v>24106</v>
       </c>
       <c r="AS58" s="17">
-        <v>19117</v>
+        <v>117604</v>
       </c>
       <c r="AT58" s="17">
-        <v>13524</v>
+        <v>10911</v>
       </c>
       <c r="AU58" s="17">
-        <v>117604</v>
+        <v>4780</v>
       </c>
       <c r="AV58" s="17">
-        <v>10911</v>
+        <v>6941</v>
       </c>
       <c r="AW58" s="17">
-        <v>4780</v>
+        <v>28507</v>
       </c>
       <c r="AX58" s="17">
-        <v>6941</v>
+        <v>34884</v>
       </c>
       <c r="AY58" s="17">
-        <v>28507</v>
+        <v>43365</v>
       </c>
       <c r="AZ58" s="17">
-        <v>34884</v>
+        <v>57099</v>
       </c>
       <c r="BA58" s="17">
-        <v>43365</v>
+        <v>105651</v>
       </c>
       <c r="BB58" s="17">
-        <v>57099</v>
+        <v>113383</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7543,11 +7543,11 @@
       <c r="AG60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI60" s="11" t="s">
-        <v>58</v>
+      <c r="AH60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="11">
+        <v>0</v>
       </c>
       <c r="AJ60" s="11">
         <v>0</v>
@@ -7561,11 +7561,11 @@
       <c r="AM60" s="11">
         <v>0</v>
       </c>
-      <c r="AN60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="11">
-        <v>0</v>
+      <c r="AN60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO60" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP60" s="11" t="s">
         <v>58</v>
@@ -7675,11 +7675,11 @@
       <c r="X61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z61" s="13" t="s">
-        <v>58</v>
+      <c r="Y61" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="13">
+        <v>0</v>
       </c>
       <c r="AA61" s="13">
         <v>0</v>
@@ -7702,11 +7702,11 @@
       <c r="AG61" s="13">
         <v>0</v>
       </c>
-      <c r="AH61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="13">
-        <v>0</v>
+      <c r="AH61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ61" s="13" t="s">
         <v>58</v>
@@ -7834,11 +7834,11 @@
       <c r="X62" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z62" s="15" t="s">
-        <v>58</v>
+      <c r="Y62" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="15">
+        <v>0</v>
       </c>
       <c r="AA62" s="15">
         <v>0</v>
@@ -8050,11 +8050,11 @@
       <c r="X64" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z64" s="15" t="s">
-        <v>58</v>
+      <c r="Y64" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="15">
+        <v>0</v>
       </c>
       <c r="AA64" s="15">
         <v>0</v>
@@ -8266,11 +8266,11 @@
       <c r="X66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z66" s="11" t="s">
-        <v>58</v>
+      <c r="Y66" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>0</v>
       </c>
       <c r="AA66" s="11">
         <v>0</v>
@@ -8424,94 +8424,94 @@
         <v>0</v>
       </c>
       <c r="Y67" s="17">
-        <v>0</v>
+        <v>223606</v>
       </c>
       <c r="Z67" s="17">
-        <v>0</v>
+        <v>204369</v>
       </c>
       <c r="AA67" s="17">
-        <v>223606</v>
+        <v>247911</v>
       </c>
       <c r="AB67" s="17">
-        <v>204369</v>
+        <v>193054</v>
       </c>
       <c r="AC67" s="17">
-        <v>247911</v>
+        <v>233174</v>
       </c>
       <c r="AD67" s="17">
-        <v>193054</v>
+        <v>339114</v>
       </c>
       <c r="AE67" s="17">
-        <v>233174</v>
+        <v>337907</v>
       </c>
       <c r="AF67" s="17">
-        <v>339114</v>
+        <v>317977</v>
       </c>
       <c r="AG67" s="17">
-        <v>337907</v>
+        <v>252253</v>
       </c>
       <c r="AH67" s="17">
-        <v>317977</v>
+        <v>123899</v>
       </c>
       <c r="AI67" s="17">
-        <v>252253</v>
+        <v>289154</v>
       </c>
       <c r="AJ67" s="17">
-        <v>123899</v>
+        <v>275154</v>
       </c>
       <c r="AK67" s="17">
-        <v>289154</v>
+        <v>272248</v>
       </c>
       <c r="AL67" s="17">
-        <v>275154</v>
+        <v>283898</v>
       </c>
       <c r="AM67" s="17">
-        <v>272248</v>
+        <v>293463</v>
       </c>
       <c r="AN67" s="17">
-        <v>283898</v>
+        <v>322949</v>
       </c>
       <c r="AO67" s="17">
-        <v>293463</v>
+        <v>355230</v>
       </c>
       <c r="AP67" s="17">
-        <v>322949</v>
+        <v>369693</v>
       </c>
       <c r="AQ67" s="17">
-        <v>355230</v>
+        <v>298594</v>
       </c>
       <c r="AR67" s="17">
-        <v>369693</v>
+        <v>-273527</v>
       </c>
       <c r="AS67" s="17">
-        <v>298594</v>
+        <v>160250</v>
       </c>
       <c r="AT67" s="17">
-        <v>320545</v>
+        <v>169799</v>
       </c>
       <c r="AU67" s="17">
-        <v>160250</v>
+        <v>10103</v>
       </c>
       <c r="AV67" s="17">
-        <v>169799</v>
+        <v>280148</v>
       </c>
       <c r="AW67" s="17">
-        <v>10103</v>
+        <v>438629</v>
       </c>
       <c r="AX67" s="17">
-        <v>280148</v>
+        <v>550483</v>
       </c>
       <c r="AY67" s="17">
-        <v>438629</v>
+        <v>329928</v>
       </c>
       <c r="AZ67" s="17">
-        <v>550483</v>
+        <v>450046</v>
       </c>
       <c r="BA67" s="17">
-        <v>329928</v>
+        <v>530214</v>
       </c>
       <c r="BB67" s="17">
-        <v>450046</v>
+        <v>300475</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9016,95 +9016,95 @@
       <c r="X74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z74" s="11" t="s">
-        <v>58</v>
+      <c r="Y74" s="11">
+        <v>249269231</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>219222222</v>
       </c>
       <c r="AA74" s="11">
-        <v>249269231</v>
+        <v>221176471</v>
       </c>
       <c r="AB74" s="11">
-        <v>219222222</v>
+        <v>222110236</v>
       </c>
       <c r="AC74" s="11">
-        <v>221176471</v>
+        <v>264826087</v>
       </c>
       <c r="AD74" s="11">
-        <v>222110236</v>
+        <v>291218750</v>
       </c>
       <c r="AE74" s="11">
-        <v>264826087</v>
+        <v>256411020</v>
       </c>
       <c r="AF74" s="11">
-        <v>291218750</v>
+        <v>259797468</v>
       </c>
       <c r="AG74" s="11">
-        <v>256411020</v>
-      </c>
-      <c r="AH74" s="11">
-        <v>259797468</v>
-      </c>
-      <c r="AI74" s="11">
         <v>240361111</v>
       </c>
-      <c r="AJ74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK74" s="11" t="s">
-        <v>58</v>
+      <c r="AH74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ74" s="11">
+        <v>300338028</v>
+      </c>
+      <c r="AK74" s="11">
+        <v>297757576</v>
       </c>
       <c r="AL74" s="11">
-        <v>300338028</v>
+        <v>305357143</v>
       </c>
       <c r="AM74" s="11">
-        <v>297757576</v>
+        <v>321107143</v>
       </c>
       <c r="AN74" s="11">
-        <v>305357143</v>
+        <v>330102564</v>
       </c>
       <c r="AO74" s="11">
-        <v>321107143</v>
+        <v>388909091</v>
       </c>
       <c r="AP74" s="11">
-        <v>330102564</v>
+        <v>394408602</v>
       </c>
       <c r="AQ74" s="11">
-        <v>388909091</v>
+        <v>412563380</v>
       </c>
       <c r="AR74" s="11">
-        <v>394408602</v>
+        <v>423448276</v>
       </c>
       <c r="AS74" s="11">
-        <v>412563380</v>
+        <v>422941176</v>
       </c>
       <c r="AT74" s="11">
-        <v>423448276</v>
-      </c>
-      <c r="AU74" s="11">
-        <v>422941176</v>
+        <v>728615385</v>
+      </c>
+      <c r="AU74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV74" s="11">
-        <v>728615385</v>
-      </c>
-      <c r="AW74" s="11" t="s">
-        <v>58</v>
+        <v>936818182</v>
+      </c>
+      <c r="AW74" s="11">
+        <v>700923077</v>
       </c>
       <c r="AX74" s="11">
-        <v>936818182</v>
+        <v>780500000</v>
       </c>
       <c r="AY74" s="11">
-        <v>700923077</v>
+        <v>900228070</v>
       </c>
       <c r="AZ74" s="11">
-        <v>780500000</v>
+        <v>815880342</v>
       </c>
       <c r="BA74" s="11">
-        <v>900228070</v>
+        <v>814255474</v>
       </c>
       <c r="BB74" s="11">
-        <v>815880342</v>
+        <v>813300000</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9208,41 +9208,41 @@
       <c r="AI75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK75" s="13" t="s">
-        <v>58</v>
+      <c r="AJ75" s="13">
+        <v>266838852</v>
+      </c>
+      <c r="AK75" s="13">
+        <v>275627301</v>
       </c>
       <c r="AL75" s="13">
-        <v>266838852</v>
+        <v>278751852</v>
       </c>
       <c r="AM75" s="13">
-        <v>275627301</v>
+        <v>291728878</v>
       </c>
       <c r="AN75" s="13">
-        <v>278751852</v>
+        <v>309455971</v>
       </c>
       <c r="AO75" s="13">
-        <v>291728878</v>
+        <v>341912073</v>
       </c>
       <c r="AP75" s="13">
-        <v>309455971</v>
+        <v>342735178</v>
       </c>
       <c r="AQ75" s="13">
-        <v>341912073</v>
+        <v>368322470</v>
       </c>
       <c r="AR75" s="13">
-        <v>342735178</v>
+        <v>289948691</v>
       </c>
       <c r="AS75" s="13">
-        <v>368322470</v>
-      </c>
-      <c r="AT75" s="13">
-        <v>370612245</v>
-      </c>
-      <c r="AU75" s="13">
         <v>369333333</v>
+      </c>
+      <c r="AT75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV75" s="13" t="s">
         <v>58</v>
@@ -9334,95 +9334,95 @@
       <c r="X76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z76" s="11" t="s">
-        <v>58</v>
+      <c r="Y76" s="11">
+        <v>196878505</v>
+      </c>
+      <c r="Z76" s="11">
+        <v>179512500</v>
       </c>
       <c r="AA76" s="11">
-        <v>196878505</v>
+        <v>184157895</v>
       </c>
       <c r="AB76" s="11">
-        <v>179512500</v>
+        <v>175247619</v>
       </c>
       <c r="AC76" s="11">
-        <v>184157895</v>
+        <v>232115385</v>
       </c>
       <c r="AD76" s="11">
-        <v>175247619</v>
+        <v>262088050</v>
       </c>
       <c r="AE76" s="11">
-        <v>232115385</v>
+        <v>231779352</v>
       </c>
       <c r="AF76" s="11">
-        <v>262088050</v>
+        <v>235744361</v>
       </c>
       <c r="AG76" s="11">
-        <v>231779352</v>
-      </c>
-      <c r="AH76" s="11">
-        <v>235744361</v>
-      </c>
-      <c r="AI76" s="11">
         <v>203949367</v>
       </c>
-      <c r="AJ76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK76" s="11" t="s">
-        <v>58</v>
+      <c r="AH76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ76" s="11">
+        <v>296755102</v>
+      </c>
+      <c r="AK76" s="11">
+        <v>294664063</v>
       </c>
       <c r="AL76" s="11">
-        <v>296755102</v>
+        <v>292243243</v>
       </c>
       <c r="AM76" s="11">
-        <v>294664063</v>
+        <v>318240000</v>
       </c>
       <c r="AN76" s="11">
-        <v>292243243</v>
+        <v>320842593</v>
       </c>
       <c r="AO76" s="11">
-        <v>318240000</v>
+        <v>376692308</v>
       </c>
       <c r="AP76" s="11">
-        <v>320842593</v>
+        <v>377775701</v>
       </c>
       <c r="AQ76" s="11">
-        <v>376692308</v>
+        <v>393922222</v>
       </c>
       <c r="AR76" s="11">
-        <v>377775701</v>
+        <v>399810000</v>
       </c>
       <c r="AS76" s="11">
-        <v>393922222</v>
+        <v>393947368</v>
       </c>
       <c r="AT76" s="11">
-        <v>399810000</v>
-      </c>
-      <c r="AU76" s="11">
-        <v>393947368</v>
+        <v>447412698</v>
+      </c>
+      <c r="AU76" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV76" s="11">
-        <v>447412698</v>
-      </c>
-      <c r="AW76" s="11" t="s">
-        <v>58</v>
+        <v>635366197</v>
+      </c>
+      <c r="AW76" s="11">
+        <v>844238806</v>
       </c>
       <c r="AX76" s="11">
-        <v>635366197</v>
+        <v>867049383</v>
       </c>
       <c r="AY76" s="11">
-        <v>844238806</v>
+        <v>868516393</v>
       </c>
       <c r="AZ76" s="11">
-        <v>867049383</v>
+        <v>752747967</v>
       </c>
       <c r="BA76" s="11">
-        <v>868516393</v>
+        <v>751137500</v>
       </c>
       <c r="BB76" s="11">
-        <v>752747967</v>
+        <v>753682540</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9493,45 +9493,45 @@
       <c r="X77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" s="13" t="s">
-        <v>58</v>
+      <c r="Y77" s="13">
+        <v>166856992</v>
+      </c>
+      <c r="Z77" s="13">
+        <v>154461538</v>
       </c>
       <c r="AA77" s="13">
-        <v>166856992</v>
+        <v>181478599</v>
       </c>
       <c r="AB77" s="13">
-        <v>154461538</v>
+        <v>163556452</v>
       </c>
       <c r="AC77" s="13">
-        <v>181478599</v>
+        <v>225484424</v>
       </c>
       <c r="AD77" s="13">
-        <v>163556452</v>
+        <v>244705667</v>
       </c>
       <c r="AE77" s="13">
-        <v>225484424</v>
+        <v>242549633</v>
       </c>
       <c r="AF77" s="13">
-        <v>244705667</v>
+        <v>243749757</v>
       </c>
       <c r="AG77" s="13">
-        <v>242549633</v>
+        <v>138453416</v>
       </c>
       <c r="AH77" s="13">
-        <v>243749757</v>
+        <v>253755011</v>
       </c>
       <c r="AI77" s="13">
-        <v>138453416</v>
-      </c>
-      <c r="AJ77" s="13">
-        <v>253755011</v>
-      </c>
-      <c r="AK77" s="13">
         <v>256176864</v>
       </c>
+      <c r="AJ77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL77" s="13" t="s">
         <v>58</v>
       </c>
@@ -9556,32 +9556,32 @@
       <c r="AS77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU77" s="13" t="s">
-        <v>58</v>
+      <c r="AT77" s="13">
+        <v>376487578</v>
+      </c>
+      <c r="AU77" s="13">
+        <v>354866667</v>
       </c>
       <c r="AV77" s="13">
-        <v>376487578</v>
+        <v>526895270</v>
       </c>
       <c r="AW77" s="13">
-        <v>354866667</v>
+        <v>839567416</v>
       </c>
       <c r="AX77" s="13">
-        <v>526895270</v>
+        <v>849000000</v>
       </c>
       <c r="AY77" s="13">
-        <v>839567416</v>
+        <v>640054455</v>
       </c>
       <c r="AZ77" s="13">
-        <v>849000000</v>
+        <v>674016447</v>
       </c>
       <c r="BA77" s="13">
-        <v>640054455</v>
+        <v>692928767</v>
       </c>
       <c r="BB77" s="13">
-        <v>674016447</v>
+        <v>690240741</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9709,95 +9709,95 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>154158654</v>
+      </c>
+      <c r="Z79" s="11">
+        <v>148138365</v>
       </c>
       <c r="AA79" s="11">
-        <v>154158654</v>
+        <v>160088889</v>
       </c>
       <c r="AB79" s="11">
-        <v>148138365</v>
+        <v>154743750</v>
       </c>
       <c r="AC79" s="11">
-        <v>160088889</v>
+        <v>162855769</v>
       </c>
       <c r="AD79" s="11">
-        <v>154743750</v>
+        <v>163320000</v>
       </c>
       <c r="AE79" s="11">
-        <v>162855769</v>
+        <v>163594789</v>
       </c>
       <c r="AF79" s="11">
-        <v>163320000</v>
+        <v>165978947</v>
       </c>
       <c r="AG79" s="11">
-        <v>163594789</v>
+        <v>158628440</v>
       </c>
       <c r="AH79" s="11">
-        <v>165978947</v>
+        <v>158142857</v>
       </c>
       <c r="AI79" s="11">
-        <v>158628440</v>
+        <v>159345865</v>
       </c>
       <c r="AJ79" s="11">
-        <v>158142857</v>
+        <v>232627604</v>
       </c>
       <c r="AK79" s="11">
-        <v>159345865</v>
+        <v>205461187</v>
       </c>
       <c r="AL79" s="11">
-        <v>232627604</v>
+        <v>203809524</v>
       </c>
       <c r="AM79" s="11">
-        <v>205461187</v>
+        <v>205400000</v>
       </c>
       <c r="AN79" s="11">
-        <v>203809524</v>
+        <v>207527473</v>
       </c>
       <c r="AO79" s="11">
-        <v>205400000</v>
+        <v>229506849</v>
       </c>
       <c r="AP79" s="11">
-        <v>207527473</v>
+        <v>220782313</v>
       </c>
       <c r="AQ79" s="11">
-        <v>229506849</v>
+        <v>227583333</v>
       </c>
       <c r="AR79" s="11">
-        <v>220782313</v>
+        <v>232569377</v>
       </c>
       <c r="AS79" s="11">
-        <v>227583333</v>
+        <v>254004320</v>
       </c>
       <c r="AT79" s="11">
-        <v>225400000</v>
+        <v>287131579</v>
       </c>
       <c r="AU79" s="11">
-        <v>254004320</v>
+        <v>281176471</v>
       </c>
       <c r="AV79" s="11">
-        <v>287131579</v>
+        <v>347050000</v>
       </c>
       <c r="AW79" s="11">
-        <v>281176471</v>
+        <v>193925170</v>
       </c>
       <c r="AX79" s="11">
-        <v>347050000</v>
+        <v>256500000</v>
       </c>
       <c r="AY79" s="11">
-        <v>193925170</v>
+        <v>305387324</v>
       </c>
       <c r="AZ79" s="11">
-        <v>256500000</v>
+        <v>354652174</v>
       </c>
       <c r="BA79" s="11">
-        <v>305387324</v>
+        <v>345264706</v>
       </c>
       <c r="BB79" s="11">
-        <v>354652174</v>
+        <v>372970395</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9952,11 +9952,11 @@
       <c r="AG81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI81" s="11" t="s">
-        <v>58</v>
+      <c r="AH81" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="11">
+        <v>0</v>
       </c>
       <c r="AJ81" s="11">
         <v>0</v>
@@ -9970,11 +9970,11 @@
       <c r="AM81" s="11">
         <v>0</v>
       </c>
-      <c r="AN81" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO81" s="11">
-        <v>0</v>
+      <c r="AN81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP81" s="11" t="s">
         <v>58</v>
@@ -10084,11 +10084,11 @@
       <c r="X82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z82" s="13" t="s">
-        <v>58</v>
+      <c r="Y82" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="13">
+        <v>0</v>
       </c>
       <c r="AA82" s="13">
         <v>0</v>
@@ -10111,11 +10111,11 @@
       <c r="AG82" s="13">
         <v>0</v>
       </c>
-      <c r="AH82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="13">
-        <v>0</v>
+      <c r="AH82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ82" s="13" t="s">
         <v>58</v>

--- a/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghegorji\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegorji\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CA5B3-FEBB-4F85-A28B-5F29AE081C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F479017-168B-4DC2-ACCD-E9B5E7FF1619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غگرجی-بیسکویت‌  گرجی‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -766,12 +766,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -826,7 +826,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -995,7 +995,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1376,7 +1376,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1495,104 +1495,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>25</v>
+      </c>
+      <c r="X11" s="11">
+        <v>57</v>
       </c>
       <c r="Y11" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Z11" s="11">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="AA11" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB11" s="11">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="AC11" s="11">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AD11" s="11">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="AE11" s="11">
-        <v>87</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>73</v>
-      </c>
-      <c r="AG11" s="11">
         <v>18</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>58</v>
+      <c r="AF11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>30</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>35</v>
       </c>
       <c r="AJ11" s="11">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK11" s="11">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AL11" s="11">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AM11" s="11">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AN11" s="11">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AO11" s="11">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AP11" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AQ11" s="11">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="AR11" s="11">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="AS11" s="11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="AU11" s="11">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AV11" s="11">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="AW11" s="11">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AX11" s="11">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="AY11" s="11">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="AZ11" s="11">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="BA11" s="11">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="BB11" s="11">
-        <v>139</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1687,41 +1687,41 @@
       <c r="AG12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI12" s="13" t="s">
-        <v>58</v>
+      <c r="AH12" s="13">
+        <v>566</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>452</v>
       </c>
       <c r="AJ12" s="13">
-        <v>566</v>
+        <v>907</v>
       </c>
       <c r="AK12" s="13">
-        <v>452</v>
+        <v>811</v>
       </c>
       <c r="AL12" s="13">
-        <v>907</v>
+        <v>694</v>
       </c>
       <c r="AM12" s="13">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="AN12" s="13">
-        <v>694</v>
+        <v>760</v>
       </c>
       <c r="AO12" s="13">
-        <v>791</v>
+        <v>531</v>
       </c>
       <c r="AP12" s="13">
-        <v>760</v>
+        <v>622</v>
       </c>
       <c r="AQ12" s="13">
-        <v>531</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>622</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
@@ -1751,7 +1751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1813,104 +1813,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>112</v>
+      </c>
+      <c r="X13" s="11">
+        <v>76</v>
       </c>
       <c r="Y13" s="11">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="11">
         <v>112</v>
       </c>
-      <c r="Z13" s="11">
-        <v>76</v>
-      </c>
       <c r="AA13" s="11">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AB13" s="11">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="AC13" s="11">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="AD13" s="11">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="AE13" s="11">
+        <v>40</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>78</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>111</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>125</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>128</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>94</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>111</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>123</v>
+      </c>
+      <c r="AO13" s="11">
         <v>83</v>
       </c>
-      <c r="AF13" s="11">
-        <v>116</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>40</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>78</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>111</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>125</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>128</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>94</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>111</v>
-      </c>
       <c r="AP13" s="11">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AQ13" s="11">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AR13" s="11">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="AS13" s="11">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AT13" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AU13" s="11">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AV13" s="11">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="AW13" s="11">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="AX13" s="11">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AY13" s="11">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="AZ13" s="11">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="BA13" s="11">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="BB13" s="11">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1972,47 +1972,47 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>944</v>
+      </c>
+      <c r="X14" s="13">
+        <v>911</v>
       </c>
       <c r="Y14" s="13">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="Z14" s="13">
-        <v>911</v>
+        <v>637</v>
       </c>
       <c r="AA14" s="13">
-        <v>949</v>
+        <v>929</v>
       </c>
       <c r="AB14" s="13">
-        <v>637</v>
+        <v>1484</v>
       </c>
       <c r="AC14" s="13">
-        <v>929</v>
+        <v>836</v>
       </c>
       <c r="AD14" s="13">
-        <v>1484</v>
+        <v>831</v>
       </c>
       <c r="AE14" s="13">
-        <v>836</v>
+        <v>316</v>
       </c>
       <c r="AF14" s="13">
-        <v>831</v>
+        <v>647</v>
       </c>
       <c r="AG14" s="13">
-        <v>316</v>
+        <v>1141</v>
       </c>
       <c r="AH14" s="13">
-        <v>647</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>1141</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK14" s="13" t="s">
         <v>58</v>
@@ -2035,41 +2035,41 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>315</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>64</v>
       </c>
       <c r="AT14" s="13">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="AU14" s="13">
-        <v>64</v>
+        <v>428</v>
       </c>
       <c r="AV14" s="13">
-        <v>202</v>
+        <v>494</v>
       </c>
       <c r="AW14" s="13">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AX14" s="13">
-        <v>494</v>
+        <v>289</v>
       </c>
       <c r="AY14" s="13">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="AZ14" s="13">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="BA14" s="13">
-        <v>374</v>
+        <v>239</v>
       </c>
       <c r="BB14" s="13">
-        <v>245</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2130,103 +2130,103 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="Y15" s="15">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="Z15" s="15">
-        <v>1044</v>
+        <v>855</v>
       </c>
       <c r="AA15" s="15">
-        <v>1074</v>
+        <v>1113</v>
       </c>
       <c r="AB15" s="15">
-        <v>855</v>
+        <v>1723</v>
       </c>
       <c r="AC15" s="15">
-        <v>1113</v>
+        <v>1006</v>
       </c>
       <c r="AD15" s="15">
-        <v>1723</v>
+        <v>1020</v>
       </c>
       <c r="AE15" s="15">
-        <v>1006</v>
+        <v>374</v>
       </c>
       <c r="AF15" s="15">
-        <v>1020</v>
+        <v>647</v>
       </c>
       <c r="AG15" s="15">
-        <v>374</v>
+        <v>1141</v>
       </c>
       <c r="AH15" s="15">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="AI15" s="15">
-        <v>1141</v>
+        <v>598</v>
       </c>
       <c r="AJ15" s="15">
-        <v>674</v>
+        <v>1056</v>
       </c>
       <c r="AK15" s="15">
-        <v>598</v>
+        <v>966</v>
       </c>
       <c r="AL15" s="15">
-        <v>1056</v>
+        <v>826</v>
       </c>
       <c r="AM15" s="15">
-        <v>966</v>
+        <v>948</v>
       </c>
       <c r="AN15" s="15">
-        <v>826</v>
+        <v>979</v>
       </c>
       <c r="AO15" s="15">
-        <v>948</v>
+        <v>679</v>
       </c>
       <c r="AP15" s="15">
-        <v>979</v>
+        <v>833</v>
       </c>
       <c r="AQ15" s="15">
-        <v>679</v>
+        <v>76</v>
       </c>
       <c r="AR15" s="15">
-        <v>833</v>
+        <v>385</v>
       </c>
       <c r="AS15" s="15">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AT15" s="15">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="AU15" s="15">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="AV15" s="15">
-        <v>349</v>
+        <v>608</v>
       </c>
       <c r="AW15" s="15">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="AX15" s="15">
-        <v>608</v>
+        <v>507</v>
       </c>
       <c r="AY15" s="15">
-        <v>621</v>
+        <v>554</v>
       </c>
       <c r="AZ15" s="15">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="BA15" s="15">
-        <v>554</v>
+        <v>462</v>
       </c>
       <c r="BB15" s="15">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>61</v>
       </c>
@@ -2345,104 +2345,104 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>208</v>
+      </c>
+      <c r="X17" s="11">
+        <v>148</v>
       </c>
       <c r="Y17" s="11">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="Z17" s="11">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AA17" s="11">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="AB17" s="11">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AC17" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AD17" s="11">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AE17" s="11">
-        <v>144</v>
+        <v>872</v>
       </c>
       <c r="AF17" s="11">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="AG17" s="11">
-        <v>872</v>
+        <v>133</v>
       </c>
       <c r="AH17" s="11">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="AI17" s="11">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="AJ17" s="11">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AK17" s="11">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AL17" s="11">
+        <v>91</v>
+      </c>
+      <c r="AM17" s="11">
+        <v>146</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>147</v>
+      </c>
+      <c r="AO17" s="11">
         <v>84</v>
       </c>
-      <c r="AM17" s="11">
-        <v>65</v>
-      </c>
-      <c r="AN17" s="11">
-        <v>91</v>
-      </c>
-      <c r="AO17" s="11">
-        <v>146</v>
-      </c>
       <c r="AP17" s="11">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AQ17" s="11">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="AR17" s="11">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AS17" s="11">
-        <v>421</v>
+        <v>34</v>
       </c>
       <c r="AT17" s="11">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AU17" s="11">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="AV17" s="11">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AW17" s="11">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="AX17" s="11">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="AY17" s="11">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="AZ17" s="11">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="BA17" s="11">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="BB17" s="11">
-        <v>304</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
@@ -2503,103 +2503,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="17">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="X18" s="17">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="Y18" s="17">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="Z18" s="17">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AA18" s="17">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="AB18" s="17">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AC18" s="17">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AD18" s="17">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AE18" s="17">
-        <v>144</v>
+        <v>872</v>
       </c>
       <c r="AF18" s="17">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="AG18" s="17">
-        <v>872</v>
+        <v>133</v>
       </c>
       <c r="AH18" s="17">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="AI18" s="17">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="AJ18" s="17">
-        <v>384</v>
+        <v>84</v>
       </c>
       <c r="AK18" s="17">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="AL18" s="17">
+        <v>91</v>
+      </c>
+      <c r="AM18" s="17">
+        <v>146</v>
+      </c>
+      <c r="AN18" s="17">
+        <v>147</v>
+      </c>
+      <c r="AO18" s="17">
         <v>84</v>
       </c>
-      <c r="AM18" s="17">
-        <v>65</v>
-      </c>
-      <c r="AN18" s="17">
-        <v>91</v>
-      </c>
-      <c r="AO18" s="17">
-        <v>146</v>
-      </c>
       <c r="AP18" s="17">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="AQ18" s="17">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="AR18" s="17">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AS18" s="17">
-        <v>421</v>
+        <v>34</v>
       </c>
       <c r="AT18" s="17">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AU18" s="17">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="AV18" s="17">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AW18" s="17">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="AX18" s="17">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="AY18" s="17">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="AZ18" s="17">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="BA18" s="17">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="BB18" s="17">
-        <v>304</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>65</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>56</v>
       </c>
@@ -2745,14 +2745,14 @@
       <c r="AE20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF20" s="11" t="s">
-        <v>58</v>
+      <c r="AF20" s="11">
+        <v>0</v>
       </c>
       <c r="AG20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH20" s="11">
-        <v>0</v>
+      <c r="AH20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>58</v>
@@ -2815,7 +2815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
@@ -2877,11 +2877,11 @@
       <c r="V21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>58</v>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <v>0</v>
       </c>
       <c r="Y21" s="13">
         <v>0</v>
@@ -2904,11 +2904,11 @@
       <c r="AE21" s="13">
         <v>0</v>
       </c>
-      <c r="AF21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="13">
-        <v>0</v>
+      <c r="AF21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH21" s="13" t="s">
         <v>58</v>
@@ -2974,7 +2974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
@@ -3034,11 +3034,11 @@
       <c r="V22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>58</v>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+      <c r="X22" s="15">
+        <v>0</v>
       </c>
       <c r="Y22" s="15">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>67</v>
       </c>
@@ -3192,103 +3192,103 @@
         <v>0</v>
       </c>
       <c r="W23" s="17">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="X23" s="17">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="Y23" s="17">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="Z23" s="17">
-        <v>1192</v>
+        <v>1015</v>
       </c>
       <c r="AA23" s="17">
-        <v>1313</v>
+        <v>1254</v>
       </c>
       <c r="AB23" s="17">
-        <v>1015</v>
+        <v>1867</v>
       </c>
       <c r="AC23" s="17">
-        <v>1254</v>
+        <v>1150</v>
       </c>
       <c r="AD23" s="17">
-        <v>1867</v>
+        <v>1115</v>
       </c>
       <c r="AE23" s="17">
-        <v>1150</v>
+        <v>1246</v>
       </c>
       <c r="AF23" s="17">
-        <v>1115</v>
+        <v>710</v>
       </c>
       <c r="AG23" s="17">
-        <v>1246</v>
+        <v>1274</v>
       </c>
       <c r="AH23" s="17">
-        <v>710</v>
+        <v>1058</v>
       </c>
       <c r="AI23" s="17">
-        <v>1274</v>
+        <v>817</v>
       </c>
       <c r="AJ23" s="17">
-        <v>1058</v>
+        <v>1140</v>
       </c>
       <c r="AK23" s="17">
-        <v>817</v>
+        <v>1031</v>
       </c>
       <c r="AL23" s="17">
-        <v>1140</v>
+        <v>917</v>
       </c>
       <c r="AM23" s="17">
-        <v>1031</v>
+        <v>1094</v>
       </c>
       <c r="AN23" s="17">
-        <v>917</v>
+        <v>1126</v>
       </c>
       <c r="AO23" s="17">
-        <v>1094</v>
+        <v>763</v>
       </c>
       <c r="AP23" s="17">
-        <v>1126</v>
+        <v>893</v>
       </c>
       <c r="AQ23" s="17">
+        <v>497</v>
+      </c>
+      <c r="AR23" s="17">
+        <v>423</v>
+      </c>
+      <c r="AS23" s="17">
+        <v>137</v>
+      </c>
+      <c r="AT23" s="17">
+        <v>369</v>
+      </c>
+      <c r="AU23" s="17">
+        <v>740</v>
+      </c>
+      <c r="AV23" s="17">
+        <v>744</v>
+      </c>
+      <c r="AW23" s="17">
         <v>763</v>
       </c>
-      <c r="AR23" s="17">
-        <v>893</v>
-      </c>
-      <c r="AS23" s="17">
-        <v>497</v>
-      </c>
-      <c r="AT23" s="17">
-        <v>423</v>
-      </c>
-      <c r="AU23" s="17">
-        <v>137</v>
-      </c>
-      <c r="AV23" s="17">
-        <v>369</v>
-      </c>
-      <c r="AW23" s="17">
-        <v>740</v>
-      </c>
       <c r="AX23" s="17">
-        <v>744</v>
+        <v>668</v>
       </c>
       <c r="AY23" s="17">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="AZ23" s="17">
-        <v>668</v>
+        <v>759</v>
       </c>
       <c r="BA23" s="17">
-        <v>860</v>
+        <v>621</v>
       </c>
       <c r="BB23" s="17">
-        <v>759</v>
+        <v>567</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3343,7 +3343,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3398,7 +3398,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3453,7 +3453,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3665,7 +3665,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>56</v>
       </c>
@@ -3784,104 +3784,104 @@
       <c r="V30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X30" s="11" t="s">
-        <v>58</v>
+      <c r="W30" s="11">
+        <v>52</v>
+      </c>
+      <c r="X30" s="11">
+        <v>54</v>
       </c>
       <c r="Y30" s="11">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="Z30" s="11">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="AA30" s="11">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="AB30" s="11">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="AC30" s="11">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AD30" s="11">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AE30" s="11">
-        <v>98</v>
-      </c>
-      <c r="AF30" s="11">
-        <v>79</v>
-      </c>
-      <c r="AG30" s="11">
         <v>36</v>
       </c>
-      <c r="AH30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>58</v>
+      <c r="AF30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH30" s="11">
+        <v>71</v>
+      </c>
+      <c r="AI30" s="11">
+        <v>33</v>
       </c>
       <c r="AJ30" s="11">
+        <v>28</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>28</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>39</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>44</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>93</v>
+      </c>
+      <c r="AO30" s="11">
         <v>71</v>
       </c>
-      <c r="AK30" s="11">
-        <v>33</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>28</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>28</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>39</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>44</v>
-      </c>
       <c r="AP30" s="11">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AQ30" s="11">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AR30" s="11">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="AS30" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="11">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="AU30" s="11">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AV30" s="11">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="AW30" s="11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AX30" s="11">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="AY30" s="11">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="AZ30" s="11">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="BA30" s="11">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="BB30" s="11">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
@@ -3976,42 +3976,42 @@
       <c r="AG31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI31" s="13" t="s">
-        <v>58</v>
+      <c r="AH31" s="13">
+        <v>453</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>652</v>
       </c>
       <c r="AJ31" s="13">
-        <v>453</v>
+        <v>810</v>
       </c>
       <c r="AK31" s="13">
-        <v>652</v>
+        <v>793</v>
       </c>
       <c r="AL31" s="13">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="AM31" s="13">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="AN31" s="13">
-        <v>829</v>
+        <v>759</v>
       </c>
       <c r="AO31" s="13">
-        <v>762</v>
+        <v>583</v>
       </c>
       <c r="AP31" s="13">
-        <v>759</v>
+        <v>588</v>
       </c>
       <c r="AQ31" s="13">
-        <v>583</v>
-      </c>
-      <c r="AR31" s="13">
-        <v>588</v>
-      </c>
-      <c r="AS31" s="13">
         <v>36</v>
       </c>
+      <c r="AR31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS31" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT31" s="13" t="s">
         <v>58</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
@@ -4102,104 +4102,104 @@
       <c r="V32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>58</v>
+      <c r="W32" s="11">
+        <v>107</v>
+      </c>
+      <c r="X32" s="11">
+        <v>80</v>
       </c>
       <c r="Y32" s="11">
+        <v>95</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>105</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>130</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>159</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>133</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>79</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>147</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>128</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>111</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>125</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>117</v>
+      </c>
+      <c r="AN32" s="11">
         <v>107</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="AO32" s="11">
+        <v>90</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>100</v>
+      </c>
+      <c r="AQ32" s="11">
+        <v>38</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>63</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="11">
+        <v>71</v>
+      </c>
+      <c r="AU32" s="11">
+        <v>67</v>
+      </c>
+      <c r="AV32" s="11">
+        <v>81</v>
+      </c>
+      <c r="AW32" s="11">
+        <v>122</v>
+      </c>
+      <c r="AX32" s="11">
+        <v>123</v>
+      </c>
+      <c r="AY32" s="11">
         <v>80</v>
       </c>
-      <c r="AA32" s="11">
-        <v>95</v>
-      </c>
-      <c r="AB32" s="11">
-        <v>105</v>
-      </c>
-      <c r="AC32" s="11">
-        <v>130</v>
-      </c>
-      <c r="AD32" s="11">
-        <v>159</v>
-      </c>
-      <c r="AE32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>133</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>79</v>
-      </c>
-      <c r="AH32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ32" s="11">
-        <v>147</v>
-      </c>
-      <c r="AK32" s="11">
-        <v>128</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>111</v>
-      </c>
-      <c r="AM32" s="11">
-        <v>125</v>
-      </c>
-      <c r="AN32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AO32" s="11">
-        <v>117</v>
-      </c>
-      <c r="AP32" s="11">
-        <v>107</v>
-      </c>
-      <c r="AQ32" s="11">
+      <c r="AZ32" s="11">
+        <v>63</v>
+      </c>
+      <c r="BA32" s="11">
+        <v>87</v>
+      </c>
+      <c r="BB32" s="11">
         <v>90</v>
       </c>
-      <c r="AR32" s="11">
-        <v>100</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>38</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>63</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="11">
-        <v>71</v>
-      </c>
-      <c r="AW32" s="11">
-        <v>67</v>
-      </c>
-      <c r="AX32" s="11">
-        <v>81</v>
-      </c>
-      <c r="AY32" s="11">
-        <v>122</v>
-      </c>
-      <c r="AZ32" s="11">
-        <v>123</v>
-      </c>
-      <c r="BA32" s="11">
-        <v>80</v>
-      </c>
-      <c r="BB32" s="11">
-        <v>63</v>
-      </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
@@ -4261,47 +4261,47 @@
       <c r="V33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="W33" s="13">
+        <v>944</v>
+      </c>
+      <c r="X33" s="13">
+        <v>1001</v>
       </c>
       <c r="Y33" s="13">
-        <v>944</v>
+        <v>1028</v>
       </c>
       <c r="Z33" s="13">
-        <v>1001</v>
+        <v>744</v>
       </c>
       <c r="AA33" s="13">
-        <v>1028</v>
+        <v>642</v>
       </c>
       <c r="AB33" s="13">
-        <v>744</v>
+        <v>1094</v>
       </c>
       <c r="AC33" s="13">
-        <v>642</v>
+        <v>1089</v>
       </c>
       <c r="AD33" s="13">
-        <v>1094</v>
+        <v>1027</v>
       </c>
       <c r="AE33" s="13">
-        <v>1089</v>
+        <v>644</v>
       </c>
       <c r="AF33" s="13">
-        <v>1027</v>
+        <v>449</v>
       </c>
       <c r="AG33" s="13">
-        <v>644</v>
+        <v>1046</v>
       </c>
       <c r="AH33" s="13">
-        <v>449</v>
-      </c>
-      <c r="AI33" s="13">
-        <v>1046</v>
-      </c>
-      <c r="AJ33" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK33" s="13" t="s">
         <v>58</v>
@@ -4324,41 +4324,41 @@
       <c r="AQ33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS33" s="13" t="s">
-        <v>58</v>
+      <c r="AR33" s="13">
+        <v>322</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>15</v>
       </c>
       <c r="AT33" s="13">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AU33" s="13">
-        <v>15</v>
+        <v>356</v>
       </c>
       <c r="AV33" s="13">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="AW33" s="13">
-        <v>356</v>
+        <v>202</v>
       </c>
       <c r="AX33" s="13">
-        <v>497</v>
+        <v>304</v>
       </c>
       <c r="AY33" s="13">
-        <v>202</v>
+        <v>365</v>
       </c>
       <c r="AZ33" s="13">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="BA33" s="13">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="BB33" s="13">
-        <v>108</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>70</v>
       </c>
@@ -4419,103 +4419,103 @@
         <v>0</v>
       </c>
       <c r="W34" s="15">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="X34" s="15">
-        <v>0</v>
+        <v>1135</v>
       </c>
       <c r="Y34" s="15">
-        <v>1103</v>
+        <v>1191</v>
       </c>
       <c r="Z34" s="15">
-        <v>1135</v>
+        <v>976</v>
       </c>
       <c r="AA34" s="15">
-        <v>1191</v>
+        <v>864</v>
       </c>
       <c r="AB34" s="15">
+        <v>1285</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>1295</v>
+      </c>
+      <c r="AD34" s="15">
+        <v>1239</v>
+      </c>
+      <c r="AE34" s="15">
+        <v>759</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>449</v>
+      </c>
+      <c r="AG34" s="15">
+        <v>1046</v>
+      </c>
+      <c r="AH34" s="15">
+        <v>671</v>
+      </c>
+      <c r="AI34" s="15">
+        <v>813</v>
+      </c>
+      <c r="AJ34" s="15">
+        <v>949</v>
+      </c>
+      <c r="AK34" s="15">
+        <v>946</v>
+      </c>
+      <c r="AL34" s="15">
         <v>976</v>
       </c>
-      <c r="AC34" s="15">
-        <v>864</v>
-      </c>
-      <c r="AD34" s="15">
-        <v>1285</v>
-      </c>
-      <c r="AE34" s="15">
-        <v>1295</v>
-      </c>
-      <c r="AF34" s="15">
-        <v>1239</v>
-      </c>
-      <c r="AG34" s="15">
-        <v>759</v>
-      </c>
-      <c r="AH34" s="15">
-        <v>449</v>
-      </c>
-      <c r="AI34" s="15">
-        <v>1046</v>
-      </c>
-      <c r="AJ34" s="15">
-        <v>671</v>
-      </c>
-      <c r="AK34" s="15">
-        <v>813</v>
-      </c>
-      <c r="AL34" s="15">
-        <v>949</v>
-      </c>
       <c r="AM34" s="15">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="AN34" s="15">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="AO34" s="15">
-        <v>923</v>
+        <v>744</v>
       </c>
       <c r="AP34" s="15">
-        <v>959</v>
+        <v>804</v>
       </c>
       <c r="AQ34" s="15">
-        <v>744</v>
+        <v>108</v>
       </c>
       <c r="AR34" s="15">
-        <v>804</v>
+        <v>398</v>
       </c>
       <c r="AS34" s="15">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="AT34" s="15">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="AU34" s="15">
-        <v>15</v>
+        <v>501</v>
       </c>
       <c r="AV34" s="15">
-        <v>444</v>
+        <v>608</v>
       </c>
       <c r="AW34" s="15">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="AX34" s="15">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="AY34" s="15">
-        <v>381</v>
+        <v>582</v>
       </c>
       <c r="AZ34" s="15">
-        <v>544</v>
+        <v>251</v>
       </c>
       <c r="BA34" s="15">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="BB34" s="15">
-        <v>251</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>71</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>61</v>
       </c>
@@ -4634,104 +4634,104 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>208</v>
+      </c>
+      <c r="X36" s="11">
+        <v>159</v>
       </c>
       <c r="Y36" s="11">
+        <v>180</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>160</v>
+      </c>
+      <c r="AA36" s="11">
         <v>208</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="AB36" s="11">
+        <v>125</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>144</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>95</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>872</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>63</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>133</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>384</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>219</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>84</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>65</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>91</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>146</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>147</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>84</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>60</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>463</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>38</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>17</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>20</v>
+      </c>
+      <c r="AU36" s="11">
+        <v>147</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>136</v>
+      </c>
+      <c r="AW36" s="11">
+        <v>142</v>
+      </c>
+      <c r="AX36" s="11">
+        <v>161</v>
+      </c>
+      <c r="AY36" s="11">
+        <v>306</v>
+      </c>
+      <c r="AZ36" s="11">
+        <v>304</v>
+      </c>
+      <c r="BA36" s="11">
         <v>159</v>
       </c>
-      <c r="AA36" s="11">
-        <v>180</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>160</v>
-      </c>
-      <c r="AC36" s="11">
-        <v>208</v>
-      </c>
-      <c r="AD36" s="11">
-        <v>125</v>
-      </c>
-      <c r="AE36" s="11">
-        <v>144</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>95</v>
-      </c>
-      <c r="AG36" s="11">
-        <v>872</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>63</v>
-      </c>
-      <c r="AI36" s="11">
-        <v>133</v>
-      </c>
-      <c r="AJ36" s="11">
-        <v>384</v>
-      </c>
-      <c r="AK36" s="11">
-        <v>219</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>84</v>
-      </c>
-      <c r="AM36" s="11">
-        <v>65</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>91</v>
-      </c>
-      <c r="AO36" s="11">
-        <v>146</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>147</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>84</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>60</v>
-      </c>
-      <c r="AS36" s="11">
-        <v>463</v>
-      </c>
-      <c r="AT36" s="11">
-        <v>38</v>
-      </c>
-      <c r="AU36" s="11">
-        <v>17</v>
-      </c>
-      <c r="AV36" s="11">
-        <v>20</v>
-      </c>
-      <c r="AW36" s="11">
-        <v>147</v>
-      </c>
-      <c r="AX36" s="11">
-        <v>136</v>
-      </c>
-      <c r="AY36" s="11">
-        <v>142</v>
-      </c>
-      <c r="AZ36" s="11">
-        <v>161</v>
-      </c>
-      <c r="BA36" s="11">
-        <v>306</v>
-      </c>
       <c r="BB36" s="11">
-        <v>304</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
@@ -4792,103 +4792,103 @@
         <v>0</v>
       </c>
       <c r="W37" s="17">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="X37" s="17">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="Y37" s="17">
+        <v>180</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>160</v>
+      </c>
+      <c r="AA37" s="17">
         <v>208</v>
       </c>
-      <c r="Z37" s="17">
+      <c r="AB37" s="17">
+        <v>125</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>144</v>
+      </c>
+      <c r="AD37" s="17">
+        <v>95</v>
+      </c>
+      <c r="AE37" s="17">
+        <v>872</v>
+      </c>
+      <c r="AF37" s="17">
+        <v>63</v>
+      </c>
+      <c r="AG37" s="17">
+        <v>133</v>
+      </c>
+      <c r="AH37" s="17">
+        <v>384</v>
+      </c>
+      <c r="AI37" s="17">
+        <v>219</v>
+      </c>
+      <c r="AJ37" s="17">
+        <v>84</v>
+      </c>
+      <c r="AK37" s="17">
+        <v>65</v>
+      </c>
+      <c r="AL37" s="17">
+        <v>91</v>
+      </c>
+      <c r="AM37" s="17">
+        <v>146</v>
+      </c>
+      <c r="AN37" s="17">
+        <v>147</v>
+      </c>
+      <c r="AO37" s="17">
+        <v>84</v>
+      </c>
+      <c r="AP37" s="17">
+        <v>60</v>
+      </c>
+      <c r="AQ37" s="17">
+        <v>463</v>
+      </c>
+      <c r="AR37" s="17">
+        <v>38</v>
+      </c>
+      <c r="AS37" s="17">
+        <v>17</v>
+      </c>
+      <c r="AT37" s="17">
+        <v>20</v>
+      </c>
+      <c r="AU37" s="17">
+        <v>147</v>
+      </c>
+      <c r="AV37" s="17">
+        <v>136</v>
+      </c>
+      <c r="AW37" s="17">
+        <v>142</v>
+      </c>
+      <c r="AX37" s="17">
+        <v>161</v>
+      </c>
+      <c r="AY37" s="17">
+        <v>306</v>
+      </c>
+      <c r="AZ37" s="17">
+        <v>304</v>
+      </c>
+      <c r="BA37" s="17">
         <v>159</v>
       </c>
-      <c r="AA37" s="17">
-        <v>180</v>
-      </c>
-      <c r="AB37" s="17">
-        <v>160</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>208</v>
-      </c>
-      <c r="AD37" s="17">
-        <v>125</v>
-      </c>
-      <c r="AE37" s="17">
-        <v>144</v>
-      </c>
-      <c r="AF37" s="17">
-        <v>95</v>
-      </c>
-      <c r="AG37" s="17">
-        <v>872</v>
-      </c>
-      <c r="AH37" s="17">
-        <v>63</v>
-      </c>
-      <c r="AI37" s="17">
-        <v>133</v>
-      </c>
-      <c r="AJ37" s="17">
-        <v>384</v>
-      </c>
-      <c r="AK37" s="17">
-        <v>219</v>
-      </c>
-      <c r="AL37" s="17">
-        <v>84</v>
-      </c>
-      <c r="AM37" s="17">
-        <v>65</v>
-      </c>
-      <c r="AN37" s="17">
-        <v>91</v>
-      </c>
-      <c r="AO37" s="17">
-        <v>146</v>
-      </c>
-      <c r="AP37" s="17">
-        <v>147</v>
-      </c>
-      <c r="AQ37" s="17">
-        <v>84</v>
-      </c>
-      <c r="AR37" s="17">
-        <v>60</v>
-      </c>
-      <c r="AS37" s="17">
-        <v>463</v>
-      </c>
-      <c r="AT37" s="17">
-        <v>38</v>
-      </c>
-      <c r="AU37" s="17">
-        <v>17</v>
-      </c>
-      <c r="AV37" s="17">
-        <v>20</v>
-      </c>
-      <c r="AW37" s="17">
-        <v>147</v>
-      </c>
-      <c r="AX37" s="17">
-        <v>136</v>
-      </c>
-      <c r="AY37" s="17">
-        <v>142</v>
-      </c>
-      <c r="AZ37" s="17">
-        <v>161</v>
-      </c>
-      <c r="BA37" s="17">
-        <v>306</v>
-      </c>
       <c r="BB37" s="17">
-        <v>304</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>65</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
@@ -5034,14 +5034,14 @@
       <c r="AE39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF39" s="11" t="s">
-        <v>58</v>
+      <c r="AF39" s="11">
+        <v>0</v>
       </c>
       <c r="AG39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH39" s="11">
-        <v>0</v>
+      <c r="AH39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
@@ -5104,7 +5104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5166,11 +5166,11 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>0</v>
       </c>
       <c r="Y40" s="13">
         <v>0</v>
@@ -5193,11 +5193,11 @@
       <c r="AE40" s="13">
         <v>0</v>
       </c>
-      <c r="AF40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>0</v>
+      <c r="AF40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH40" s="13" t="s">
         <v>58</v>
@@ -5263,7 +5263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>66</v>
       </c>
@@ -5323,11 +5323,11 @@
       <c r="V41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="15" t="s">
-        <v>58</v>
+      <c r="W41" s="15">
+        <v>0</v>
+      </c>
+      <c r="X41" s="15">
+        <v>0</v>
       </c>
       <c r="Y41" s="15">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>73</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="BA42" s="19"/>
       <c r="BB42" s="19"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>74</v>
       </c>
@@ -5537,11 +5537,11 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>67</v>
       </c>
@@ -5695,103 +5695,103 @@
         <v>0</v>
       </c>
       <c r="W44" s="17">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="X44" s="17">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="Y44" s="17">
-        <v>1311</v>
+        <v>1371</v>
       </c>
       <c r="Z44" s="17">
-        <v>1294</v>
+        <v>1136</v>
       </c>
       <c r="AA44" s="17">
-        <v>1371</v>
+        <v>1072</v>
       </c>
       <c r="AB44" s="17">
-        <v>1136</v>
+        <v>1410</v>
       </c>
       <c r="AC44" s="17">
-        <v>1072</v>
+        <v>1439</v>
       </c>
       <c r="AD44" s="17">
-        <v>1410</v>
+        <v>1334</v>
       </c>
       <c r="AE44" s="17">
-        <v>1439</v>
+        <v>1631</v>
       </c>
       <c r="AF44" s="17">
-        <v>1334</v>
+        <v>512</v>
       </c>
       <c r="AG44" s="17">
-        <v>1631</v>
+        <v>1179</v>
       </c>
       <c r="AH44" s="17">
-        <v>512</v>
+        <v>1055</v>
       </c>
       <c r="AI44" s="17">
-        <v>1179</v>
+        <v>1032</v>
       </c>
       <c r="AJ44" s="17">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="AK44" s="17">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="AL44" s="17">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="AM44" s="17">
-        <v>1011</v>
+        <v>1069</v>
       </c>
       <c r="AN44" s="17">
-        <v>1067</v>
+        <v>1106</v>
       </c>
       <c r="AO44" s="17">
-        <v>1069</v>
+        <v>828</v>
       </c>
       <c r="AP44" s="17">
-        <v>1106</v>
+        <v>864</v>
       </c>
       <c r="AQ44" s="17">
-        <v>828</v>
+        <v>571</v>
       </c>
       <c r="AR44" s="17">
-        <v>864</v>
+        <v>436</v>
       </c>
       <c r="AS44" s="17">
-        <v>571</v>
+        <v>32</v>
       </c>
       <c r="AT44" s="17">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="AU44" s="17">
-        <v>32</v>
+        <v>648</v>
       </c>
       <c r="AV44" s="17">
-        <v>464</v>
+        <v>744</v>
       </c>
       <c r="AW44" s="17">
-        <v>648</v>
+        <v>523</v>
       </c>
       <c r="AX44" s="17">
-        <v>744</v>
+        <v>705</v>
       </c>
       <c r="AY44" s="17">
-        <v>523</v>
+        <v>888</v>
       </c>
       <c r="AZ44" s="17">
-        <v>705</v>
+        <v>555</v>
       </c>
       <c r="BA44" s="17">
-        <v>888</v>
+        <v>782</v>
       </c>
       <c r="BB44" s="17">
-        <v>555</v>
+        <v>670</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5846,7 +5846,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5901,7 +5901,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5956,7 +5956,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>75</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6168,7 +6168,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>76</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>56</v>
       </c>
@@ -6287,104 +6287,104 @@
       <c r="V51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>58</v>
+      <c r="W51" s="11">
+        <v>12962</v>
+      </c>
+      <c r="X51" s="11">
+        <v>11838</v>
       </c>
       <c r="Y51" s="11">
-        <v>12962</v>
+        <v>15040</v>
       </c>
       <c r="Z51" s="11">
-        <v>11838</v>
+        <v>28208</v>
       </c>
       <c r="AA51" s="11">
-        <v>15040</v>
+        <v>24364</v>
       </c>
       <c r="AB51" s="11">
-        <v>28208</v>
+        <v>9319</v>
       </c>
       <c r="AC51" s="11">
-        <v>24364</v>
+        <v>25128</v>
       </c>
       <c r="AD51" s="11">
-        <v>9319</v>
+        <v>20524</v>
       </c>
       <c r="AE51" s="11">
-        <v>25128</v>
-      </c>
-      <c r="AF51" s="11">
-        <v>20524</v>
-      </c>
-      <c r="AG51" s="11">
         <v>8653</v>
       </c>
-      <c r="AH51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI51" s="11" t="s">
-        <v>58</v>
+      <c r="AF51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH51" s="11">
+        <v>21324</v>
+      </c>
+      <c r="AI51" s="11">
+        <v>9826</v>
       </c>
       <c r="AJ51" s="11">
-        <v>21324</v>
+        <v>8550</v>
       </c>
       <c r="AK51" s="11">
-        <v>9826</v>
+        <v>8991</v>
       </c>
       <c r="AL51" s="11">
-        <v>8550</v>
+        <v>12874</v>
       </c>
       <c r="AM51" s="11">
-        <v>8991</v>
+        <v>17112</v>
       </c>
       <c r="AN51" s="11">
-        <v>12874</v>
+        <v>36680</v>
       </c>
       <c r="AO51" s="11">
-        <v>17112</v>
+        <v>29292</v>
       </c>
       <c r="AP51" s="11">
-        <v>36680</v>
+        <v>49120</v>
       </c>
       <c r="AQ51" s="11">
-        <v>29292</v>
+        <v>14380</v>
       </c>
       <c r="AR51" s="11">
-        <v>49120</v>
+        <v>9472</v>
       </c>
       <c r="AS51" s="11">
-        <v>14380</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="11">
-        <v>9472</v>
+        <v>72135</v>
       </c>
       <c r="AU51" s="11">
-        <v>0</v>
+        <v>54672</v>
       </c>
       <c r="AV51" s="11">
-        <v>72135</v>
+        <v>23415</v>
       </c>
       <c r="AW51" s="11">
-        <v>54672</v>
+        <v>51313</v>
       </c>
       <c r="AX51" s="11">
-        <v>23415</v>
+        <v>95458</v>
       </c>
       <c r="AY51" s="11">
-        <v>51313</v>
+        <v>111553</v>
       </c>
       <c r="AZ51" s="11">
-        <v>95458</v>
+        <v>65064</v>
       </c>
       <c r="BA51" s="11">
-        <v>111553</v>
+        <v>98756</v>
       </c>
       <c r="BB51" s="11">
-        <v>65064</v>
+        <v>44863</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
@@ -6479,42 +6479,42 @@
       <c r="AG52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI52" s="13" t="s">
-        <v>58</v>
+      <c r="AH52" s="13">
+        <v>120878</v>
+      </c>
+      <c r="AI52" s="13">
+        <v>179709</v>
       </c>
       <c r="AJ52" s="13">
-        <v>120878</v>
+        <v>225789</v>
       </c>
       <c r="AK52" s="13">
-        <v>179709</v>
+        <v>231341</v>
       </c>
       <c r="AL52" s="13">
-        <v>225789</v>
+        <v>256539</v>
       </c>
       <c r="AM52" s="13">
-        <v>231341</v>
+        <v>260537</v>
       </c>
       <c r="AN52" s="13">
-        <v>256539</v>
+        <v>260136</v>
       </c>
       <c r="AO52" s="13">
-        <v>260537</v>
+        <v>214732</v>
       </c>
       <c r="AP52" s="13">
-        <v>260136</v>
+        <v>217920</v>
       </c>
       <c r="AQ52" s="13">
-        <v>214732</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>-386734</v>
-      </c>
-      <c r="AS52" s="13">
         <v>13296</v>
       </c>
+      <c r="AR52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT52" s="13" t="s">
         <v>58</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
@@ -6605,104 +6605,104 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>21066</v>
+      </c>
+      <c r="X53" s="11">
+        <v>14361</v>
       </c>
       <c r="Y53" s="11">
-        <v>21066</v>
+        <v>17495</v>
       </c>
       <c r="Z53" s="11">
-        <v>14361</v>
+        <v>18401</v>
       </c>
       <c r="AA53" s="11">
-        <v>17495</v>
+        <v>30175</v>
       </c>
       <c r="AB53" s="11">
-        <v>18401</v>
+        <v>41672</v>
       </c>
       <c r="AC53" s="11">
-        <v>30175</v>
+        <v>25032</v>
       </c>
       <c r="AD53" s="11">
-        <v>41672</v>
+        <v>31354</v>
       </c>
       <c r="AE53" s="11">
-        <v>25032</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>31354</v>
-      </c>
-      <c r="AG53" s="11">
         <v>16112</v>
       </c>
-      <c r="AH53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI53" s="11" t="s">
-        <v>58</v>
+      <c r="AF53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>43623</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>37717</v>
       </c>
       <c r="AJ53" s="11">
-        <v>43623</v>
+        <v>32439</v>
       </c>
       <c r="AK53" s="11">
-        <v>37717</v>
+        <v>39780</v>
       </c>
       <c r="AL53" s="11">
-        <v>32439</v>
+        <v>34651</v>
       </c>
       <c r="AM53" s="11">
-        <v>39780</v>
+        <v>44073</v>
       </c>
       <c r="AN53" s="11">
-        <v>34651</v>
+        <v>40422</v>
       </c>
       <c r="AO53" s="11">
-        <v>44073</v>
+        <v>35453</v>
       </c>
       <c r="AP53" s="11">
-        <v>40422</v>
+        <v>39981</v>
       </c>
       <c r="AQ53" s="11">
-        <v>35453</v>
+        <v>14970</v>
       </c>
       <c r="AR53" s="11">
-        <v>39981</v>
+        <v>28187</v>
       </c>
       <c r="AS53" s="11">
-        <v>14970</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="11">
-        <v>28187</v>
+        <v>45111</v>
       </c>
       <c r="AU53" s="11">
-        <v>0</v>
+        <v>56564</v>
       </c>
       <c r="AV53" s="11">
-        <v>45111</v>
+        <v>70231</v>
       </c>
       <c r="AW53" s="11">
-        <v>56564</v>
+        <v>105959</v>
       </c>
       <c r="AX53" s="11">
-        <v>70231</v>
+        <v>92588</v>
       </c>
       <c r="AY53" s="11">
-        <v>105959</v>
+        <v>60091</v>
       </c>
       <c r="AZ53" s="11">
-        <v>92588</v>
+        <v>47482</v>
       </c>
       <c r="BA53" s="11">
-        <v>60091</v>
+        <v>48158</v>
       </c>
       <c r="BB53" s="11">
-        <v>47482</v>
+        <v>38893</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>61</v>
       </c>
@@ -6764,44 +6764,44 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>157513</v>
+      </c>
+      <c r="X54" s="13">
+        <v>154616</v>
       </c>
       <c r="Y54" s="13">
-        <v>157513</v>
+        <v>186560</v>
       </c>
       <c r="Z54" s="13">
-        <v>154616</v>
+        <v>121686</v>
       </c>
       <c r="AA54" s="13">
-        <v>186560</v>
+        <v>144761</v>
       </c>
       <c r="AB54" s="13">
-        <v>121686</v>
+        <v>267708</v>
       </c>
       <c r="AC54" s="13">
-        <v>144761</v>
+        <v>264137</v>
       </c>
       <c r="AD54" s="13">
-        <v>267708</v>
+        <v>250331</v>
       </c>
       <c r="AE54" s="13">
-        <v>264137</v>
+        <v>89164</v>
       </c>
       <c r="AF54" s="13">
-        <v>250331</v>
+        <v>113936</v>
       </c>
       <c r="AG54" s="13">
-        <v>89164</v>
+        <v>267961</v>
       </c>
       <c r="AH54" s="13">
-        <v>113936</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="13">
-        <v>267961</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="13">
         <v>0</v>
@@ -6809,11 +6809,11 @@
       <c r="AK54" s="13">
         <v>0</v>
       </c>
-      <c r="AL54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="13">
-        <v>0</v>
+      <c r="AL54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN54" s="13" t="s">
         <v>58</v>
@@ -6827,41 +6827,41 @@
       <c r="AQ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13">
+        <v>121229</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>5323</v>
       </c>
       <c r="AT54" s="13">
-        <v>121229</v>
+        <v>155961</v>
       </c>
       <c r="AU54" s="13">
-        <v>5323</v>
+        <v>298886</v>
       </c>
       <c r="AV54" s="13">
-        <v>155961</v>
+        <v>421953</v>
       </c>
       <c r="AW54" s="13">
-        <v>298886</v>
+        <v>129291</v>
       </c>
       <c r="AX54" s="13">
-        <v>421953</v>
+        <v>204901</v>
       </c>
       <c r="AY54" s="13">
-        <v>129291</v>
+        <v>252919</v>
       </c>
       <c r="AZ54" s="13">
-        <v>204901</v>
+        <v>74546</v>
       </c>
       <c r="BA54" s="13">
-        <v>252919</v>
+        <v>188872</v>
       </c>
       <c r="BB54" s="13">
-        <v>74546</v>
+        <v>147833</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>70</v>
       </c>
@@ -6922,103 +6922,103 @@
         <v>0</v>
       </c>
       <c r="W55" s="15">
-        <v>0</v>
+        <v>191541</v>
       </c>
       <c r="X55" s="15">
-        <v>0</v>
+        <v>180815</v>
       </c>
       <c r="Y55" s="15">
-        <v>191541</v>
+        <v>219095</v>
       </c>
       <c r="Z55" s="15">
-        <v>180815</v>
+        <v>168295</v>
       </c>
       <c r="AA55" s="15">
-        <v>219095</v>
+        <v>199300</v>
       </c>
       <c r="AB55" s="15">
-        <v>168295</v>
+        <v>318699</v>
       </c>
       <c r="AC55" s="15">
-        <v>199300</v>
+        <v>314297</v>
       </c>
       <c r="AD55" s="15">
-        <v>318699</v>
+        <v>302209</v>
       </c>
       <c r="AE55" s="15">
-        <v>314297</v>
+        <v>113929</v>
       </c>
       <c r="AF55" s="15">
-        <v>302209</v>
+        <v>113936</v>
       </c>
       <c r="AG55" s="15">
-        <v>113929</v>
+        <v>267961</v>
       </c>
       <c r="AH55" s="15">
-        <v>113936</v>
+        <v>185825</v>
       </c>
       <c r="AI55" s="15">
-        <v>267961</v>
+        <v>227252</v>
       </c>
       <c r="AJ55" s="15">
-        <v>185825</v>
+        <v>266778</v>
       </c>
       <c r="AK55" s="15">
-        <v>227252</v>
+        <v>280112</v>
       </c>
       <c r="AL55" s="15">
-        <v>266778</v>
+        <v>304064</v>
       </c>
       <c r="AM55" s="15">
-        <v>280112</v>
+        <v>321722</v>
       </c>
       <c r="AN55" s="15">
-        <v>304064</v>
+        <v>337238</v>
       </c>
       <c r="AO55" s="15">
-        <v>321722</v>
+        <v>279477</v>
       </c>
       <c r="AP55" s="15">
-        <v>337238</v>
+        <v>307021</v>
       </c>
       <c r="AQ55" s="15">
-        <v>279477</v>
+        <v>42646</v>
       </c>
       <c r="AR55" s="15">
-        <v>-297633</v>
+        <v>158888</v>
       </c>
       <c r="AS55" s="15">
-        <v>42646</v>
+        <v>5323</v>
       </c>
       <c r="AT55" s="15">
-        <v>158888</v>
+        <v>273207</v>
       </c>
       <c r="AU55" s="15">
-        <v>5323</v>
+        <v>410122</v>
       </c>
       <c r="AV55" s="15">
-        <v>273207</v>
+        <v>515599</v>
       </c>
       <c r="AW55" s="15">
-        <v>410122</v>
+        <v>286563</v>
       </c>
       <c r="AX55" s="15">
-        <v>515599</v>
+        <v>392947</v>
       </c>
       <c r="AY55" s="15">
-        <v>286563</v>
+        <v>424563</v>
       </c>
       <c r="AZ55" s="15">
-        <v>392947</v>
+        <v>187092</v>
       </c>
       <c r="BA55" s="15">
-        <v>424563</v>
+        <v>335786</v>
       </c>
       <c r="BB55" s="15">
-        <v>187092</v>
+        <v>231589</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>78</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -7137,104 +7137,104 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>32065</v>
+      </c>
+      <c r="X57" s="11">
+        <v>23554</v>
       </c>
       <c r="Y57" s="11">
-        <v>32065</v>
+        <v>28816</v>
       </c>
       <c r="Z57" s="11">
-        <v>23554</v>
+        <v>24759</v>
       </c>
       <c r="AA57" s="11">
-        <v>28816</v>
+        <v>33874</v>
       </c>
       <c r="AB57" s="11">
-        <v>24759</v>
+        <v>20415</v>
       </c>
       <c r="AC57" s="11">
-        <v>33874</v>
+        <v>23610</v>
       </c>
       <c r="AD57" s="11">
-        <v>20415</v>
+        <v>15768</v>
       </c>
       <c r="AE57" s="11">
-        <v>23610</v>
+        <v>138324</v>
       </c>
       <c r="AF57" s="11">
-        <v>15768</v>
+        <v>9963</v>
       </c>
       <c r="AG57" s="11">
-        <v>138324</v>
+        <v>21193</v>
       </c>
       <c r="AH57" s="11">
-        <v>9963</v>
+        <v>89329</v>
       </c>
       <c r="AI57" s="11">
-        <v>21193</v>
+        <v>44996</v>
       </c>
       <c r="AJ57" s="11">
-        <v>89329</v>
+        <v>17120</v>
       </c>
       <c r="AK57" s="11">
-        <v>44996</v>
+        <v>13351</v>
       </c>
       <c r="AL57" s="11">
-        <v>17120</v>
+        <v>18885</v>
       </c>
       <c r="AM57" s="11">
-        <v>13351</v>
+        <v>33508</v>
       </c>
       <c r="AN57" s="11">
-        <v>18885</v>
+        <v>32455</v>
       </c>
       <c r="AO57" s="11">
-        <v>33508</v>
+        <v>19117</v>
       </c>
       <c r="AP57" s="11">
-        <v>32455</v>
+        <v>13524</v>
       </c>
       <c r="AQ57" s="11">
-        <v>19117</v>
+        <v>117604</v>
       </c>
       <c r="AR57" s="11">
-        <v>24106</v>
+        <v>10911</v>
       </c>
       <c r="AS57" s="11">
-        <v>117604</v>
+        <v>4780</v>
       </c>
       <c r="AT57" s="11">
-        <v>10911</v>
+        <v>6941</v>
       </c>
       <c r="AU57" s="11">
-        <v>4780</v>
+        <v>28507</v>
       </c>
       <c r="AV57" s="11">
-        <v>6941</v>
+        <v>34884</v>
       </c>
       <c r="AW57" s="11">
-        <v>28507</v>
+        <v>43365</v>
       </c>
       <c r="AX57" s="11">
-        <v>34884</v>
+        <v>57099</v>
       </c>
       <c r="AY57" s="11">
-        <v>43365</v>
+        <v>105651</v>
       </c>
       <c r="AZ57" s="11">
-        <v>57099</v>
+        <v>113383</v>
       </c>
       <c r="BA57" s="11">
-        <v>105651</v>
+        <v>64429</v>
       </c>
       <c r="BB57" s="11">
-        <v>113383</v>
+        <v>50132</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>72</v>
       </c>
@@ -7295,103 +7295,103 @@
         <v>0</v>
       </c>
       <c r="W58" s="17">
-        <v>0</v>
+        <v>32065</v>
       </c>
       <c r="X58" s="17">
-        <v>0</v>
+        <v>23554</v>
       </c>
       <c r="Y58" s="17">
-        <v>32065</v>
+        <v>28816</v>
       </c>
       <c r="Z58" s="17">
-        <v>23554</v>
+        <v>24759</v>
       </c>
       <c r="AA58" s="17">
-        <v>28816</v>
+        <v>33874</v>
       </c>
       <c r="AB58" s="17">
-        <v>24759</v>
+        <v>20415</v>
       </c>
       <c r="AC58" s="17">
-        <v>33874</v>
+        <v>23610</v>
       </c>
       <c r="AD58" s="17">
-        <v>20415</v>
+        <v>15768</v>
       </c>
       <c r="AE58" s="17">
-        <v>23610</v>
+        <v>138324</v>
       </c>
       <c r="AF58" s="17">
-        <v>15768</v>
+        <v>9963</v>
       </c>
       <c r="AG58" s="17">
-        <v>138324</v>
+        <v>21193</v>
       </c>
       <c r="AH58" s="17">
-        <v>9963</v>
+        <v>89329</v>
       </c>
       <c r="AI58" s="17">
-        <v>21193</v>
+        <v>44996</v>
       </c>
       <c r="AJ58" s="17">
-        <v>89329</v>
+        <v>17120</v>
       </c>
       <c r="AK58" s="17">
-        <v>44996</v>
+        <v>13351</v>
       </c>
       <c r="AL58" s="17">
-        <v>17120</v>
+        <v>18885</v>
       </c>
       <c r="AM58" s="17">
-        <v>13351</v>
+        <v>33508</v>
       </c>
       <c r="AN58" s="17">
-        <v>18885</v>
+        <v>32455</v>
       </c>
       <c r="AO58" s="17">
-        <v>33508</v>
+        <v>19117</v>
       </c>
       <c r="AP58" s="17">
-        <v>32455</v>
+        <v>13524</v>
       </c>
       <c r="AQ58" s="17">
-        <v>19117</v>
+        <v>117604</v>
       </c>
       <c r="AR58" s="17">
-        <v>24106</v>
+        <v>10911</v>
       </c>
       <c r="AS58" s="17">
-        <v>117604</v>
+        <v>4780</v>
       </c>
       <c r="AT58" s="17">
-        <v>10911</v>
+        <v>6941</v>
       </c>
       <c r="AU58" s="17">
-        <v>4780</v>
+        <v>28507</v>
       </c>
       <c r="AV58" s="17">
-        <v>6941</v>
+        <v>34884</v>
       </c>
       <c r="AW58" s="17">
-        <v>28507</v>
+        <v>43365</v>
       </c>
       <c r="AX58" s="17">
-        <v>34884</v>
+        <v>57099</v>
       </c>
       <c r="AY58" s="17">
-        <v>43365</v>
+        <v>105651</v>
       </c>
       <c r="AZ58" s="17">
-        <v>57099</v>
+        <v>113383</v>
       </c>
       <c r="BA58" s="17">
-        <v>105651</v>
+        <v>64429</v>
       </c>
       <c r="BB58" s="17">
-        <v>113383</v>
+        <v>50132</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>79</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
@@ -7537,11 +7537,11 @@
       <c r="AE60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG60" s="11" t="s">
-        <v>58</v>
+      <c r="AF60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="11">
+        <v>0</v>
       </c>
       <c r="AH60" s="11">
         <v>0</v>
@@ -7555,11 +7555,11 @@
       <c r="AK60" s="11">
         <v>0</v>
       </c>
-      <c r="AL60" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM60" s="11">
-        <v>0</v>
+      <c r="AL60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM60" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN60" s="11" t="s">
         <v>58</v>
@@ -7607,7 +7607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>61</v>
       </c>
@@ -7669,11 +7669,11 @@
       <c r="V61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="13" t="s">
-        <v>58</v>
+      <c r="W61" s="13">
+        <v>0</v>
+      </c>
+      <c r="X61" s="13">
+        <v>0</v>
       </c>
       <c r="Y61" s="13">
         <v>0</v>
@@ -7696,11 +7696,11 @@
       <c r="AE61" s="13">
         <v>0</v>
       </c>
-      <c r="AF61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="13">
-        <v>0</v>
+      <c r="AF61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH61" s="13" t="s">
         <v>58</v>
@@ -7766,7 +7766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>66</v>
       </c>
@@ -7828,11 +7828,11 @@
       <c r="V62" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="15" t="s">
-        <v>58</v>
+      <c r="W62" s="15">
+        <v>0</v>
+      </c>
+      <c r="X62" s="15">
+        <v>0</v>
       </c>
       <c r="Y62" s="15">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="18" t="s">
         <v>80</v>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="BA63" s="19"/>
       <c r="BB63" s="19"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>74</v>
       </c>
@@ -8044,11 +8044,11 @@
       <c r="V64" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="15" t="s">
-        <v>58</v>
+      <c r="W64" s="15">
+        <v>0</v>
+      </c>
+      <c r="X64" s="15">
+        <v>0</v>
       </c>
       <c r="Y64" s="15">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>81</v>
       </c>
@@ -8198,7 +8198,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>82</v>
       </c>
@@ -8260,11 +8260,11 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>0</v>
       </c>
       <c r="Y66" s="11">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>67</v>
       </c>
@@ -8418,103 +8418,103 @@
         <v>0</v>
       </c>
       <c r="W67" s="17">
-        <v>0</v>
+        <v>223606</v>
       </c>
       <c r="X67" s="17">
-        <v>0</v>
+        <v>204369</v>
       </c>
       <c r="Y67" s="17">
-        <v>223606</v>
+        <v>247911</v>
       </c>
       <c r="Z67" s="17">
-        <v>204369</v>
+        <v>193054</v>
       </c>
       <c r="AA67" s="17">
-        <v>247911</v>
+        <v>233174</v>
       </c>
       <c r="AB67" s="17">
-        <v>193054</v>
+        <v>339114</v>
       </c>
       <c r="AC67" s="17">
-        <v>233174</v>
+        <v>337907</v>
       </c>
       <c r="AD67" s="17">
-        <v>339114</v>
+        <v>317977</v>
       </c>
       <c r="AE67" s="17">
-        <v>337907</v>
+        <v>252253</v>
       </c>
       <c r="AF67" s="17">
-        <v>317977</v>
+        <v>123899</v>
       </c>
       <c r="AG67" s="17">
-        <v>252253</v>
+        <v>289154</v>
       </c>
       <c r="AH67" s="17">
-        <v>123899</v>
+        <v>275154</v>
       </c>
       <c r="AI67" s="17">
-        <v>289154</v>
+        <v>272248</v>
       </c>
       <c r="AJ67" s="17">
-        <v>275154</v>
+        <v>283898</v>
       </c>
       <c r="AK67" s="17">
-        <v>272248</v>
+        <v>293463</v>
       </c>
       <c r="AL67" s="17">
-        <v>283898</v>
+        <v>322949</v>
       </c>
       <c r="AM67" s="17">
-        <v>293463</v>
+        <v>355230</v>
       </c>
       <c r="AN67" s="17">
-        <v>322949</v>
+        <v>369693</v>
       </c>
       <c r="AO67" s="17">
-        <v>355230</v>
+        <v>298594</v>
       </c>
       <c r="AP67" s="17">
-        <v>369693</v>
+        <v>320545</v>
       </c>
       <c r="AQ67" s="17">
-        <v>298594</v>
+        <v>160250</v>
       </c>
       <c r="AR67" s="17">
-        <v>-273527</v>
+        <v>169799</v>
       </c>
       <c r="AS67" s="17">
-        <v>160250</v>
+        <v>10103</v>
       </c>
       <c r="AT67" s="17">
-        <v>169799</v>
+        <v>280148</v>
       </c>
       <c r="AU67" s="17">
-        <v>10103</v>
+        <v>438629</v>
       </c>
       <c r="AV67" s="17">
-        <v>280148</v>
+        <v>550483</v>
       </c>
       <c r="AW67" s="17">
-        <v>438629</v>
+        <v>329928</v>
       </c>
       <c r="AX67" s="17">
-        <v>550483</v>
+        <v>450046</v>
       </c>
       <c r="AY67" s="17">
-        <v>329928</v>
+        <v>530214</v>
       </c>
       <c r="AZ67" s="17">
-        <v>450046</v>
+        <v>300475</v>
       </c>
       <c r="BA67" s="17">
-        <v>530214</v>
+        <v>400215</v>
       </c>
       <c r="BB67" s="17">
-        <v>300475</v>
+        <v>281721</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -8569,7 +8569,7 @@
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -8624,7 +8624,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -8679,7 +8679,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>83</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -8891,7 +8891,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>84</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
@@ -9010,104 +9010,104 @@
       <c r="V74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="11" t="s">
-        <v>58</v>
+      <c r="W74" s="11">
+        <v>249269231</v>
+      </c>
+      <c r="X74" s="11">
+        <v>219222222</v>
       </c>
       <c r="Y74" s="11">
-        <v>249269231</v>
+        <v>221176471</v>
       </c>
       <c r="Z74" s="11">
-        <v>219222222</v>
+        <v>222110236</v>
       </c>
       <c r="AA74" s="11">
-        <v>221176471</v>
+        <v>264826087</v>
       </c>
       <c r="AB74" s="11">
-        <v>222110236</v>
+        <v>291218750</v>
       </c>
       <c r="AC74" s="11">
-        <v>264826087</v>
+        <v>256411020</v>
       </c>
       <c r="AD74" s="11">
-        <v>291218750</v>
+        <v>259797468</v>
       </c>
       <c r="AE74" s="11">
-        <v>256411020</v>
-      </c>
-      <c r="AF74" s="11">
-        <v>259797468</v>
-      </c>
-      <c r="AG74" s="11">
         <v>240361111</v>
       </c>
-      <c r="AH74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI74" s="11" t="s">
-        <v>58</v>
+      <c r="AF74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH74" s="11">
+        <v>300338028</v>
+      </c>
+      <c r="AI74" s="11">
+        <v>297757576</v>
       </c>
       <c r="AJ74" s="11">
-        <v>300338028</v>
+        <v>305357143</v>
       </c>
       <c r="AK74" s="11">
-        <v>297757576</v>
+        <v>321107143</v>
       </c>
       <c r="AL74" s="11">
-        <v>305357143</v>
+        <v>330102564</v>
       </c>
       <c r="AM74" s="11">
-        <v>321107143</v>
+        <v>388909091</v>
       </c>
       <c r="AN74" s="11">
-        <v>330102564</v>
+        <v>394408602</v>
       </c>
       <c r="AO74" s="11">
-        <v>388909091</v>
+        <v>412563380</v>
       </c>
       <c r="AP74" s="11">
-        <v>394408602</v>
+        <v>423448276</v>
       </c>
       <c r="AQ74" s="11">
-        <v>412563380</v>
+        <v>422941176</v>
       </c>
       <c r="AR74" s="11">
-        <v>423448276</v>
-      </c>
-      <c r="AS74" s="11">
-        <v>422941176</v>
+        <v>728615385</v>
+      </c>
+      <c r="AS74" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT74" s="11">
-        <v>728615385</v>
-      </c>
-      <c r="AU74" s="11" t="s">
-        <v>58</v>
+        <v>936818182</v>
+      </c>
+      <c r="AU74" s="11">
+        <v>700923077</v>
       </c>
       <c r="AV74" s="11">
-        <v>936818182</v>
+        <v>780500000</v>
       </c>
       <c r="AW74" s="11">
-        <v>700923077</v>
+        <v>900228070</v>
       </c>
       <c r="AX74" s="11">
-        <v>780500000</v>
+        <v>815880342</v>
       </c>
       <c r="AY74" s="11">
-        <v>900228070</v>
+        <v>814255474</v>
       </c>
       <c r="AZ74" s="11">
-        <v>815880342</v>
+        <v>813300000</v>
       </c>
       <c r="BA74" s="11">
-        <v>814255474</v>
+        <v>598521212</v>
       </c>
       <c r="BB74" s="11">
-        <v>813300000</v>
+        <v>431375000</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>59</v>
       </c>
@@ -9202,42 +9202,42 @@
       <c r="AG75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI75" s="13" t="s">
-        <v>58</v>
+      <c r="AH75" s="13">
+        <v>266838852</v>
+      </c>
+      <c r="AI75" s="13">
+        <v>275627301</v>
       </c>
       <c r="AJ75" s="13">
-        <v>266838852</v>
+        <v>278751852</v>
       </c>
       <c r="AK75" s="13">
-        <v>275627301</v>
+        <v>291728878</v>
       </c>
       <c r="AL75" s="13">
-        <v>278751852</v>
+        <v>309455971</v>
       </c>
       <c r="AM75" s="13">
-        <v>291728878</v>
+        <v>341912073</v>
       </c>
       <c r="AN75" s="13">
-        <v>309455971</v>
+        <v>342735178</v>
       </c>
       <c r="AO75" s="13">
-        <v>341912073</v>
+        <v>368322470</v>
       </c>
       <c r="AP75" s="13">
-        <v>342735178</v>
+        <v>370612245</v>
       </c>
       <c r="AQ75" s="13">
-        <v>368322470</v>
-      </c>
-      <c r="AR75" s="13">
-        <v>289948691</v>
-      </c>
-      <c r="AS75" s="13">
         <v>369333333</v>
       </c>
+      <c r="AR75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS75" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT75" s="13" t="s">
         <v>58</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>60</v>
       </c>
@@ -9328,104 +9328,104 @@
       <c r="V76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="11" t="s">
-        <v>58</v>
+      <c r="W76" s="11">
+        <v>196878505</v>
+      </c>
+      <c r="X76" s="11">
+        <v>179512500</v>
       </c>
       <c r="Y76" s="11">
-        <v>196878505</v>
+        <v>184157895</v>
       </c>
       <c r="Z76" s="11">
-        <v>179512500</v>
+        <v>175247619</v>
       </c>
       <c r="AA76" s="11">
-        <v>184157895</v>
+        <v>232115385</v>
       </c>
       <c r="AB76" s="11">
-        <v>175247619</v>
+        <v>262088050</v>
       </c>
       <c r="AC76" s="11">
-        <v>232115385</v>
+        <v>231779352</v>
       </c>
       <c r="AD76" s="11">
-        <v>262088050</v>
+        <v>235744361</v>
       </c>
       <c r="AE76" s="11">
-        <v>231779352</v>
-      </c>
-      <c r="AF76" s="11">
-        <v>235744361</v>
-      </c>
-      <c r="AG76" s="11">
         <v>203949367</v>
       </c>
-      <c r="AH76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI76" s="11" t="s">
-        <v>58</v>
+      <c r="AF76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH76" s="11">
+        <v>296755102</v>
+      </c>
+      <c r="AI76" s="11">
+        <v>294664063</v>
       </c>
       <c r="AJ76" s="11">
-        <v>296755102</v>
+        <v>292243243</v>
       </c>
       <c r="AK76" s="11">
-        <v>294664063</v>
+        <v>318240000</v>
       </c>
       <c r="AL76" s="11">
-        <v>292243243</v>
+        <v>320842593</v>
       </c>
       <c r="AM76" s="11">
-        <v>318240000</v>
+        <v>376692308</v>
       </c>
       <c r="AN76" s="11">
-        <v>320842593</v>
+        <v>377775701</v>
       </c>
       <c r="AO76" s="11">
-        <v>376692308</v>
+        <v>393922222</v>
       </c>
       <c r="AP76" s="11">
-        <v>377775701</v>
+        <v>399810000</v>
       </c>
       <c r="AQ76" s="11">
-        <v>393922222</v>
+        <v>393947368</v>
       </c>
       <c r="AR76" s="11">
-        <v>399810000</v>
-      </c>
-      <c r="AS76" s="11">
-        <v>393947368</v>
+        <v>447412698</v>
+      </c>
+      <c r="AS76" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT76" s="11">
-        <v>447412698</v>
-      </c>
-      <c r="AU76" s="11" t="s">
-        <v>58</v>
+        <v>635366197</v>
+      </c>
+      <c r="AU76" s="11">
+        <v>844238806</v>
       </c>
       <c r="AV76" s="11">
-        <v>635366197</v>
+        <v>867049383</v>
       </c>
       <c r="AW76" s="11">
-        <v>844238806</v>
+        <v>868516393</v>
       </c>
       <c r="AX76" s="11">
-        <v>867049383</v>
+        <v>752747967</v>
       </c>
       <c r="AY76" s="11">
-        <v>868516393</v>
+        <v>751137500</v>
       </c>
       <c r="AZ76" s="11">
-        <v>752747967</v>
+        <v>753682540</v>
       </c>
       <c r="BA76" s="11">
-        <v>751137500</v>
+        <v>553540230</v>
       </c>
       <c r="BB76" s="11">
-        <v>753682540</v>
+        <v>432144444</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>61</v>
       </c>
@@ -9487,45 +9487,45 @@
       <c r="V77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="13" t="s">
-        <v>58</v>
+      <c r="W77" s="13">
+        <v>166856992</v>
+      </c>
+      <c r="X77" s="13">
+        <v>154461538</v>
       </c>
       <c r="Y77" s="13">
-        <v>166856992</v>
+        <v>181478599</v>
       </c>
       <c r="Z77" s="13">
-        <v>154461538</v>
+        <v>163556452</v>
       </c>
       <c r="AA77" s="13">
-        <v>181478599</v>
+        <v>225484424</v>
       </c>
       <c r="AB77" s="13">
-        <v>163556452</v>
+        <v>244705667</v>
       </c>
       <c r="AC77" s="13">
-        <v>225484424</v>
+        <v>242549633</v>
       </c>
       <c r="AD77" s="13">
-        <v>244705667</v>
+        <v>243749757</v>
       </c>
       <c r="AE77" s="13">
-        <v>242549633</v>
+        <v>138453416</v>
       </c>
       <c r="AF77" s="13">
-        <v>243749757</v>
+        <v>253755011</v>
       </c>
       <c r="AG77" s="13">
-        <v>138453416</v>
-      </c>
-      <c r="AH77" s="13">
-        <v>253755011</v>
-      </c>
-      <c r="AI77" s="13">
         <v>256176864</v>
       </c>
+      <c r="AH77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ77" s="13" t="s">
         <v>58</v>
       </c>
@@ -9550,41 +9550,41 @@
       <c r="AQ77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS77" s="13" t="s">
-        <v>58</v>
+      <c r="AR77" s="13">
+        <v>376487578</v>
+      </c>
+      <c r="AS77" s="13">
+        <v>354866667</v>
       </c>
       <c r="AT77" s="13">
-        <v>376487578</v>
+        <v>526895270</v>
       </c>
       <c r="AU77" s="13">
-        <v>354866667</v>
+        <v>839567416</v>
       </c>
       <c r="AV77" s="13">
-        <v>526895270</v>
+        <v>849000000</v>
       </c>
       <c r="AW77" s="13">
-        <v>839567416</v>
+        <v>640054455</v>
       </c>
       <c r="AX77" s="13">
-        <v>849000000</v>
+        <v>674016447</v>
       </c>
       <c r="AY77" s="13">
-        <v>640054455</v>
+        <v>692928767</v>
       </c>
       <c r="AZ77" s="13">
-        <v>674016447</v>
+        <v>690240741</v>
       </c>
       <c r="BA77" s="13">
-        <v>692928767</v>
+        <v>509088949</v>
       </c>
       <c r="BB77" s="13">
-        <v>690240741</v>
+        <v>428501449</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
@@ -9641,7 +9641,7 @@
       <c r="BA78" s="9"/>
       <c r="BB78" s="9"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>61</v>
       </c>
@@ -9703,104 +9703,104 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>154158654</v>
+      </c>
+      <c r="X79" s="11">
+        <v>148138365</v>
       </c>
       <c r="Y79" s="11">
-        <v>154158654</v>
+        <v>160088889</v>
       </c>
       <c r="Z79" s="11">
-        <v>148138365</v>
+        <v>154743750</v>
       </c>
       <c r="AA79" s="11">
-        <v>160088889</v>
+        <v>162855769</v>
       </c>
       <c r="AB79" s="11">
-        <v>154743750</v>
+        <v>163320000</v>
       </c>
       <c r="AC79" s="11">
-        <v>162855769</v>
+        <v>163594789</v>
       </c>
       <c r="AD79" s="11">
-        <v>163320000</v>
+        <v>165978947</v>
       </c>
       <c r="AE79" s="11">
-        <v>163594789</v>
+        <v>158628440</v>
       </c>
       <c r="AF79" s="11">
-        <v>165978947</v>
+        <v>158142857</v>
       </c>
       <c r="AG79" s="11">
-        <v>158628440</v>
+        <v>159345865</v>
       </c>
       <c r="AH79" s="11">
-        <v>158142857</v>
+        <v>232627604</v>
       </c>
       <c r="AI79" s="11">
-        <v>159345865</v>
+        <v>205461187</v>
       </c>
       <c r="AJ79" s="11">
-        <v>232627604</v>
+        <v>203809524</v>
       </c>
       <c r="AK79" s="11">
-        <v>205461187</v>
+        <v>205400000</v>
       </c>
       <c r="AL79" s="11">
-        <v>203809524</v>
+        <v>207527473</v>
       </c>
       <c r="AM79" s="11">
-        <v>205400000</v>
+        <v>229506849</v>
       </c>
       <c r="AN79" s="11">
-        <v>207527473</v>
+        <v>220782313</v>
       </c>
       <c r="AO79" s="11">
-        <v>229506849</v>
+        <v>227583333</v>
       </c>
       <c r="AP79" s="11">
-        <v>220782313</v>
+        <v>225400000</v>
       </c>
       <c r="AQ79" s="11">
-        <v>227583333</v>
+        <v>254004320</v>
       </c>
       <c r="AR79" s="11">
-        <v>232569377</v>
+        <v>287131579</v>
       </c>
       <c r="AS79" s="11">
-        <v>254004320</v>
+        <v>281176471</v>
       </c>
       <c r="AT79" s="11">
-        <v>287131579</v>
+        <v>347050000</v>
       </c>
       <c r="AU79" s="11">
-        <v>281176471</v>
+        <v>193925170</v>
       </c>
       <c r="AV79" s="11">
-        <v>347050000</v>
+        <v>256500000</v>
       </c>
       <c r="AW79" s="11">
-        <v>193925170</v>
+        <v>305387324</v>
       </c>
       <c r="AX79" s="11">
-        <v>256500000</v>
+        <v>354652174</v>
       </c>
       <c r="AY79" s="11">
-        <v>305387324</v>
+        <v>345264706</v>
       </c>
       <c r="AZ79" s="11">
-        <v>354652174</v>
+        <v>372970395</v>
       </c>
       <c r="BA79" s="11">
-        <v>345264706</v>
+        <v>405213836</v>
       </c>
       <c r="BB79" s="11">
-        <v>372970395</v>
+        <v>382687023</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>87</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
@@ -9946,11 +9946,11 @@
       <c r="AE81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG81" s="11" t="s">
-        <v>58</v>
+      <c r="AF81" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="11">
+        <v>0</v>
       </c>
       <c r="AH81" s="11">
         <v>0</v>
@@ -9964,11 +9964,11 @@
       <c r="AK81" s="11">
         <v>0</v>
       </c>
-      <c r="AL81" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM81" s="11">
-        <v>0</v>
+      <c r="AL81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN81" s="11" t="s">
         <v>58</v>
@@ -10016,7 +10016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>61</v>
       </c>
@@ -10078,11 +10078,11 @@
       <c r="V82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>58</v>
+      <c r="W82" s="13">
+        <v>0</v>
+      </c>
+      <c r="X82" s="13">
+        <v>0</v>
       </c>
       <c r="Y82" s="13">
         <v>0</v>
@@ -10105,11 +10105,11 @@
       <c r="AE82" s="13">
         <v>0</v>
       </c>
-      <c r="AF82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="13">
-        <v>0</v>
+      <c r="AF82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH82" s="13" t="s">
         <v>58</v>

--- a/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="88">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3296,107 +3296,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>25</v>
       </c>
       <c r="V11" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="W11" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ11" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK11" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL11" s="13" t="n">
+        <v>96</v>
+      </c>
+      <c r="AM11" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AV11" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>129</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>139</v>
+      </c>
+      <c r="AY11" s="13" t="n">
+        <v>155</v>
+      </c>
+      <c r="AZ11" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA11" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="W11" s="13" t="n">
-        <v>57</v>
-      </c>
-      <c r="X11" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y11" s="13" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>49</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>87</v>
-      </c>
-      <c r="AC11" s="13" t="n">
-        <v>73</v>
-      </c>
-      <c r="AD11" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG11" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI11" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK11" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" s="13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM11" s="13" t="n">
-        <v>96</v>
-      </c>
-      <c r="AN11" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO11" s="13" t="n">
-        <v>104</v>
-      </c>
-      <c r="AP11" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="AQ11" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="AT11" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AU11" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV11" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW11" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="AX11" s="13" t="n">
-        <v>129</v>
-      </c>
-      <c r="AY11" s="13" t="n">
-        <v>139</v>
-      </c>
-      <c r="AZ11" s="13" t="n">
-        <v>155</v>
-      </c>
-      <c r="BA11" s="13" t="n">
-        <v>70</v>
-      </c>
       <c r="BB11" s="13" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,38 +3488,38 @@
       <c r="AE12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" s="16" t="s">
-        <v>58</v>
+      <c r="AF12" s="16" t="n">
+        <v>566</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>566</v>
+        <v>452</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>452</v>
+        <v>907</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>907</v>
+        <v>811</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>811</v>
+        <v>694</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>694</v>
+        <v>791</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>760</v>
+        <v>531</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>622</v>
-      </c>
-      <c r="AP12" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ12" s="16" t="s">
         <v>58</v>
@@ -3614,107 +3614,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>112</v>
       </c>
       <c r="V13" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>75</v>
+      </c>
+      <c r="X13" s="13" t="n">
         <v>112</v>
       </c>
-      <c r="W13" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="X13" s="13" t="n">
-        <v>75</v>
-      </c>
       <c r="Y13" s="13" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="AB13" s="13" t="n">
+        <v>116</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>125</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>123</v>
+      </c>
+      <c r="AM13" s="13" t="n">
         <v>83</v>
       </c>
-      <c r="AC13" s="13" t="n">
-        <v>116</v>
-      </c>
-      <c r="AD13" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG13" s="13" t="n">
-        <v>78</v>
-      </c>
-      <c r="AH13" s="13" t="n">
-        <v>111</v>
-      </c>
-      <c r="AI13" s="13" t="n">
-        <v>125</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>94</v>
-      </c>
-      <c r="AL13" s="13" t="n">
-        <v>111</v>
-      </c>
-      <c r="AM13" s="13" t="n">
-        <v>123</v>
-      </c>
       <c r="AN13" s="13" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AO13" s="13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>56</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>98</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>163</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>113</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX13" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AY13" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="AZ13" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="BA13" s="13" t="n">
         <v>107</v>
       </c>
-      <c r="AP13" s="13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>52</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>53</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>56</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>163</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>113</v>
-      </c>
-      <c r="AX13" s="13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY13" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AZ13" s="13" t="n">
-        <v>68</v>
-      </c>
-      <c r="BA13" s="13" t="n">
-        <v>71</v>
-      </c>
       <c r="BB13" s="13" t="n">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,44 +3773,44 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>944</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>949</v>
+        <v>637</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>637</v>
+        <v>929</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>929</v>
+        <v>1484</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>1484</v>
+        <v>836</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>831</v>
+        <v>316</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>316</v>
+        <v>647</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>647</v>
+        <v>1141</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1141</v>
-      </c>
-      <c r="AG14" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH14" s="16" t="s">
         <v>58</v>
@@ -3836,44 +3836,44 @@
       <c r="AO14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>58</v>
+      <c r="AP14" s="16" t="n">
+        <v>315</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>315</v>
+        <v>64</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>494</v>
+        <v>421</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>421</v>
+        <v>289</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>374</v>
+        <v>245</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>167</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,106 +3931,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>1081</v>
+        <v>1044</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>1044</v>
+        <v>1074</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>1074</v>
+        <v>855</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>855</v>
+        <v>1113</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>1113</v>
+        <v>1723</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>1723</v>
+        <v>1006</v>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="AC15" s="18" t="n">
-        <v>1020</v>
+        <v>374</v>
       </c>
       <c r="AD15" s="18" t="n">
-        <v>374</v>
+        <v>647</v>
       </c>
       <c r="AE15" s="18" t="n">
-        <v>647</v>
+        <v>1141</v>
       </c>
       <c r="AF15" s="18" t="n">
-        <v>1141</v>
+        <v>674</v>
       </c>
       <c r="AG15" s="18" t="n">
-        <v>674</v>
+        <v>598</v>
       </c>
       <c r="AH15" s="18" t="n">
-        <v>598</v>
+        <v>1056</v>
       </c>
       <c r="AI15" s="18" t="n">
-        <v>1056</v>
+        <v>966</v>
       </c>
       <c r="AJ15" s="18" t="n">
-        <v>966</v>
+        <v>826</v>
       </c>
       <c r="AK15" s="18" t="n">
-        <v>826</v>
+        <v>948</v>
       </c>
       <c r="AL15" s="18" t="n">
-        <v>948</v>
+        <v>979</v>
       </c>
       <c r="AM15" s="18" t="n">
-        <v>979</v>
+        <v>679</v>
       </c>
       <c r="AN15" s="18" t="n">
-        <v>679</v>
+        <v>833</v>
       </c>
       <c r="AO15" s="18" t="n">
-        <v>833</v>
+        <v>76</v>
       </c>
       <c r="AP15" s="18" t="n">
+        <v>385</v>
+      </c>
+      <c r="AQ15" s="18" t="n">
+        <v>103</v>
+      </c>
+      <c r="AR15" s="18" t="n">
+        <v>349</v>
+      </c>
+      <c r="AS15" s="18" t="n">
+        <v>563</v>
+      </c>
+      <c r="AT15" s="18" t="n">
+        <v>608</v>
+      </c>
+      <c r="AU15" s="18" t="n">
+        <v>621</v>
+      </c>
+      <c r="AV15" s="18" t="n">
+        <v>507</v>
+      </c>
+      <c r="AW15" s="18" t="n">
+        <v>554</v>
+      </c>
+      <c r="AX15" s="18" t="n">
+        <v>455</v>
+      </c>
+      <c r="AY15" s="18" t="n">
+        <v>462</v>
+      </c>
+      <c r="AZ15" s="18" t="n">
+        <v>443</v>
+      </c>
+      <c r="BA15" s="18" t="n">
+        <v>299</v>
+      </c>
+      <c r="BB15" s="18" t="n">
         <v>76</v>
-      </c>
-      <c r="AQ15" s="18" t="n">
-        <v>385</v>
-      </c>
-      <c r="AR15" s="18" t="n">
-        <v>103</v>
-      </c>
-      <c r="AS15" s="18" t="n">
-        <v>349</v>
-      </c>
-      <c r="AT15" s="18" t="n">
-        <v>563</v>
-      </c>
-      <c r="AU15" s="18" t="n">
-        <v>608</v>
-      </c>
-      <c r="AV15" s="18" t="n">
-        <v>621</v>
-      </c>
-      <c r="AW15" s="18" t="n">
-        <v>507</v>
-      </c>
-      <c r="AX15" s="18" t="n">
-        <v>554</v>
-      </c>
-      <c r="AY15" s="18" t="n">
-        <v>455</v>
-      </c>
-      <c r="AZ15" s="18" t="n">
-        <v>462</v>
-      </c>
-      <c r="BA15" s="18" t="n">
-        <v>443</v>
-      </c>
-      <c r="BB15" s="18" t="n">
-        <v>299</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,107 +4146,107 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>208</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AA17" s="13" t="n">
         <v>144</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>95</v>
+        <v>872</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>872</v>
+        <v>63</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>133</v>
+        <v>384</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="AI17" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" s="13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK17" s="13" t="n">
+        <v>146</v>
+      </c>
+      <c r="AL17" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="AM17" s="13" t="n">
         <v>84</v>
       </c>
-      <c r="AJ17" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK17" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AL17" s="13" t="n">
-        <v>146</v>
-      </c>
-      <c r="AM17" s="13" t="n">
-        <v>147</v>
-      </c>
       <c r="AN17" s="13" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>178</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,106 +4304,106 @@
         <v>0</v>
       </c>
       <c r="U18" s="20" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="V18" s="20" t="n">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="W18" s="20" t="n">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="X18" s="20" t="n">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="Y18" s="20" t="n">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="Z18" s="20" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AA18" s="20" t="n">
         <v>144</v>
       </c>
       <c r="AB18" s="20" t="n">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AC18" s="20" t="n">
-        <v>95</v>
+        <v>872</v>
       </c>
       <c r="AD18" s="20" t="n">
-        <v>872</v>
+        <v>63</v>
       </c>
       <c r="AE18" s="20" t="n">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="AF18" s="20" t="n">
-        <v>133</v>
+        <v>384</v>
       </c>
       <c r="AG18" s="20" t="n">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="AH18" s="20" t="n">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="AI18" s="20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ18" s="20" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK18" s="20" t="n">
+        <v>146</v>
+      </c>
+      <c r="AL18" s="20" t="n">
+        <v>147</v>
+      </c>
+      <c r="AM18" s="20" t="n">
         <v>84</v>
       </c>
-      <c r="AJ18" s="20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK18" s="20" t="n">
-        <v>91</v>
-      </c>
-      <c r="AL18" s="20" t="n">
-        <v>146</v>
-      </c>
-      <c r="AM18" s="20" t="n">
-        <v>147</v>
-      </c>
       <c r="AN18" s="20" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AO18" s="20" t="n">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="AP18" s="20" t="n">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="AQ18" s="20" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AR18" s="20" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AS18" s="20" t="n">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AT18" s="20" t="n">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="AU18" s="20" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AV18" s="20" t="n">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AW18" s="20" t="n">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="AX18" s="20" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AY18" s="20" t="n">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="AZ18" s="20" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="BA18" s="20" t="n">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="BB18" s="20" t="n">
-        <v>178</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,11 +4546,11 @@
       <c r="AC20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE20" s="13" t="n">
-        <v>0</v>
+      <c r="AD20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF20" s="13" t="s">
         <v>58</v>
@@ -4678,8 +4678,8 @@
       <c r="T21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="16" t="s">
-        <v>58</v>
+      <c r="U21" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="16" t="n">
         <v>0</v>
@@ -4705,8 +4705,8 @@
       <c r="AC21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="16" t="n">
-        <v>0</v>
+      <c r="AD21" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE21" s="16" t="s">
         <v>58</v>
@@ -4835,8 +4835,8 @@
       <c r="T22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="18" t="s">
-        <v>58</v>
+      <c r="U22" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="18" t="n">
         <v>0</v>
@@ -4993,106 +4993,106 @@
         <v>0</v>
       </c>
       <c r="U23" s="20" t="n">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="V23" s="20" t="n">
-        <v>1289</v>
+        <v>1192</v>
       </c>
       <c r="W23" s="20" t="n">
-        <v>1192</v>
+        <v>1313</v>
       </c>
       <c r="X23" s="20" t="n">
-        <v>1313</v>
+        <v>1015</v>
       </c>
       <c r="Y23" s="20" t="n">
-        <v>1015</v>
+        <v>1254</v>
       </c>
       <c r="Z23" s="20" t="n">
-        <v>1254</v>
+        <v>1867</v>
       </c>
       <c r="AA23" s="20" t="n">
-        <v>1867</v>
+        <v>1150</v>
       </c>
       <c r="AB23" s="20" t="n">
-        <v>1150</v>
+        <v>1115</v>
       </c>
       <c r="AC23" s="20" t="n">
-        <v>1115</v>
+        <v>1246</v>
       </c>
       <c r="AD23" s="20" t="n">
-        <v>1246</v>
+        <v>710</v>
       </c>
       <c r="AE23" s="20" t="n">
-        <v>710</v>
+        <v>1274</v>
       </c>
       <c r="AF23" s="20" t="n">
-        <v>1274</v>
+        <v>1058</v>
       </c>
       <c r="AG23" s="20" t="n">
-        <v>1058</v>
+        <v>817</v>
       </c>
       <c r="AH23" s="20" t="n">
-        <v>817</v>
+        <v>1140</v>
       </c>
       <c r="AI23" s="20" t="n">
-        <v>1140</v>
+        <v>1031</v>
       </c>
       <c r="AJ23" s="20" t="n">
-        <v>1031</v>
+        <v>917</v>
       </c>
       <c r="AK23" s="20" t="n">
-        <v>917</v>
+        <v>1094</v>
       </c>
       <c r="AL23" s="20" t="n">
-        <v>1094</v>
+        <v>1126</v>
       </c>
       <c r="AM23" s="20" t="n">
-        <v>1126</v>
+        <v>763</v>
       </c>
       <c r="AN23" s="20" t="n">
+        <v>893</v>
+      </c>
+      <c r="AO23" s="20" t="n">
+        <v>497</v>
+      </c>
+      <c r="AP23" s="20" t="n">
+        <v>423</v>
+      </c>
+      <c r="AQ23" s="20" t="n">
+        <v>137</v>
+      </c>
+      <c r="AR23" s="20" t="n">
+        <v>369</v>
+      </c>
+      <c r="AS23" s="20" t="n">
+        <v>740</v>
+      </c>
+      <c r="AT23" s="20" t="n">
+        <v>744</v>
+      </c>
+      <c r="AU23" s="20" t="n">
         <v>763</v>
       </c>
-      <c r="AO23" s="20" t="n">
-        <v>893</v>
-      </c>
-      <c r="AP23" s="20" t="n">
-        <v>497</v>
-      </c>
-      <c r="AQ23" s="20" t="n">
-        <v>423</v>
-      </c>
-      <c r="AR23" s="20" t="n">
-        <v>137</v>
-      </c>
-      <c r="AS23" s="20" t="n">
-        <v>369</v>
-      </c>
-      <c r="AT23" s="20" t="n">
-        <v>740</v>
-      </c>
-      <c r="AU23" s="20" t="n">
-        <v>744</v>
-      </c>
       <c r="AV23" s="20" t="n">
-        <v>763</v>
+        <v>668</v>
       </c>
       <c r="AW23" s="20" t="n">
-        <v>668</v>
+        <v>860</v>
       </c>
       <c r="AX23" s="20" t="n">
-        <v>860</v>
+        <v>759</v>
       </c>
       <c r="AY23" s="20" t="n">
-        <v>759</v>
+        <v>621</v>
       </c>
       <c r="AZ23" s="20" t="n">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="BA23" s="20" t="n">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="BB23" s="20" t="n">
-        <v>477</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,107 +5585,107 @@
       <c r="T30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="U30" s="13" t="n">
+        <v>52</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AD30" s="13" t="n">
         <v>36</v>
       </c>
+      <c r="AD30" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF30" s="13" t="s">
-        <v>58</v>
+      <c r="AF30" s="13" t="n">
+        <v>71</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AI30" s="13" t="n">
         <v>28</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5777,38 +5777,38 @@
       <c r="AE31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF31" s="16" t="s">
-        <v>58</v>
+      <c r="AF31" s="16" t="n">
+        <v>453</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>453</v>
+        <v>652</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>652</v>
+        <v>810</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>829</v>
+        <v>762</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>759</v>
+        <v>583</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>588</v>
-      </c>
-      <c r="AP31" s="16" t="n">
         <v>36</v>
+      </c>
+      <c r="AP31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ31" s="16" t="s">
         <v>58</v>
@@ -5903,107 +5903,107 @@
       <c r="T32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="13" t="s">
-        <v>58</v>
+      <c r="U32" s="13" t="n">
+        <v>107</v>
       </c>
       <c r="V32" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="W32" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="X32" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y32" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z32" s="13" t="n">
+        <v>159</v>
+      </c>
+      <c r="AA32" s="13" t="n">
+        <v>108</v>
+      </c>
+      <c r="AB32" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="AC32" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF32" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="AG32" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="AH32" s="13" t="n">
+        <v>111</v>
+      </c>
+      <c r="AI32" s="13" t="n">
+        <v>125</v>
+      </c>
+      <c r="AJ32" s="13" t="n">
+        <v>108</v>
+      </c>
+      <c r="AK32" s="13" t="n">
+        <v>117</v>
+      </c>
+      <c r="AL32" s="13" t="n">
         <v>107</v>
       </c>
-      <c r="W32" s="13" t="n">
+      <c r="AM32" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN32" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO32" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP32" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AQ32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="13" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS32" s="13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT32" s="13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AU32" s="13" t="n">
+        <v>122</v>
+      </c>
+      <c r="AV32" s="13" t="n">
+        <v>123</v>
+      </c>
+      <c r="AW32" s="13" t="n">
         <v>80</v>
       </c>
-      <c r="X32" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y32" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z32" s="13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA32" s="13" t="n">
-        <v>159</v>
-      </c>
-      <c r="AB32" s="13" t="n">
-        <v>108</v>
-      </c>
-      <c r="AC32" s="13" t="n">
-        <v>133</v>
-      </c>
-      <c r="AD32" s="13" t="n">
-        <v>79</v>
-      </c>
-      <c r="AE32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG32" s="13" t="n">
-        <v>147</v>
-      </c>
-      <c r="AH32" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="AI32" s="13" t="n">
-        <v>111</v>
-      </c>
-      <c r="AJ32" s="13" t="n">
-        <v>125</v>
-      </c>
-      <c r="AK32" s="13" t="n">
-        <v>108</v>
-      </c>
-      <c r="AL32" s="13" t="n">
-        <v>117</v>
-      </c>
-      <c r="AM32" s="13" t="n">
-        <v>107</v>
-      </c>
-      <c r="AN32" s="13" t="n">
+      <c r="AX32" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AY32" s="13" t="n">
+        <v>87</v>
+      </c>
+      <c r="AZ32" s="13" t="n">
         <v>90</v>
       </c>
-      <c r="AO32" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP32" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AQ32" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AR32" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="13" t="n">
-        <v>71</v>
-      </c>
-      <c r="AT32" s="13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU32" s="13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV32" s="13" t="n">
-        <v>122</v>
-      </c>
-      <c r="AW32" s="13" t="n">
-        <v>123</v>
-      </c>
-      <c r="AX32" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AY32" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AZ32" s="13" t="n">
-        <v>87</v>
-      </c>
       <c r="BA32" s="13" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BB32" s="13" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,44 +6062,44 @@
       <c r="T33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>58</v>
+      <c r="U33" s="16" t="n">
+        <v>944</v>
       </c>
       <c r="V33" s="16" t="n">
-        <v>944</v>
+        <v>1001</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>1001</v>
+        <v>1028</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>1028</v>
+        <v>744</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>744</v>
+        <v>642</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>642</v>
+        <v>1094</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>1089</v>
+        <v>1027</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>1027</v>
+        <v>644</v>
       </c>
       <c r="AD33" s="16" t="n">
-        <v>644</v>
+        <v>449</v>
       </c>
       <c r="AE33" s="16" t="n">
-        <v>449</v>
+        <v>1046</v>
       </c>
       <c r="AF33" s="16" t="n">
-        <v>1046</v>
-      </c>
-      <c r="AG33" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH33" s="16" t="s">
         <v>58</v>
@@ -6125,44 +6125,44 @@
       <c r="AO33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP33" s="16" t="s">
-        <v>58</v>
+      <c r="AP33" s="16" t="n">
+        <v>322</v>
       </c>
       <c r="AQ33" s="16" t="n">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="AR33" s="16" t="n">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="AS33" s="16" t="n">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="AT33" s="16" t="n">
-        <v>356</v>
+        <v>497</v>
       </c>
       <c r="AU33" s="16" t="n">
-        <v>497</v>
+        <v>202</v>
       </c>
       <c r="AV33" s="16" t="n">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="AW33" s="16" t="n">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="AX33" s="16" t="n">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="AY33" s="16" t="n">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="AZ33" s="16" t="n">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="BA33" s="16" t="n">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="BB33" s="16" t="n">
-        <v>387</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,106 +6220,106 @@
         <v>0</v>
       </c>
       <c r="U34" s="18" t="n">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="V34" s="18" t="n">
-        <v>1103</v>
+        <v>1135</v>
       </c>
       <c r="W34" s="18" t="n">
-        <v>1135</v>
+        <v>1191</v>
       </c>
       <c r="X34" s="18" t="n">
-        <v>1191</v>
+        <v>976</v>
       </c>
       <c r="Y34" s="18" t="n">
+        <v>864</v>
+      </c>
+      <c r="Z34" s="18" t="n">
+        <v>1285</v>
+      </c>
+      <c r="AA34" s="18" t="n">
+        <v>1295</v>
+      </c>
+      <c r="AB34" s="18" t="n">
+        <v>1239</v>
+      </c>
+      <c r="AC34" s="18" t="n">
+        <v>759</v>
+      </c>
+      <c r="AD34" s="18" t="n">
+        <v>449</v>
+      </c>
+      <c r="AE34" s="18" t="n">
+        <v>1046</v>
+      </c>
+      <c r="AF34" s="18" t="n">
+        <v>671</v>
+      </c>
+      <c r="AG34" s="18" t="n">
+        <v>813</v>
+      </c>
+      <c r="AH34" s="18" t="n">
+        <v>949</v>
+      </c>
+      <c r="AI34" s="18" t="n">
+        <v>946</v>
+      </c>
+      <c r="AJ34" s="18" t="n">
         <v>976</v>
       </c>
-      <c r="Z34" s="18" t="n">
-        <v>864</v>
-      </c>
-      <c r="AA34" s="18" t="n">
-        <v>1285</v>
-      </c>
-      <c r="AB34" s="18" t="n">
-        <v>1295</v>
-      </c>
-      <c r="AC34" s="18" t="n">
-        <v>1239</v>
-      </c>
-      <c r="AD34" s="18" t="n">
-        <v>759</v>
-      </c>
-      <c r="AE34" s="18" t="n">
-        <v>449</v>
-      </c>
-      <c r="AF34" s="18" t="n">
-        <v>1046</v>
-      </c>
-      <c r="AG34" s="18" t="n">
-        <v>671</v>
-      </c>
-      <c r="AH34" s="18" t="n">
-        <v>813</v>
-      </c>
-      <c r="AI34" s="18" t="n">
-        <v>949</v>
-      </c>
-      <c r="AJ34" s="18" t="n">
-        <v>946</v>
-      </c>
       <c r="AK34" s="18" t="n">
-        <v>976</v>
+        <v>923</v>
       </c>
       <c r="AL34" s="18" t="n">
-        <v>923</v>
+        <v>959</v>
       </c>
       <c r="AM34" s="18" t="n">
-        <v>959</v>
+        <v>744</v>
       </c>
       <c r="AN34" s="18" t="n">
-        <v>744</v>
+        <v>804</v>
       </c>
       <c r="AO34" s="18" t="n">
-        <v>804</v>
+        <v>108</v>
       </c>
       <c r="AP34" s="18" t="n">
-        <v>108</v>
+        <v>398</v>
       </c>
       <c r="AQ34" s="18" t="n">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="AR34" s="18" t="n">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="AS34" s="18" t="n">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="AT34" s="18" t="n">
-        <v>501</v>
+        <v>608</v>
       </c>
       <c r="AU34" s="18" t="n">
-        <v>608</v>
+        <v>381</v>
       </c>
       <c r="AV34" s="18" t="n">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="AW34" s="18" t="n">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="AX34" s="18" t="n">
-        <v>582</v>
+        <v>251</v>
       </c>
       <c r="AY34" s="18" t="n">
-        <v>251</v>
+        <v>623</v>
       </c>
       <c r="AZ34" s="18" t="n">
-        <v>623</v>
+        <v>539</v>
       </c>
       <c r="BA34" s="18" t="n">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="BB34" s="18" t="n">
-        <v>579</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6435,107 +6435,107 @@
       <c r="T36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="13" t="s">
-        <v>58</v>
+      <c r="U36" s="13" t="n">
+        <v>208</v>
       </c>
       <c r="V36" s="13" t="n">
+        <v>159</v>
+      </c>
+      <c r="W36" s="13" t="n">
+        <v>180</v>
+      </c>
+      <c r="X36" s="13" t="n">
+        <v>160</v>
+      </c>
+      <c r="Y36" s="13" t="n">
         <v>208</v>
       </c>
-      <c r="W36" s="13" t="n">
+      <c r="Z36" s="13" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA36" s="13" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB36" s="13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC36" s="13" t="n">
+        <v>872</v>
+      </c>
+      <c r="AD36" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE36" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="AF36" s="13" t="n">
+        <v>384</v>
+      </c>
+      <c r="AG36" s="13" t="n">
+        <v>219</v>
+      </c>
+      <c r="AH36" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AI36" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ36" s="13" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK36" s="13" t="n">
+        <v>146</v>
+      </c>
+      <c r="AL36" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="AM36" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AN36" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO36" s="13" t="n">
+        <v>463</v>
+      </c>
+      <c r="AP36" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ36" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR36" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS36" s="13" t="n">
+        <v>147</v>
+      </c>
+      <c r="AT36" s="13" t="n">
+        <v>136</v>
+      </c>
+      <c r="AU36" s="13" t="n">
+        <v>142</v>
+      </c>
+      <c r="AV36" s="13" t="n">
+        <v>161</v>
+      </c>
+      <c r="AW36" s="13" t="n">
+        <v>306</v>
+      </c>
+      <c r="AX36" s="13" t="n">
+        <v>304</v>
+      </c>
+      <c r="AY36" s="13" t="n">
         <v>159</v>
       </c>
-      <c r="X36" s="13" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y36" s="13" t="n">
-        <v>160</v>
-      </c>
-      <c r="Z36" s="13" t="n">
-        <v>208</v>
-      </c>
-      <c r="AA36" s="13" t="n">
-        <v>125</v>
-      </c>
-      <c r="AB36" s="13" t="n">
-        <v>144</v>
-      </c>
-      <c r="AC36" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AD36" s="13" t="n">
-        <v>872</v>
-      </c>
-      <c r="AE36" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AF36" s="13" t="n">
-        <v>133</v>
-      </c>
-      <c r="AG36" s="13" t="n">
-        <v>384</v>
-      </c>
-      <c r="AH36" s="13" t="n">
-        <v>219</v>
-      </c>
-      <c r="AI36" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AJ36" s="13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK36" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AL36" s="13" t="n">
-        <v>146</v>
-      </c>
-      <c r="AM36" s="13" t="n">
-        <v>147</v>
-      </c>
-      <c r="AN36" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AO36" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP36" s="13" t="n">
-        <v>463</v>
-      </c>
-      <c r="AQ36" s="13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AR36" s="13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS36" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT36" s="13" t="n">
-        <v>147</v>
-      </c>
-      <c r="AU36" s="13" t="n">
-        <v>136</v>
-      </c>
-      <c r="AV36" s="13" t="n">
-        <v>142</v>
-      </c>
-      <c r="AW36" s="13" t="n">
-        <v>161</v>
-      </c>
-      <c r="AX36" s="13" t="n">
-        <v>306</v>
-      </c>
-      <c r="AY36" s="13" t="n">
-        <v>304</v>
-      </c>
       <c r="AZ36" s="13" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,106 +6593,106 @@
         <v>0</v>
       </c>
       <c r="U37" s="20" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="V37" s="20" t="n">
+        <v>159</v>
+      </c>
+      <c r="W37" s="20" t="n">
+        <v>180</v>
+      </c>
+      <c r="X37" s="20" t="n">
+        <v>160</v>
+      </c>
+      <c r="Y37" s="20" t="n">
         <v>208</v>
       </c>
-      <c r="W37" s="20" t="n">
+      <c r="Z37" s="20" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA37" s="20" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB37" s="20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AC37" s="20" t="n">
+        <v>872</v>
+      </c>
+      <c r="AD37" s="20" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE37" s="20" t="n">
+        <v>133</v>
+      </c>
+      <c r="AF37" s="20" t="n">
+        <v>384</v>
+      </c>
+      <c r="AG37" s="20" t="n">
+        <v>219</v>
+      </c>
+      <c r="AH37" s="20" t="n">
+        <v>84</v>
+      </c>
+      <c r="AI37" s="20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ37" s="20" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK37" s="20" t="n">
+        <v>146</v>
+      </c>
+      <c r="AL37" s="20" t="n">
+        <v>147</v>
+      </c>
+      <c r="AM37" s="20" t="n">
+        <v>84</v>
+      </c>
+      <c r="AN37" s="20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO37" s="20" t="n">
+        <v>463</v>
+      </c>
+      <c r="AP37" s="20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ37" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR37" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS37" s="20" t="n">
+        <v>147</v>
+      </c>
+      <c r="AT37" s="20" t="n">
+        <v>136</v>
+      </c>
+      <c r="AU37" s="20" t="n">
+        <v>142</v>
+      </c>
+      <c r="AV37" s="20" t="n">
+        <v>161</v>
+      </c>
+      <c r="AW37" s="20" t="n">
+        <v>306</v>
+      </c>
+      <c r="AX37" s="20" t="n">
+        <v>304</v>
+      </c>
+      <c r="AY37" s="20" t="n">
         <v>159</v>
       </c>
-      <c r="X37" s="20" t="n">
-        <v>180</v>
-      </c>
-      <c r="Y37" s="20" t="n">
-        <v>160</v>
-      </c>
-      <c r="Z37" s="20" t="n">
-        <v>208</v>
-      </c>
-      <c r="AA37" s="20" t="n">
-        <v>125</v>
-      </c>
-      <c r="AB37" s="20" t="n">
-        <v>144</v>
-      </c>
-      <c r="AC37" s="20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AD37" s="20" t="n">
-        <v>872</v>
-      </c>
-      <c r="AE37" s="20" t="n">
-        <v>63</v>
-      </c>
-      <c r="AF37" s="20" t="n">
-        <v>133</v>
-      </c>
-      <c r="AG37" s="20" t="n">
-        <v>384</v>
-      </c>
-      <c r="AH37" s="20" t="n">
-        <v>219</v>
-      </c>
-      <c r="AI37" s="20" t="n">
-        <v>84</v>
-      </c>
-      <c r="AJ37" s="20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK37" s="20" t="n">
-        <v>91</v>
-      </c>
-      <c r="AL37" s="20" t="n">
-        <v>146</v>
-      </c>
-      <c r="AM37" s="20" t="n">
-        <v>147</v>
-      </c>
-      <c r="AN37" s="20" t="n">
-        <v>84</v>
-      </c>
-      <c r="AO37" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP37" s="20" t="n">
-        <v>463</v>
-      </c>
-      <c r="AQ37" s="20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AR37" s="20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS37" s="20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT37" s="20" t="n">
-        <v>147</v>
-      </c>
-      <c r="AU37" s="20" t="n">
-        <v>136</v>
-      </c>
-      <c r="AV37" s="20" t="n">
-        <v>142</v>
-      </c>
-      <c r="AW37" s="20" t="n">
-        <v>161</v>
-      </c>
-      <c r="AX37" s="20" t="n">
-        <v>306</v>
-      </c>
-      <c r="AY37" s="20" t="n">
-        <v>304</v>
-      </c>
       <c r="AZ37" s="20" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="BA37" s="20" t="n">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="BB37" s="20" t="n">
-        <v>218</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,11 +6835,11 @@
       <c r="AC39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE39" s="13" t="n">
-        <v>0</v>
+      <c r="AD39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF39" s="13" t="s">
         <v>58</v>
@@ -6967,8 +6967,8 @@
       <c r="T40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>58</v>
+      <c r="U40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V40" s="16" t="n">
         <v>0</v>
@@ -6994,8 +6994,8 @@
       <c r="AC40" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD40" s="16" t="n">
-        <v>0</v>
+      <c r="AD40" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE40" s="16" t="s">
         <v>58</v>
@@ -7124,8 +7124,8 @@
       <c r="T41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="18" t="s">
-        <v>58</v>
+      <c r="U41" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="18" t="n">
         <v>0</v>
@@ -7338,8 +7338,8 @@
       <c r="T43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>58</v>
+      <c r="U43" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="18" t="n">
         <v>0</v>
@@ -7496,106 +7496,106 @@
         <v>0</v>
       </c>
       <c r="U44" s="20" t="n">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="V44" s="20" t="n">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="W44" s="20" t="n">
-        <v>1294</v>
+        <v>1371</v>
       </c>
       <c r="X44" s="20" t="n">
-        <v>1371</v>
+        <v>1136</v>
       </c>
       <c r="Y44" s="20" t="n">
-        <v>1136</v>
+        <v>1072</v>
       </c>
       <c r="Z44" s="20" t="n">
-        <v>1072</v>
+        <v>1410</v>
       </c>
       <c r="AA44" s="20" t="n">
-        <v>1410</v>
+        <v>1439</v>
       </c>
       <c r="AB44" s="20" t="n">
-        <v>1439</v>
+        <v>1334</v>
       </c>
       <c r="AC44" s="20" t="n">
-        <v>1334</v>
+        <v>1631</v>
       </c>
       <c r="AD44" s="20" t="n">
-        <v>1631</v>
+        <v>512</v>
       </c>
       <c r="AE44" s="20" t="n">
-        <v>512</v>
+        <v>1179</v>
       </c>
       <c r="AF44" s="20" t="n">
-        <v>1179</v>
+        <v>1055</v>
       </c>
       <c r="AG44" s="20" t="n">
-        <v>1055</v>
+        <v>1032</v>
       </c>
       <c r="AH44" s="20" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AI44" s="20" t="n">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="AJ44" s="20" t="n">
-        <v>1011</v>
+        <v>1067</v>
       </c>
       <c r="AK44" s="20" t="n">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="AL44" s="20" t="n">
-        <v>1069</v>
+        <v>1106</v>
       </c>
       <c r="AM44" s="20" t="n">
-        <v>1106</v>
+        <v>828</v>
       </c>
       <c r="AN44" s="20" t="n">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="AO44" s="20" t="n">
-        <v>864</v>
+        <v>571</v>
       </c>
       <c r="AP44" s="20" t="n">
-        <v>571</v>
+        <v>436</v>
       </c>
       <c r="AQ44" s="20" t="n">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="AR44" s="20" t="n">
-        <v>32</v>
+        <v>464</v>
       </c>
       <c r="AS44" s="20" t="n">
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="AT44" s="20" t="n">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="AU44" s="20" t="n">
-        <v>744</v>
+        <v>523</v>
       </c>
       <c r="AV44" s="20" t="n">
-        <v>523</v>
+        <v>705</v>
       </c>
       <c r="AW44" s="20" t="n">
-        <v>705</v>
+        <v>888</v>
       </c>
       <c r="AX44" s="20" t="n">
-        <v>888</v>
+        <v>555</v>
       </c>
       <c r="AY44" s="20" t="n">
-        <v>555</v>
+        <v>782</v>
       </c>
       <c r="AZ44" s="20" t="n">
-        <v>782</v>
+        <v>670</v>
       </c>
       <c r="BA44" s="20" t="n">
-        <v>670</v>
+        <v>797</v>
       </c>
       <c r="BB44" s="20" t="n">
-        <v>797</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,107 +8088,107 @@
       <c r="T51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>58</v>
+      <c r="U51" s="13" t="n">
+        <v>12962</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>12962</v>
+        <v>11838</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>11838</v>
+        <v>15040</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>15040</v>
+        <v>28208</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>28208</v>
+        <v>24364</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>24364</v>
+        <v>9319</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>9319</v>
+        <v>25128</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>25128</v>
+        <v>20524</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>20524</v>
-      </c>
-      <c r="AD51" s="13" t="n">
         <v>8653</v>
       </c>
+      <c r="AD51" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF51" s="13" t="s">
-        <v>58</v>
+      <c r="AF51" s="13" t="n">
+        <v>21324</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>21324</v>
+        <v>9826</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>9826</v>
+        <v>8550</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>8550</v>
+        <v>8991</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>8991</v>
+        <v>12874</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>12874</v>
+        <v>17112</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>17112</v>
+        <v>36680</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>36680</v>
+        <v>29292</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>29292</v>
+        <v>49120</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>49120</v>
+        <v>14380</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>14380</v>
+        <v>9472</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>9472</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>0</v>
+        <v>72135</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>72135</v>
+        <v>54672</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>54672</v>
+        <v>23415</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>23415</v>
+        <v>51313</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>51313</v>
+        <v>95458</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>95458</v>
+        <v>111553</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>111553</v>
+        <v>65064</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>65064</v>
+        <v>98756</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>98756</v>
+        <v>44863</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>44863</v>
+        <v>40173</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>40173</v>
+        <v>997</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8280,38 +8280,38 @@
       <c r="AE52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF52" s="16" t="s">
-        <v>58</v>
+      <c r="AF52" s="16" t="n">
+        <v>120878</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>120878</v>
+        <v>179709</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>179709</v>
+        <v>225789</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>225789</v>
+        <v>231341</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>231341</v>
+        <v>256539</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>256539</v>
+        <v>260537</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>260537</v>
+        <v>260136</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>260136</v>
+        <v>214732</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>214732</v>
+        <v>217920</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>217920</v>
-      </c>
-      <c r="AP52" s="16" t="n">
         <v>13296</v>
+      </c>
+      <c r="AP52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>58</v>
@@ -8406,107 +8406,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>21066</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>21066</v>
+        <v>14361</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>14361</v>
+        <v>17495</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>17495</v>
+        <v>18401</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>18401</v>
+        <v>30175</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>30175</v>
+        <v>41672</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>41672</v>
+        <v>25032</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>25032</v>
+        <v>31354</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>31354</v>
-      </c>
-      <c r="AD53" s="13" t="n">
         <v>16112</v>
       </c>
+      <c r="AD53" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF53" s="13" t="s">
-        <v>58</v>
+      <c r="AF53" s="13" t="n">
+        <v>43623</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>43623</v>
+        <v>37717</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>37717</v>
+        <v>32439</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>32439</v>
+        <v>39780</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>39780</v>
+        <v>34651</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>34651</v>
+        <v>44073</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>44073</v>
+        <v>40422</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>40422</v>
+        <v>35453</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>35453</v>
+        <v>39981</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>39981</v>
+        <v>14970</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>14970</v>
+        <v>28187</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>28187</v>
+        <v>0</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>0</v>
+        <v>45111</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>45111</v>
+        <v>56564</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>56564</v>
+        <v>70231</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>70231</v>
+        <v>105959</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>105959</v>
+        <v>92588</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>92588</v>
+        <v>60091</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>60091</v>
+        <v>47482</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>47482</v>
+        <v>48158</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>48158</v>
+        <v>38893</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>38893</v>
+        <v>38029</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>38029</v>
+        <v>996</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,41 +8565,41 @@
       <c r="T54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>58</v>
+      <c r="U54" s="16" t="n">
+        <v>157513</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>157513</v>
+        <v>154616</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>154616</v>
+        <v>186560</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>186560</v>
+        <v>121686</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>121686</v>
+        <v>144761</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>144761</v>
+        <v>267708</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>267708</v>
+        <v>264137</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>264137</v>
+        <v>250331</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>250331</v>
+        <v>89164</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>89164</v>
+        <v>113936</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>113936</v>
+        <v>267961</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>267961</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="16" t="n">
         <v>0</v>
@@ -8610,8 +8610,8 @@
       <c r="AI54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ54" s="16" t="n">
-        <v>0</v>
+      <c r="AJ54" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK54" s="16" t="s">
         <v>58</v>
@@ -8628,44 +8628,44 @@
       <c r="AO54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP54" s="16" t="s">
-        <v>58</v>
+      <c r="AP54" s="16" t="n">
+        <v>121229</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>121229</v>
+        <v>5323</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>5323</v>
+        <v>155961</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>155961</v>
+        <v>298886</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>298886</v>
+        <v>421953</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>421953</v>
+        <v>129291</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>129291</v>
+        <v>204901</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>204901</v>
+        <v>252919</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>252919</v>
+        <v>74546</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>74546</v>
+        <v>188872</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>188872</v>
+        <v>147833</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>147833</v>
+        <v>120356</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>120356</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8723,106 +8723,106 @@
         <v>0</v>
       </c>
       <c r="U55" s="18" t="n">
-        <v>0</v>
+        <v>191541</v>
       </c>
       <c r="V55" s="18" t="n">
-        <v>191541</v>
+        <v>180815</v>
       </c>
       <c r="W55" s="18" t="n">
-        <v>180815</v>
+        <v>219095</v>
       </c>
       <c r="X55" s="18" t="n">
-        <v>219095</v>
+        <v>168295</v>
       </c>
       <c r="Y55" s="18" t="n">
-        <v>168295</v>
+        <v>199300</v>
       </c>
       <c r="Z55" s="18" t="n">
-        <v>199300</v>
+        <v>318699</v>
       </c>
       <c r="AA55" s="18" t="n">
-        <v>318699</v>
+        <v>314297</v>
       </c>
       <c r="AB55" s="18" t="n">
-        <v>314297</v>
+        <v>302209</v>
       </c>
       <c r="AC55" s="18" t="n">
-        <v>302209</v>
+        <v>113929</v>
       </c>
       <c r="AD55" s="18" t="n">
-        <v>113929</v>
+        <v>113936</v>
       </c>
       <c r="AE55" s="18" t="n">
-        <v>113936</v>
+        <v>267961</v>
       </c>
       <c r="AF55" s="18" t="n">
-        <v>267961</v>
+        <v>185825</v>
       </c>
       <c r="AG55" s="18" t="n">
-        <v>185825</v>
+        <v>227252</v>
       </c>
       <c r="AH55" s="18" t="n">
-        <v>227252</v>
+        <v>266778</v>
       </c>
       <c r="AI55" s="18" t="n">
-        <v>266778</v>
+        <v>280112</v>
       </c>
       <c r="AJ55" s="18" t="n">
-        <v>280112</v>
+        <v>304064</v>
       </c>
       <c r="AK55" s="18" t="n">
-        <v>304064</v>
+        <v>321722</v>
       </c>
       <c r="AL55" s="18" t="n">
-        <v>321722</v>
+        <v>337238</v>
       </c>
       <c r="AM55" s="18" t="n">
-        <v>337238</v>
+        <v>279477</v>
       </c>
       <c r="AN55" s="18" t="n">
-        <v>279477</v>
+        <v>307021</v>
       </c>
       <c r="AO55" s="18" t="n">
-        <v>307021</v>
+        <v>42646</v>
       </c>
       <c r="AP55" s="18" t="n">
-        <v>42646</v>
+        <v>158888</v>
       </c>
       <c r="AQ55" s="18" t="n">
-        <v>158888</v>
+        <v>5323</v>
       </c>
       <c r="AR55" s="18" t="n">
-        <v>5323</v>
+        <v>273207</v>
       </c>
       <c r="AS55" s="18" t="n">
-        <v>273207</v>
+        <v>410122</v>
       </c>
       <c r="AT55" s="18" t="n">
-        <v>410122</v>
+        <v>515599</v>
       </c>
       <c r="AU55" s="18" t="n">
-        <v>515599</v>
+        <v>286563</v>
       </c>
       <c r="AV55" s="18" t="n">
-        <v>286563</v>
+        <v>392947</v>
       </c>
       <c r="AW55" s="18" t="n">
-        <v>392947</v>
+        <v>424563</v>
       </c>
       <c r="AX55" s="18" t="n">
-        <v>424563</v>
+        <v>187092</v>
       </c>
       <c r="AY55" s="18" t="n">
-        <v>187092</v>
+        <v>335786</v>
       </c>
       <c r="AZ55" s="18" t="n">
-        <v>335786</v>
+        <v>231589</v>
       </c>
       <c r="BA55" s="18" t="n">
-        <v>231589</v>
+        <v>198558</v>
       </c>
       <c r="BB55" s="18" t="n">
-        <v>198558</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8938,107 +8938,107 @@
       <c r="T57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>58</v>
+      <c r="U57" s="13" t="n">
+        <v>32065</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>32065</v>
+        <v>23554</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>23554</v>
+        <v>28816</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>28816</v>
+        <v>24759</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>24759</v>
+        <v>33874</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>33874</v>
+        <v>20415</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>20415</v>
+        <v>23610</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>23610</v>
+        <v>15768</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>15768</v>
+        <v>138324</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>138324</v>
+        <v>9963</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>9963</v>
+        <v>21193</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>21193</v>
+        <v>89329</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>89329</v>
+        <v>44996</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>44996</v>
+        <v>17120</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>17120</v>
+        <v>13351</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>13351</v>
+        <v>18885</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>18885</v>
+        <v>33508</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>33508</v>
+        <v>32455</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>32455</v>
+        <v>19117</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>19117</v>
+        <v>13524</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>13524</v>
+        <v>117604</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>117604</v>
+        <v>10911</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>10911</v>
+        <v>4780</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>4780</v>
+        <v>6941</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>6941</v>
+        <v>28507</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>28507</v>
+        <v>34884</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>34884</v>
+        <v>43365</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>43365</v>
+        <v>57099</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>57099</v>
+        <v>105651</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>105651</v>
+        <v>113383</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>113383</v>
+        <v>64429</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>64429</v>
+        <v>50132</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>50132</v>
+        <v>86001</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>86001</v>
+        <v>30173</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9096,106 +9096,106 @@
         <v>0</v>
       </c>
       <c r="U58" s="20" t="n">
-        <v>0</v>
+        <v>32065</v>
       </c>
       <c r="V58" s="20" t="n">
-        <v>32065</v>
+        <v>23554</v>
       </c>
       <c r="W58" s="20" t="n">
-        <v>23554</v>
+        <v>28816</v>
       </c>
       <c r="X58" s="20" t="n">
-        <v>28816</v>
+        <v>24759</v>
       </c>
       <c r="Y58" s="20" t="n">
-        <v>24759</v>
+        <v>33874</v>
       </c>
       <c r="Z58" s="20" t="n">
-        <v>33874</v>
+        <v>20415</v>
       </c>
       <c r="AA58" s="20" t="n">
-        <v>20415</v>
+        <v>23610</v>
       </c>
       <c r="AB58" s="20" t="n">
-        <v>23610</v>
+        <v>15768</v>
       </c>
       <c r="AC58" s="20" t="n">
-        <v>15768</v>
+        <v>138324</v>
       </c>
       <c r="AD58" s="20" t="n">
-        <v>138324</v>
+        <v>9963</v>
       </c>
       <c r="AE58" s="20" t="n">
-        <v>9963</v>
+        <v>21193</v>
       </c>
       <c r="AF58" s="20" t="n">
-        <v>21193</v>
+        <v>89329</v>
       </c>
       <c r="AG58" s="20" t="n">
-        <v>89329</v>
+        <v>44996</v>
       </c>
       <c r="AH58" s="20" t="n">
-        <v>44996</v>
+        <v>17120</v>
       </c>
       <c r="AI58" s="20" t="n">
-        <v>17120</v>
+        <v>13351</v>
       </c>
       <c r="AJ58" s="20" t="n">
-        <v>13351</v>
+        <v>18885</v>
       </c>
       <c r="AK58" s="20" t="n">
-        <v>18885</v>
+        <v>33508</v>
       </c>
       <c r="AL58" s="20" t="n">
-        <v>33508</v>
+        <v>32455</v>
       </c>
       <c r="AM58" s="20" t="n">
-        <v>32455</v>
+        <v>19117</v>
       </c>
       <c r="AN58" s="20" t="n">
-        <v>19117</v>
+        <v>13524</v>
       </c>
       <c r="AO58" s="20" t="n">
-        <v>13524</v>
+        <v>117604</v>
       </c>
       <c r="AP58" s="20" t="n">
-        <v>117604</v>
+        <v>10911</v>
       </c>
       <c r="AQ58" s="20" t="n">
-        <v>10911</v>
+        <v>4780</v>
       </c>
       <c r="AR58" s="20" t="n">
-        <v>4780</v>
+        <v>6941</v>
       </c>
       <c r="AS58" s="20" t="n">
-        <v>6941</v>
+        <v>28507</v>
       </c>
       <c r="AT58" s="20" t="n">
-        <v>28507</v>
+        <v>34884</v>
       </c>
       <c r="AU58" s="20" t="n">
-        <v>34884</v>
+        <v>43365</v>
       </c>
       <c r="AV58" s="20" t="n">
-        <v>43365</v>
+        <v>57099</v>
       </c>
       <c r="AW58" s="20" t="n">
-        <v>57099</v>
+        <v>105651</v>
       </c>
       <c r="AX58" s="20" t="n">
-        <v>105651</v>
+        <v>113383</v>
       </c>
       <c r="AY58" s="20" t="n">
-        <v>113383</v>
+        <v>64429</v>
       </c>
       <c r="AZ58" s="20" t="n">
-        <v>64429</v>
+        <v>50132</v>
       </c>
       <c r="BA58" s="20" t="n">
-        <v>50132</v>
+        <v>86001</v>
       </c>
       <c r="BB58" s="20" t="n">
-        <v>86001</v>
+        <v>30173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9338,8 +9338,8 @@
       <c r="AC60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="13" t="s">
-        <v>58</v>
+      <c r="AD60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE60" s="13" t="n">
         <v>0</v>
@@ -9356,8 +9356,8 @@
       <c r="AI60" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ60" s="13" t="n">
-        <v>0</v>
+      <c r="AJ60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK60" s="13" t="s">
         <v>58</v>
@@ -9470,8 +9470,8 @@
       <c r="T61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="16" t="s">
-        <v>58</v>
+      <c r="U61" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="16" t="n">
         <v>0</v>
@@ -9497,8 +9497,8 @@
       <c r="AC61" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD61" s="16" t="n">
-        <v>0</v>
+      <c r="AD61" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE61" s="16" t="s">
         <v>58</v>
@@ -9629,8 +9629,8 @@
       <c r="T62" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="18" t="s">
-        <v>58</v>
+      <c r="U62" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V62" s="23" t="n">
         <v>0</v>
@@ -9845,8 +9845,8 @@
       <c r="T64" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="18" t="s">
-        <v>58</v>
+      <c r="U64" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="23" t="n">
         <v>0</v>
@@ -10061,8 +10061,8 @@
       <c r="T66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="13" t="s">
-        <v>58</v>
+      <c r="U66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="13" t="n">
         <v>0</v>
@@ -10219,106 +10219,106 @@
         <v>0</v>
       </c>
       <c r="U67" s="20" t="n">
-        <v>0</v>
+        <v>223606</v>
       </c>
       <c r="V67" s="20" t="n">
-        <v>223606</v>
+        <v>204369</v>
       </c>
       <c r="W67" s="20" t="n">
-        <v>204369</v>
+        <v>247911</v>
       </c>
       <c r="X67" s="20" t="n">
-        <v>247911</v>
+        <v>193054</v>
       </c>
       <c r="Y67" s="20" t="n">
-        <v>193054</v>
+        <v>233174</v>
       </c>
       <c r="Z67" s="20" t="n">
-        <v>233174</v>
+        <v>339114</v>
       </c>
       <c r="AA67" s="20" t="n">
-        <v>339114</v>
+        <v>337907</v>
       </c>
       <c r="AB67" s="20" t="n">
-        <v>337907</v>
+        <v>317977</v>
       </c>
       <c r="AC67" s="20" t="n">
-        <v>317977</v>
+        <v>252253</v>
       </c>
       <c r="AD67" s="20" t="n">
-        <v>252253</v>
+        <v>123899</v>
       </c>
       <c r="AE67" s="20" t="n">
-        <v>123899</v>
+        <v>289154</v>
       </c>
       <c r="AF67" s="20" t="n">
-        <v>289154</v>
+        <v>275154</v>
       </c>
       <c r="AG67" s="20" t="n">
-        <v>275154</v>
+        <v>272248</v>
       </c>
       <c r="AH67" s="20" t="n">
-        <v>272248</v>
+        <v>283898</v>
       </c>
       <c r="AI67" s="20" t="n">
-        <v>283898</v>
+        <v>293463</v>
       </c>
       <c r="AJ67" s="20" t="n">
-        <v>293463</v>
+        <v>322949</v>
       </c>
       <c r="AK67" s="20" t="n">
-        <v>322949</v>
+        <v>355230</v>
       </c>
       <c r="AL67" s="20" t="n">
-        <v>355230</v>
+        <v>369693</v>
       </c>
       <c r="AM67" s="20" t="n">
-        <v>369693</v>
+        <v>298594</v>
       </c>
       <c r="AN67" s="20" t="n">
-        <v>298594</v>
+        <v>320545</v>
       </c>
       <c r="AO67" s="20" t="n">
-        <v>320545</v>
+        <v>160250</v>
       </c>
       <c r="AP67" s="20" t="n">
-        <v>160250</v>
+        <v>169799</v>
       </c>
       <c r="AQ67" s="20" t="n">
-        <v>169799</v>
+        <v>10103</v>
       </c>
       <c r="AR67" s="20" t="n">
-        <v>10103</v>
+        <v>280148</v>
       </c>
       <c r="AS67" s="20" t="n">
-        <v>280148</v>
+        <v>438629</v>
       </c>
       <c r="AT67" s="20" t="n">
-        <v>438629</v>
+        <v>550483</v>
       </c>
       <c r="AU67" s="20" t="n">
-        <v>550483</v>
+        <v>329928</v>
       </c>
       <c r="AV67" s="20" t="n">
-        <v>329928</v>
+        <v>450046</v>
       </c>
       <c r="AW67" s="20" t="n">
-        <v>450046</v>
+        <v>530214</v>
       </c>
       <c r="AX67" s="20" t="n">
-        <v>530214</v>
+        <v>300475</v>
       </c>
       <c r="AY67" s="20" t="n">
-        <v>300475</v>
+        <v>400215</v>
       </c>
       <c r="AZ67" s="20" t="n">
-        <v>400215</v>
+        <v>281721</v>
       </c>
       <c r="BA67" s="20" t="n">
-        <v>281721</v>
+        <v>284559</v>
       </c>
       <c r="BB67" s="20" t="n">
-        <v>284559</v>
+        <v>35967</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10811,107 +10811,107 @@
       <c r="T74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="13" t="s">
-        <v>58</v>
+      <c r="U74" s="13" t="n">
+        <v>249269231</v>
       </c>
       <c r="V74" s="13" t="n">
-        <v>249269231</v>
+        <v>219222222</v>
       </c>
       <c r="W74" s="13" t="n">
-        <v>219222222</v>
+        <v>221176471</v>
       </c>
       <c r="X74" s="13" t="n">
-        <v>221176471</v>
+        <v>222110236</v>
       </c>
       <c r="Y74" s="13" t="n">
-        <v>222110236</v>
+        <v>264826087</v>
       </c>
       <c r="Z74" s="13" t="n">
-        <v>264826087</v>
+        <v>291218750</v>
       </c>
       <c r="AA74" s="13" t="n">
-        <v>291218750</v>
+        <v>256411020</v>
       </c>
       <c r="AB74" s="13" t="n">
-        <v>256411020</v>
+        <v>259797468</v>
       </c>
       <c r="AC74" s="13" t="n">
-        <v>259797468</v>
-      </c>
-      <c r="AD74" s="13" t="n">
         <v>240361111</v>
       </c>
+      <c r="AD74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF74" s="13" t="s">
-        <v>58</v>
+      <c r="AF74" s="13" t="n">
+        <v>300338028</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>300338028</v>
+        <v>297757576</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>297757576</v>
+        <v>305357143</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>305357143</v>
+        <v>321107143</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>321107143</v>
+        <v>330102564</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>330102564</v>
+        <v>388909091</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>388909091</v>
+        <v>394408602</v>
       </c>
       <c r="AM74" s="13" t="n">
-        <v>394408602</v>
+        <v>412563380</v>
       </c>
       <c r="AN74" s="13" t="n">
-        <v>412563380</v>
+        <v>423448276</v>
       </c>
       <c r="AO74" s="13" t="n">
-        <v>423448276</v>
+        <v>422941176</v>
       </c>
       <c r="AP74" s="13" t="n">
-        <v>422941176</v>
-      </c>
-      <c r="AQ74" s="13" t="n">
         <v>728615385</v>
       </c>
-      <c r="AR74" s="13" t="s">
-        <v>58</v>
+      <c r="AQ74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR74" s="13" t="n">
+        <v>936818182</v>
       </c>
       <c r="AS74" s="13" t="n">
-        <v>936818182</v>
+        <v>700923077</v>
       </c>
       <c r="AT74" s="13" t="n">
-        <v>700923077</v>
+        <v>780500000</v>
       </c>
       <c r="AU74" s="13" t="n">
-        <v>780500000</v>
+        <v>900228070</v>
       </c>
       <c r="AV74" s="13" t="n">
-        <v>900228070</v>
+        <v>815880342</v>
       </c>
       <c r="AW74" s="13" t="n">
-        <v>815880342</v>
+        <v>814255474</v>
       </c>
       <c r="AX74" s="13" t="n">
-        <v>814255474</v>
+        <v>813300000</v>
       </c>
       <c r="AY74" s="13" t="n">
-        <v>813300000</v>
+        <v>598521212</v>
       </c>
       <c r="AZ74" s="13" t="n">
-        <v>598521212</v>
+        <v>431375000</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>431375000</v>
+        <v>409928571</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>409928571</v>
+        <v>1060638298</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11003,38 +11003,38 @@
       <c r="AE75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF75" s="16" t="s">
-        <v>58</v>
+      <c r="AF75" s="16" t="n">
+        <v>266838852</v>
       </c>
       <c r="AG75" s="16" t="n">
-        <v>266838852</v>
+        <v>275627301</v>
       </c>
       <c r="AH75" s="16" t="n">
-        <v>275627301</v>
+        <v>278751852</v>
       </c>
       <c r="AI75" s="16" t="n">
-        <v>278751852</v>
+        <v>291728878</v>
       </c>
       <c r="AJ75" s="16" t="n">
-        <v>291728878</v>
+        <v>309455971</v>
       </c>
       <c r="AK75" s="16" t="n">
-        <v>309455971</v>
+        <v>341912073</v>
       </c>
       <c r="AL75" s="16" t="n">
-        <v>341912073</v>
+        <v>342735178</v>
       </c>
       <c r="AM75" s="16" t="n">
-        <v>342735178</v>
+        <v>368322470</v>
       </c>
       <c r="AN75" s="16" t="n">
-        <v>368322470</v>
+        <v>370612245</v>
       </c>
       <c r="AO75" s="16" t="n">
-        <v>370612245</v>
-      </c>
-      <c r="AP75" s="16" t="n">
         <v>369333333</v>
+      </c>
+      <c r="AP75" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ75" s="16" t="s">
         <v>58</v>
@@ -11129,107 +11129,107 @@
       <c r="T76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="13" t="s">
-        <v>58</v>
+      <c r="U76" s="13" t="n">
+        <v>196878505</v>
       </c>
       <c r="V76" s="13" t="n">
-        <v>196878505</v>
+        <v>179512500</v>
       </c>
       <c r="W76" s="13" t="n">
-        <v>179512500</v>
+        <v>184157895</v>
       </c>
       <c r="X76" s="13" t="n">
-        <v>184157895</v>
+        <v>175247619</v>
       </c>
       <c r="Y76" s="13" t="n">
-        <v>175247619</v>
+        <v>232115385</v>
       </c>
       <c r="Z76" s="13" t="n">
-        <v>232115385</v>
+        <v>262088050</v>
       </c>
       <c r="AA76" s="13" t="n">
-        <v>262088050</v>
+        <v>231779352</v>
       </c>
       <c r="AB76" s="13" t="n">
-        <v>231779352</v>
+        <v>235744361</v>
       </c>
       <c r="AC76" s="13" t="n">
-        <v>235744361</v>
-      </c>
-      <c r="AD76" s="13" t="n">
         <v>203949367</v>
       </c>
+      <c r="AD76" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="13" t="s">
-        <v>58</v>
+      <c r="AF76" s="13" t="n">
+        <v>296755102</v>
       </c>
       <c r="AG76" s="13" t="n">
-        <v>296755102</v>
+        <v>294664063</v>
       </c>
       <c r="AH76" s="13" t="n">
-        <v>294664063</v>
+        <v>292243243</v>
       </c>
       <c r="AI76" s="13" t="n">
-        <v>292243243</v>
+        <v>318240000</v>
       </c>
       <c r="AJ76" s="13" t="n">
-        <v>318240000</v>
+        <v>320842593</v>
       </c>
       <c r="AK76" s="13" t="n">
-        <v>320842593</v>
+        <v>376692308</v>
       </c>
       <c r="AL76" s="13" t="n">
-        <v>376692308</v>
+        <v>377775701</v>
       </c>
       <c r="AM76" s="13" t="n">
-        <v>377775701</v>
+        <v>393922222</v>
       </c>
       <c r="AN76" s="13" t="n">
-        <v>393922222</v>
+        <v>399810000</v>
       </c>
       <c r="AO76" s="13" t="n">
-        <v>399810000</v>
+        <v>393947368</v>
       </c>
       <c r="AP76" s="13" t="n">
-        <v>393947368</v>
-      </c>
-      <c r="AQ76" s="13" t="n">
         <v>447412698</v>
       </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
+      <c r="AQ76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR76" s="13" t="n">
+        <v>635366197</v>
       </c>
       <c r="AS76" s="13" t="n">
-        <v>635366197</v>
+        <v>844238806</v>
       </c>
       <c r="AT76" s="13" t="n">
-        <v>844238806</v>
+        <v>867049383</v>
       </c>
       <c r="AU76" s="13" t="n">
-        <v>867049383</v>
+        <v>868516393</v>
       </c>
       <c r="AV76" s="13" t="n">
-        <v>868516393</v>
+        <v>752747967</v>
       </c>
       <c r="AW76" s="13" t="n">
-        <v>752747967</v>
+        <v>751137500</v>
       </c>
       <c r="AX76" s="13" t="n">
-        <v>751137500</v>
+        <v>753682540</v>
       </c>
       <c r="AY76" s="13" t="n">
-        <v>753682540</v>
+        <v>553540230</v>
       </c>
       <c r="AZ76" s="13" t="n">
-        <v>553540230</v>
+        <v>432144444</v>
       </c>
       <c r="BA76" s="13" t="n">
-        <v>432144444</v>
+        <v>404563830</v>
       </c>
       <c r="BB76" s="13" t="n">
-        <v>404563830</v>
+        <v>1070967742</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11288,42 +11288,42 @@
       <c r="T77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="16" t="s">
-        <v>58</v>
+      <c r="U77" s="16" t="n">
+        <v>166856992</v>
       </c>
       <c r="V77" s="16" t="n">
-        <v>166856992</v>
+        <v>154461538</v>
       </c>
       <c r="W77" s="16" t="n">
-        <v>154461538</v>
+        <v>181478599</v>
       </c>
       <c r="X77" s="16" t="n">
-        <v>181478599</v>
+        <v>163556452</v>
       </c>
       <c r="Y77" s="16" t="n">
-        <v>163556452</v>
+        <v>225484424</v>
       </c>
       <c r="Z77" s="16" t="n">
-        <v>225484424</v>
+        <v>244705667</v>
       </c>
       <c r="AA77" s="16" t="n">
-        <v>244705667</v>
+        <v>242549633</v>
       </c>
       <c r="AB77" s="16" t="n">
-        <v>242549633</v>
+        <v>243749757</v>
       </c>
       <c r="AC77" s="16" t="n">
-        <v>243749757</v>
+        <v>138453416</v>
       </c>
       <c r="AD77" s="16" t="n">
-        <v>138453416</v>
+        <v>253755011</v>
       </c>
       <c r="AE77" s="16" t="n">
-        <v>253755011</v>
-      </c>
-      <c r="AF77" s="16" t="n">
         <v>256176864</v>
       </c>
+      <c r="AF77" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG77" s="16" t="s">
         <v>58</v>
       </c>
@@ -11351,44 +11351,44 @@
       <c r="AO77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP77" s="16" t="s">
-        <v>58</v>
+      <c r="AP77" s="16" t="n">
+        <v>376487578</v>
       </c>
       <c r="AQ77" s="16" t="n">
-        <v>376487578</v>
+        <v>354866667</v>
       </c>
       <c r="AR77" s="16" t="n">
-        <v>354866667</v>
+        <v>526895270</v>
       </c>
       <c r="AS77" s="16" t="n">
-        <v>526895270</v>
+        <v>839567416</v>
       </c>
       <c r="AT77" s="16" t="n">
-        <v>839567416</v>
+        <v>849000000</v>
       </c>
       <c r="AU77" s="16" t="n">
-        <v>849000000</v>
+        <v>640054455</v>
       </c>
       <c r="AV77" s="16" t="n">
-        <v>640054455</v>
+        <v>674016447</v>
       </c>
       <c r="AW77" s="16" t="n">
-        <v>674016447</v>
+        <v>692928767</v>
       </c>
       <c r="AX77" s="16" t="n">
-        <v>692928767</v>
+        <v>690240741</v>
       </c>
       <c r="AY77" s="16" t="n">
-        <v>690240741</v>
+        <v>509088949</v>
       </c>
       <c r="AZ77" s="16" t="n">
-        <v>509088949</v>
+        <v>428501449</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>428501449</v>
+        <v>310997416</v>
       </c>
       <c r="BB77" s="16" t="n">
-        <v>310997416</v>
+        <v>1027297297</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11504,107 +11504,107 @@
       <c r="T79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>58</v>
+      <c r="U79" s="13" t="n">
+        <v>154158654</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>154158654</v>
+        <v>148138365</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>148138365</v>
+        <v>160088889</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>160088889</v>
+        <v>154743750</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>154743750</v>
+        <v>162855769</v>
       </c>
       <c r="Z79" s="13" t="n">
-        <v>162855769</v>
+        <v>163320000</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>163320000</v>
+        <v>163594789</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>163594789</v>
+        <v>165978947</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>165978947</v>
+        <v>158628440</v>
       </c>
       <c r="AD79" s="13" t="n">
-        <v>158628440</v>
+        <v>158142857</v>
       </c>
       <c r="AE79" s="13" t="n">
-        <v>158142857</v>
+        <v>159345865</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>159345865</v>
+        <v>232627604</v>
       </c>
       <c r="AG79" s="13" t="n">
-        <v>232627604</v>
+        <v>205461187</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>205461187</v>
+        <v>203809524</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>203809524</v>
+        <v>205400000</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>205400000</v>
+        <v>207527473</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>207527473</v>
+        <v>229506849</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>229506849</v>
+        <v>220782313</v>
       </c>
       <c r="AM79" s="13" t="n">
-        <v>220782313</v>
+        <v>227583333</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>227583333</v>
+        <v>225400000</v>
       </c>
       <c r="AO79" s="13" t="n">
-        <v>225400000</v>
+        <v>254004320</v>
       </c>
       <c r="AP79" s="13" t="n">
-        <v>254004320</v>
+        <v>287131579</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>287131579</v>
+        <v>281176471</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>281176471</v>
+        <v>347050000</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>347050000</v>
+        <v>193925170</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>193925170</v>
+        <v>256500000</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>256500000</v>
+        <v>305387324</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>305387324</v>
+        <v>354652174</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>354652174</v>
+        <v>345264706</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>345264706</v>
+        <v>372970395</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>372970395</v>
+        <v>405213836</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>405213836</v>
+        <v>382687023</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>382687023</v>
+        <v>394500000</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>394500000</v>
+        <v>418720511</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11747,8 +11747,8 @@
       <c r="AC81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD81" s="13" t="s">
-        <v>58</v>
+      <c r="AD81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE81" s="13" t="n">
         <v>0</v>
@@ -11765,8 +11765,8 @@
       <c r="AI81" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ81" s="13" t="n">
-        <v>0</v>
+      <c r="AJ81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK81" s="13" t="s">
         <v>58</v>
@@ -11879,8 +11879,8 @@
       <c r="T82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>58</v>
+      <c r="U82" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V82" s="16" t="n">
         <v>0</v>
@@ -11906,8 +11906,8 @@
       <c r="AC82" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD82" s="16" t="n">
-        <v>0</v>
+      <c r="AD82" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE82" s="16" t="s">
         <v>58</v>

--- a/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghegorji/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghegorji\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghegorji\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858D070-EC56-4B64-AB01-C809763A58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDBB7C-C5B3-4AEB-B66A-AE6FD603E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1486,110 +1486,110 @@
       <c r="S11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>58</v>
+      <c r="T11" s="11">
+        <v>25</v>
       </c>
       <c r="U11" s="11">
+        <v>57</v>
+      </c>
+      <c r="V11" s="11">
+        <v>50</v>
+      </c>
+      <c r="W11" s="11">
+        <v>106</v>
+      </c>
+      <c r="X11" s="11">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>26</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>87</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>73</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>35</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>27</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>38</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>46</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>96</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>65</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>104</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>31</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>94</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>79</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>16</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>37</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>105</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>129</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>139</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>155</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>70</v>
+      </c>
+      <c r="AZ11" s="11">
         <v>25</v>
       </c>
-      <c r="V11" s="11">
-        <v>57</v>
-      </c>
-      <c r="W11" s="11">
-        <v>50</v>
-      </c>
-      <c r="X11" s="11">
-        <v>106</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>49</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>87</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>73</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>30</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>35</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>27</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>38</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>46</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>96</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>65</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>104</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>31</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>94</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>79</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>16</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>37</v>
-      </c>
-      <c r="AV11" s="11">
-        <v>105</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>129</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>139</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>155</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>70</v>
-      </c>
       <c r="BA11" s="11">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="11">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1678,38 +1678,38 @@
       <c r="AD12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
+      <c r="AE12" s="13">
+        <v>566</v>
       </c>
       <c r="AF12" s="13">
-        <v>566</v>
+        <v>452</v>
       </c>
       <c r="AG12" s="13">
-        <v>452</v>
+        <v>907</v>
       </c>
       <c r="AH12" s="13">
-        <v>907</v>
+        <v>811</v>
       </c>
       <c r="AI12" s="13">
-        <v>811</v>
+        <v>694</v>
       </c>
       <c r="AJ12" s="13">
-        <v>694</v>
+        <v>791</v>
       </c>
       <c r="AK12" s="13">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="AL12" s="13">
-        <v>760</v>
+        <v>531</v>
       </c>
       <c r="AM12" s="13">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="AN12" s="13">
-        <v>622</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP12" s="13" t="s">
         <v>58</v>
@@ -1804,110 +1804,110 @@
       <c r="S13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>58</v>
+      <c r="T13" s="11">
+        <v>112</v>
       </c>
       <c r="U13" s="11">
+        <v>76</v>
+      </c>
+      <c r="V13" s="11">
+        <v>75</v>
+      </c>
+      <c r="W13" s="11">
         <v>112</v>
       </c>
-      <c r="V13" s="11">
-        <v>76</v>
-      </c>
-      <c r="W13" s="11">
-        <v>75</v>
-      </c>
       <c r="X13" s="11">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="11">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="Z13" s="11">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="AA13" s="11">
+        <v>116</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>78</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>111</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>125</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>128</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>94</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>111</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>123</v>
+      </c>
+      <c r="AL13" s="11">
         <v>83</v>
       </c>
-      <c r="AB13" s="11">
-        <v>116</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>40</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>78</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>111</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>125</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>128</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>94</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>111</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>123</v>
-      </c>
       <c r="AM13" s="11">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="AN13" s="11">
+        <v>45</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>52</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>39</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>53</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>56</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>98</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>163</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>113</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>51</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>71</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>68</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>71</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>107</v>
       </c>
-      <c r="AO13" s="11">
-        <v>45</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>52</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>39</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>53</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>56</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>98</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>163</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>113</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>51</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>71</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>68</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>71</v>
-      </c>
       <c r="BA13" s="11">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="BB13" s="11">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1963,44 +1963,44 @@
       <c r="S14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>58</v>
+      <c r="T14" s="13">
+        <v>944</v>
       </c>
       <c r="U14" s="13">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="V14" s="13">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="W14" s="13">
-        <v>949</v>
+        <v>637</v>
       </c>
       <c r="X14" s="13">
-        <v>637</v>
+        <v>929</v>
       </c>
       <c r="Y14" s="13">
-        <v>929</v>
+        <v>1484</v>
       </c>
       <c r="Z14" s="13">
-        <v>1484</v>
+        <v>836</v>
       </c>
       <c r="AA14" s="13">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="AB14" s="13">
-        <v>831</v>
+        <v>316</v>
       </c>
       <c r="AC14" s="13">
-        <v>316</v>
+        <v>647</v>
       </c>
       <c r="AD14" s="13">
-        <v>647</v>
+        <v>1141</v>
       </c>
       <c r="AE14" s="13">
-        <v>1141</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG14" s="13" t="s">
         <v>58</v>
@@ -2026,47 +2026,47 @@
       <c r="AN14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
+      <c r="AO14" s="13">
+        <v>315</v>
       </c>
       <c r="AP14" s="13">
-        <v>315</v>
+        <v>64</v>
       </c>
       <c r="AQ14" s="13">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="AR14" s="13">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="AS14" s="13">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="AT14" s="13">
-        <v>494</v>
+        <v>421</v>
       </c>
       <c r="AU14" s="13">
-        <v>421</v>
+        <v>289</v>
       </c>
       <c r="AV14" s="13">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="AW14" s="13">
-        <v>374</v>
+        <v>245</v>
       </c>
       <c r="AX14" s="13">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AY14" s="13">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="AZ14" s="13">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="BA14" s="13">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="BB14" s="13">
-        <v>74</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2121,109 +2121,109 @@
         <v>0</v>
       </c>
       <c r="T15" s="15">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="U15" s="15">
-        <v>1081</v>
+        <v>1044</v>
       </c>
       <c r="V15" s="15">
-        <v>1044</v>
+        <v>1074</v>
       </c>
       <c r="W15" s="15">
-        <v>1074</v>
+        <v>855</v>
       </c>
       <c r="X15" s="15">
-        <v>855</v>
+        <v>1113</v>
       </c>
       <c r="Y15" s="15">
-        <v>1113</v>
+        <v>1723</v>
       </c>
       <c r="Z15" s="15">
-        <v>1723</v>
+        <v>1006</v>
       </c>
       <c r="AA15" s="15">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="AB15" s="15">
-        <v>1020</v>
+        <v>374</v>
       </c>
       <c r="AC15" s="15">
-        <v>374</v>
+        <v>647</v>
       </c>
       <c r="AD15" s="15">
-        <v>647</v>
+        <v>1141</v>
       </c>
       <c r="AE15" s="15">
-        <v>1141</v>
+        <v>674</v>
       </c>
       <c r="AF15" s="15">
-        <v>674</v>
+        <v>598</v>
       </c>
       <c r="AG15" s="15">
-        <v>598</v>
+        <v>1056</v>
       </c>
       <c r="AH15" s="15">
-        <v>1056</v>
+        <v>966</v>
       </c>
       <c r="AI15" s="15">
-        <v>966</v>
+        <v>826</v>
       </c>
       <c r="AJ15" s="15">
-        <v>826</v>
+        <v>948</v>
       </c>
       <c r="AK15" s="15">
-        <v>948</v>
+        <v>979</v>
       </c>
       <c r="AL15" s="15">
-        <v>979</v>
+        <v>679</v>
       </c>
       <c r="AM15" s="15">
-        <v>679</v>
+        <v>833</v>
       </c>
       <c r="AN15" s="15">
-        <v>833</v>
+        <v>76</v>
       </c>
       <c r="AO15" s="15">
+        <v>385</v>
+      </c>
+      <c r="AP15" s="15">
+        <v>103</v>
+      </c>
+      <c r="AQ15" s="15">
+        <v>349</v>
+      </c>
+      <c r="AR15" s="15">
+        <v>563</v>
+      </c>
+      <c r="AS15" s="15">
+        <v>608</v>
+      </c>
+      <c r="AT15" s="15">
+        <v>621</v>
+      </c>
+      <c r="AU15" s="15">
+        <v>507</v>
+      </c>
+      <c r="AV15" s="15">
+        <v>554</v>
+      </c>
+      <c r="AW15" s="15">
+        <v>455</v>
+      </c>
+      <c r="AX15" s="15">
+        <v>462</v>
+      </c>
+      <c r="AY15" s="15">
+        <v>443</v>
+      </c>
+      <c r="AZ15" s="15">
+        <v>299</v>
+      </c>
+      <c r="BA15" s="15">
         <v>76</v>
       </c>
-      <c r="AP15" s="15">
-        <v>385</v>
-      </c>
-      <c r="AQ15" s="15">
-        <v>103</v>
-      </c>
-      <c r="AR15" s="15">
-        <v>349</v>
-      </c>
-      <c r="AS15" s="15">
-        <v>563</v>
-      </c>
-      <c r="AT15" s="15">
-        <v>608</v>
-      </c>
-      <c r="AU15" s="15">
-        <v>621</v>
-      </c>
-      <c r="AV15" s="15">
-        <v>507</v>
-      </c>
-      <c r="AW15" s="15">
-        <v>554</v>
-      </c>
-      <c r="AX15" s="15">
-        <v>455</v>
-      </c>
-      <c r="AY15" s="15">
-        <v>462</v>
-      </c>
-      <c r="AZ15" s="15">
-        <v>443</v>
-      </c>
-      <c r="BA15" s="15">
-        <v>299</v>
-      </c>
       <c r="BB15" s="15">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2336,110 +2336,110 @@
       <c r="S17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>58</v>
+      <c r="T17" s="11">
+        <v>208</v>
       </c>
       <c r="U17" s="11">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="V17" s="11">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="W17" s="11">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="X17" s="11">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="Y17" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Z17" s="11">
         <v>144</v>
       </c>
       <c r="AA17" s="11">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AB17" s="11">
-        <v>95</v>
+        <v>872</v>
       </c>
       <c r="AC17" s="11">
-        <v>872</v>
+        <v>63</v>
       </c>
       <c r="AD17" s="11">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="AE17" s="11">
-        <v>133</v>
+        <v>384</v>
       </c>
       <c r="AF17" s="11">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="AG17" s="11">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="AH17" s="11">
+        <v>65</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>91</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>146</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>147</v>
+      </c>
+      <c r="AL17" s="11">
         <v>84</v>
       </c>
-      <c r="AI17" s="11">
-        <v>65</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>91</v>
-      </c>
-      <c r="AK17" s="11">
-        <v>146</v>
-      </c>
-      <c r="AL17" s="11">
-        <v>147</v>
-      </c>
       <c r="AM17" s="11">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AN17" s="11">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="AO17" s="11">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="AP17" s="11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AQ17" s="11">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AR17" s="11">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AS17" s="11">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="AT17" s="11">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AU17" s="11">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AV17" s="11">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="AW17" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AX17" s="11">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="AY17" s="11">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="AZ17" s="11">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="BA17" s="11">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="BB17" s="11">
-        <v>72</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2494,109 +2494,109 @@
         <v>0</v>
       </c>
       <c r="T18" s="17">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="U18" s="17">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="V18" s="17">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="W18" s="17">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="X18" s="17">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="Y18" s="17">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Z18" s="17">
         <v>144</v>
       </c>
       <c r="AA18" s="17">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="AB18" s="17">
-        <v>95</v>
+        <v>872</v>
       </c>
       <c r="AC18" s="17">
-        <v>872</v>
+        <v>63</v>
       </c>
       <c r="AD18" s="17">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="AE18" s="17">
-        <v>133</v>
+        <v>384</v>
       </c>
       <c r="AF18" s="17">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="AG18" s="17">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="AH18" s="17">
+        <v>65</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>91</v>
+      </c>
+      <c r="AJ18" s="17">
+        <v>146</v>
+      </c>
+      <c r="AK18" s="17">
+        <v>147</v>
+      </c>
+      <c r="AL18" s="17">
         <v>84</v>
       </c>
-      <c r="AI18" s="17">
-        <v>65</v>
-      </c>
-      <c r="AJ18" s="17">
-        <v>91</v>
-      </c>
-      <c r="AK18" s="17">
-        <v>146</v>
-      </c>
-      <c r="AL18" s="17">
-        <v>147</v>
-      </c>
       <c r="AM18" s="17">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="AN18" s="17">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="AO18" s="17">
-        <v>421</v>
+        <v>38</v>
       </c>
       <c r="AP18" s="17">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AQ18" s="17">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AR18" s="17">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AS18" s="17">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="AT18" s="17">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AU18" s="17">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="AV18" s="17">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="AW18" s="17">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AX18" s="17">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="AY18" s="17">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="AZ18" s="17">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="BA18" s="17">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="BB18" s="17">
-        <v>72</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2736,11 +2736,11 @@
       <c r="AB20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD20" s="11">
-        <v>0</v>
+      <c r="AC20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE20" s="11" t="s">
         <v>58</v>
@@ -2868,8 +2868,8 @@
       <c r="S21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>58</v>
+      <c r="T21" s="13">
+        <v>0</v>
       </c>
       <c r="U21" s="13">
         <v>0</v>
@@ -2895,8 +2895,8 @@
       <c r="AB21" s="13">
         <v>0</v>
       </c>
-      <c r="AC21" s="13">
-        <v>0</v>
+      <c r="AC21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD21" s="13" t="s">
         <v>58</v>
@@ -3025,8 +3025,8 @@
       <c r="S22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="15" t="s">
-        <v>58</v>
+      <c r="T22" s="15">
+        <v>0</v>
       </c>
       <c r="U22" s="15">
         <v>0</v>
@@ -3183,109 +3183,109 @@
         <v>0</v>
       </c>
       <c r="T23" s="17">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="U23" s="17">
-        <v>1289</v>
+        <v>1192</v>
       </c>
       <c r="V23" s="17">
-        <v>1192</v>
+        <v>1313</v>
       </c>
       <c r="W23" s="17">
-        <v>1313</v>
+        <v>1015</v>
       </c>
       <c r="X23" s="17">
-        <v>1015</v>
+        <v>1254</v>
       </c>
       <c r="Y23" s="17">
-        <v>1254</v>
+        <v>1867</v>
       </c>
       <c r="Z23" s="17">
-        <v>1867</v>
+        <v>1150</v>
       </c>
       <c r="AA23" s="17">
-        <v>1150</v>
+        <v>1115</v>
       </c>
       <c r="AB23" s="17">
-        <v>1115</v>
+        <v>1246</v>
       </c>
       <c r="AC23" s="17">
-        <v>1246</v>
+        <v>710</v>
       </c>
       <c r="AD23" s="17">
-        <v>710</v>
+        <v>1274</v>
       </c>
       <c r="AE23" s="17">
-        <v>1274</v>
+        <v>1058</v>
       </c>
       <c r="AF23" s="17">
-        <v>1058</v>
+        <v>817</v>
       </c>
       <c r="AG23" s="17">
-        <v>817</v>
+        <v>1140</v>
       </c>
       <c r="AH23" s="17">
-        <v>1140</v>
+        <v>1031</v>
       </c>
       <c r="AI23" s="17">
-        <v>1031</v>
+        <v>917</v>
       </c>
       <c r="AJ23" s="17">
-        <v>917</v>
+        <v>1094</v>
       </c>
       <c r="AK23" s="17">
-        <v>1094</v>
+        <v>1126</v>
       </c>
       <c r="AL23" s="17">
-        <v>1126</v>
+        <v>763</v>
       </c>
       <c r="AM23" s="17">
+        <v>893</v>
+      </c>
+      <c r="AN23" s="17">
+        <v>497</v>
+      </c>
+      <c r="AO23" s="17">
+        <v>423</v>
+      </c>
+      <c r="AP23" s="17">
+        <v>137</v>
+      </c>
+      <c r="AQ23" s="17">
+        <v>369</v>
+      </c>
+      <c r="AR23" s="17">
+        <v>740</v>
+      </c>
+      <c r="AS23" s="17">
+        <v>744</v>
+      </c>
+      <c r="AT23" s="17">
         <v>763</v>
       </c>
-      <c r="AN23" s="17">
-        <v>893</v>
-      </c>
-      <c r="AO23" s="17">
-        <v>497</v>
-      </c>
-      <c r="AP23" s="17">
-        <v>423</v>
-      </c>
-      <c r="AQ23" s="17">
-        <v>137</v>
-      </c>
-      <c r="AR23" s="17">
-        <v>369</v>
-      </c>
-      <c r="AS23" s="17">
-        <v>740</v>
-      </c>
-      <c r="AT23" s="17">
-        <v>744</v>
-      </c>
       <c r="AU23" s="17">
-        <v>763</v>
+        <v>668</v>
       </c>
       <c r="AV23" s="17">
-        <v>668</v>
+        <v>860</v>
       </c>
       <c r="AW23" s="17">
-        <v>860</v>
+        <v>759</v>
       </c>
       <c r="AX23" s="17">
-        <v>759</v>
+        <v>621</v>
       </c>
       <c r="AY23" s="17">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="AZ23" s="17">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="BA23" s="17">
-        <v>477</v>
+        <v>148</v>
       </c>
       <c r="BB23" s="17">
-        <v>148</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3775,110 +3775,110 @@
       <c r="S30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T30" s="11" t="s">
-        <v>58</v>
+      <c r="T30" s="11">
+        <v>52</v>
       </c>
       <c r="U30" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V30" s="11">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="W30" s="11">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="X30" s="11">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="Y30" s="11">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="Z30" s="11">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="AA30" s="11">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AB30" s="11">
-        <v>79</v>
-      </c>
-      <c r="AC30" s="11">
         <v>36</v>
       </c>
+      <c r="AC30" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE30" s="11" t="s">
-        <v>58</v>
+      <c r="AE30" s="11">
+        <v>71</v>
       </c>
       <c r="AF30" s="11">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="AG30" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AH30" s="11">
         <v>28</v>
       </c>
       <c r="AI30" s="11">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="AJ30" s="11">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK30" s="11">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="AL30" s="11">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AM30" s="11">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="AN30" s="11">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="AO30" s="11">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AP30" s="11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="11">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AR30" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AS30" s="11">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="AT30" s="11">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AU30" s="11">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="AV30" s="11">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="AW30" s="11">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AX30" s="11">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AY30" s="11">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="AZ30" s="11">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="BA30" s="11">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="11">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3967,38 +3967,38 @@
       <c r="AD31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="13" t="s">
-        <v>58</v>
+      <c r="AE31" s="13">
+        <v>453</v>
       </c>
       <c r="AF31" s="13">
-        <v>453</v>
+        <v>652</v>
       </c>
       <c r="AG31" s="13">
-        <v>652</v>
+        <v>810</v>
       </c>
       <c r="AH31" s="13">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="AI31" s="13">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="AJ31" s="13">
-        <v>829</v>
+        <v>762</v>
       </c>
       <c r="AK31" s="13">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AL31" s="13">
-        <v>759</v>
+        <v>583</v>
       </c>
       <c r="AM31" s="13">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AN31" s="13">
-        <v>588</v>
-      </c>
-      <c r="AO31" s="13">
         <v>36</v>
+      </c>
+      <c r="AO31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP31" s="13" t="s">
         <v>58</v>
@@ -4093,110 +4093,110 @@
       <c r="S32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T32" s="11" t="s">
-        <v>58</v>
+      <c r="T32" s="11">
+        <v>107</v>
       </c>
       <c r="U32" s="11">
+        <v>80</v>
+      </c>
+      <c r="V32" s="11">
+        <v>95</v>
+      </c>
+      <c r="W32" s="11">
+        <v>105</v>
+      </c>
+      <c r="X32" s="11">
+        <v>130</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>159</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>133</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>79</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>147</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>128</v>
+      </c>
+      <c r="AG32" s="11">
+        <v>111</v>
+      </c>
+      <c r="AH32" s="11">
+        <v>125</v>
+      </c>
+      <c r="AI32" s="11">
+        <v>108</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>117</v>
+      </c>
+      <c r="AK32" s="11">
         <v>107</v>
       </c>
-      <c r="V32" s="11">
+      <c r="AL32" s="11">
+        <v>90</v>
+      </c>
+      <c r="AM32" s="11">
+        <v>100</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>38</v>
+      </c>
+      <c r="AO32" s="11">
+        <v>63</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="11">
+        <v>71</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>67</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>81</v>
+      </c>
+      <c r="AT32" s="11">
+        <v>122</v>
+      </c>
+      <c r="AU32" s="11">
+        <v>123</v>
+      </c>
+      <c r="AV32" s="11">
         <v>80</v>
       </c>
-      <c r="W32" s="11">
-        <v>95</v>
-      </c>
-      <c r="X32" s="11">
-        <v>105</v>
-      </c>
-      <c r="Y32" s="11">
-        <v>130</v>
-      </c>
-      <c r="Z32" s="11">
-        <v>159</v>
-      </c>
-      <c r="AA32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AB32" s="11">
-        <v>133</v>
-      </c>
-      <c r="AC32" s="11">
-        <v>79</v>
-      </c>
-      <c r="AD32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>147</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>128</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>111</v>
-      </c>
-      <c r="AI32" s="11">
-        <v>125</v>
-      </c>
-      <c r="AJ32" s="11">
-        <v>108</v>
-      </c>
-      <c r="AK32" s="11">
-        <v>117</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>107</v>
-      </c>
-      <c r="AM32" s="11">
+      <c r="AW32" s="11">
+        <v>63</v>
+      </c>
+      <c r="AX32" s="11">
+        <v>87</v>
+      </c>
+      <c r="AY32" s="11">
         <v>90</v>
       </c>
-      <c r="AN32" s="11">
-        <v>100</v>
-      </c>
-      <c r="AO32" s="11">
-        <v>38</v>
-      </c>
-      <c r="AP32" s="11">
-        <v>63</v>
-      </c>
-      <c r="AQ32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="11">
-        <v>71</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>67</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>81</v>
-      </c>
-      <c r="AU32" s="11">
-        <v>122</v>
-      </c>
-      <c r="AV32" s="11">
-        <v>123</v>
-      </c>
-      <c r="AW32" s="11">
-        <v>80</v>
-      </c>
-      <c r="AX32" s="11">
-        <v>63</v>
-      </c>
-      <c r="AY32" s="11">
-        <v>87</v>
-      </c>
       <c r="AZ32" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BA32" s="11">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="11">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4252,44 +4252,44 @@
       <c r="S33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T33" s="13" t="s">
-        <v>58</v>
+      <c r="T33" s="13">
+        <v>944</v>
       </c>
       <c r="U33" s="13">
-        <v>944</v>
+        <v>1001</v>
       </c>
       <c r="V33" s="13">
-        <v>1001</v>
+        <v>1028</v>
       </c>
       <c r="W33" s="13">
-        <v>1028</v>
+        <v>744</v>
       </c>
       <c r="X33" s="13">
-        <v>744</v>
+        <v>642</v>
       </c>
       <c r="Y33" s="13">
-        <v>642</v>
+        <v>1094</v>
       </c>
       <c r="Z33" s="13">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AA33" s="13">
-        <v>1089</v>
+        <v>1027</v>
       </c>
       <c r="AB33" s="13">
-        <v>1027</v>
+        <v>644</v>
       </c>
       <c r="AC33" s="13">
-        <v>644</v>
+        <v>449</v>
       </c>
       <c r="AD33" s="13">
-        <v>449</v>
+        <v>1046</v>
       </c>
       <c r="AE33" s="13">
-        <v>1046</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG33" s="13" t="s">
         <v>58</v>
@@ -4315,47 +4315,47 @@
       <c r="AN33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO33" s="13" t="s">
-        <v>58</v>
+      <c r="AO33" s="13">
+        <v>322</v>
       </c>
       <c r="AP33" s="13">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="AQ33" s="13">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="AR33" s="13">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="AS33" s="13">
-        <v>356</v>
+        <v>497</v>
       </c>
       <c r="AT33" s="13">
-        <v>497</v>
+        <v>202</v>
       </c>
       <c r="AU33" s="13">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="AV33" s="13">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="AW33" s="13">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="AX33" s="13">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="AY33" s="13">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="AZ33" s="13">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="BA33" s="13">
-        <v>387</v>
+        <v>4</v>
       </c>
       <c r="BB33" s="13">
-        <v>4</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4410,109 +4410,109 @@
         <v>0</v>
       </c>
       <c r="T34" s="15">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="U34" s="15">
-        <v>1103</v>
+        <v>1135</v>
       </c>
       <c r="V34" s="15">
-        <v>1135</v>
+        <v>1191</v>
       </c>
       <c r="W34" s="15">
-        <v>1191</v>
+        <v>976</v>
       </c>
       <c r="X34" s="15">
+        <v>864</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>1285</v>
+      </c>
+      <c r="Z34" s="15">
+        <v>1295</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>1239</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>759</v>
+      </c>
+      <c r="AC34" s="15">
+        <v>449</v>
+      </c>
+      <c r="AD34" s="15">
+        <v>1046</v>
+      </c>
+      <c r="AE34" s="15">
+        <v>671</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>813</v>
+      </c>
+      <c r="AG34" s="15">
+        <v>949</v>
+      </c>
+      <c r="AH34" s="15">
+        <v>946</v>
+      </c>
+      <c r="AI34" s="15">
         <v>976</v>
       </c>
-      <c r="Y34" s="15">
-        <v>864</v>
-      </c>
-      <c r="Z34" s="15">
-        <v>1285</v>
-      </c>
-      <c r="AA34" s="15">
-        <v>1295</v>
-      </c>
-      <c r="AB34" s="15">
-        <v>1239</v>
-      </c>
-      <c r="AC34" s="15">
-        <v>759</v>
-      </c>
-      <c r="AD34" s="15">
-        <v>449</v>
-      </c>
-      <c r="AE34" s="15">
-        <v>1046</v>
-      </c>
-      <c r="AF34" s="15">
-        <v>671</v>
-      </c>
-      <c r="AG34" s="15">
-        <v>813</v>
-      </c>
-      <c r="AH34" s="15">
-        <v>949</v>
-      </c>
-      <c r="AI34" s="15">
-        <v>946</v>
-      </c>
       <c r="AJ34" s="15">
-        <v>976</v>
+        <v>923</v>
       </c>
       <c r="AK34" s="15">
-        <v>923</v>
+        <v>959</v>
       </c>
       <c r="AL34" s="15">
-        <v>959</v>
+        <v>744</v>
       </c>
       <c r="AM34" s="15">
-        <v>744</v>
+        <v>804</v>
       </c>
       <c r="AN34" s="15">
-        <v>804</v>
+        <v>108</v>
       </c>
       <c r="AO34" s="15">
-        <v>108</v>
+        <v>398</v>
       </c>
       <c r="AP34" s="15">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="AQ34" s="15">
-        <v>15</v>
+        <v>444</v>
       </c>
       <c r="AR34" s="15">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="AS34" s="15">
-        <v>501</v>
+        <v>608</v>
       </c>
       <c r="AT34" s="15">
-        <v>608</v>
+        <v>381</v>
       </c>
       <c r="AU34" s="15">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="AV34" s="15">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="AW34" s="15">
-        <v>582</v>
+        <v>251</v>
       </c>
       <c r="AX34" s="15">
-        <v>251</v>
+        <v>623</v>
       </c>
       <c r="AY34" s="15">
-        <v>623</v>
+        <v>539</v>
       </c>
       <c r="AZ34" s="15">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="BA34" s="15">
-        <v>579</v>
+        <v>6</v>
       </c>
       <c r="BB34" s="15">
-        <v>6</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4625,110 +4625,110 @@
       <c r="S36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T36" s="11" t="s">
-        <v>58</v>
+      <c r="T36" s="11">
+        <v>208</v>
       </c>
       <c r="U36" s="11">
+        <v>159</v>
+      </c>
+      <c r="V36" s="11">
+        <v>180</v>
+      </c>
+      <c r="W36" s="11">
+        <v>160</v>
+      </c>
+      <c r="X36" s="11">
         <v>208</v>
       </c>
-      <c r="V36" s="11">
+      <c r="Y36" s="11">
+        <v>125</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>144</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>95</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>872</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>63</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>133</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>384</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>219</v>
+      </c>
+      <c r="AG36" s="11">
+        <v>84</v>
+      </c>
+      <c r="AH36" s="11">
+        <v>65</v>
+      </c>
+      <c r="AI36" s="11">
+        <v>91</v>
+      </c>
+      <c r="AJ36" s="11">
+        <v>146</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>147</v>
+      </c>
+      <c r="AL36" s="11">
+        <v>84</v>
+      </c>
+      <c r="AM36" s="11">
+        <v>60</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>463</v>
+      </c>
+      <c r="AO36" s="11">
+        <v>38</v>
+      </c>
+      <c r="AP36" s="11">
+        <v>17</v>
+      </c>
+      <c r="AQ36" s="11">
+        <v>20</v>
+      </c>
+      <c r="AR36" s="11">
+        <v>147</v>
+      </c>
+      <c r="AS36" s="11">
+        <v>136</v>
+      </c>
+      <c r="AT36" s="11">
+        <v>142</v>
+      </c>
+      <c r="AU36" s="11">
+        <v>161</v>
+      </c>
+      <c r="AV36" s="11">
+        <v>306</v>
+      </c>
+      <c r="AW36" s="11">
+        <v>304</v>
+      </c>
+      <c r="AX36" s="11">
         <v>159</v>
       </c>
-      <c r="W36" s="11">
-        <v>180</v>
-      </c>
-      <c r="X36" s="11">
-        <v>160</v>
-      </c>
-      <c r="Y36" s="11">
-        <v>208</v>
-      </c>
-      <c r="Z36" s="11">
-        <v>125</v>
-      </c>
-      <c r="AA36" s="11">
-        <v>144</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>95</v>
-      </c>
-      <c r="AC36" s="11">
-        <v>872</v>
-      </c>
-      <c r="AD36" s="11">
-        <v>63</v>
-      </c>
-      <c r="AE36" s="11">
-        <v>133</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>384</v>
-      </c>
-      <c r="AG36" s="11">
-        <v>219</v>
-      </c>
-      <c r="AH36" s="11">
-        <v>84</v>
-      </c>
-      <c r="AI36" s="11">
-        <v>65</v>
-      </c>
-      <c r="AJ36" s="11">
-        <v>91</v>
-      </c>
-      <c r="AK36" s="11">
-        <v>146</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>147</v>
-      </c>
-      <c r="AM36" s="11">
-        <v>84</v>
-      </c>
-      <c r="AN36" s="11">
-        <v>60</v>
-      </c>
-      <c r="AO36" s="11">
-        <v>463</v>
-      </c>
-      <c r="AP36" s="11">
-        <v>38</v>
-      </c>
-      <c r="AQ36" s="11">
-        <v>17</v>
-      </c>
-      <c r="AR36" s="11">
-        <v>20</v>
-      </c>
-      <c r="AS36" s="11">
-        <v>147</v>
-      </c>
-      <c r="AT36" s="11">
-        <v>136</v>
-      </c>
-      <c r="AU36" s="11">
-        <v>142</v>
-      </c>
-      <c r="AV36" s="11">
-        <v>161</v>
-      </c>
-      <c r="AW36" s="11">
-        <v>306</v>
-      </c>
-      <c r="AX36" s="11">
-        <v>304</v>
-      </c>
       <c r="AY36" s="11">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AZ36" s="11">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="BA36" s="11">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="BB36" s="11">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4783,109 +4783,109 @@
         <v>0</v>
       </c>
       <c r="T37" s="17">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="U37" s="17">
+        <v>159</v>
+      </c>
+      <c r="V37" s="17">
+        <v>180</v>
+      </c>
+      <c r="W37" s="17">
+        <v>160</v>
+      </c>
+      <c r="X37" s="17">
         <v>208</v>
       </c>
-      <c r="V37" s="17">
+      <c r="Y37" s="17">
+        <v>125</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>144</v>
+      </c>
+      <c r="AA37" s="17">
+        <v>95</v>
+      </c>
+      <c r="AB37" s="17">
+        <v>872</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>63</v>
+      </c>
+      <c r="AD37" s="17">
+        <v>133</v>
+      </c>
+      <c r="AE37" s="17">
+        <v>384</v>
+      </c>
+      <c r="AF37" s="17">
+        <v>219</v>
+      </c>
+      <c r="AG37" s="17">
+        <v>84</v>
+      </c>
+      <c r="AH37" s="17">
+        <v>65</v>
+      </c>
+      <c r="AI37" s="17">
+        <v>91</v>
+      </c>
+      <c r="AJ37" s="17">
+        <v>146</v>
+      </c>
+      <c r="AK37" s="17">
+        <v>147</v>
+      </c>
+      <c r="AL37" s="17">
+        <v>84</v>
+      </c>
+      <c r="AM37" s="17">
+        <v>60</v>
+      </c>
+      <c r="AN37" s="17">
+        <v>463</v>
+      </c>
+      <c r="AO37" s="17">
+        <v>38</v>
+      </c>
+      <c r="AP37" s="17">
+        <v>17</v>
+      </c>
+      <c r="AQ37" s="17">
+        <v>20</v>
+      </c>
+      <c r="AR37" s="17">
+        <v>147</v>
+      </c>
+      <c r="AS37" s="17">
+        <v>136</v>
+      </c>
+      <c r="AT37" s="17">
+        <v>142</v>
+      </c>
+      <c r="AU37" s="17">
+        <v>161</v>
+      </c>
+      <c r="AV37" s="17">
+        <v>306</v>
+      </c>
+      <c r="AW37" s="17">
+        <v>304</v>
+      </c>
+      <c r="AX37" s="17">
         <v>159</v>
       </c>
-      <c r="W37" s="17">
-        <v>180</v>
-      </c>
-      <c r="X37" s="17">
-        <v>160</v>
-      </c>
-      <c r="Y37" s="17">
-        <v>208</v>
-      </c>
-      <c r="Z37" s="17">
-        <v>125</v>
-      </c>
-      <c r="AA37" s="17">
-        <v>144</v>
-      </c>
-      <c r="AB37" s="17">
-        <v>95</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>872</v>
-      </c>
-      <c r="AD37" s="17">
-        <v>63</v>
-      </c>
-      <c r="AE37" s="17">
-        <v>133</v>
-      </c>
-      <c r="AF37" s="17">
-        <v>384</v>
-      </c>
-      <c r="AG37" s="17">
-        <v>219</v>
-      </c>
-      <c r="AH37" s="17">
-        <v>84</v>
-      </c>
-      <c r="AI37" s="17">
-        <v>65</v>
-      </c>
-      <c r="AJ37" s="17">
-        <v>91</v>
-      </c>
-      <c r="AK37" s="17">
-        <v>146</v>
-      </c>
-      <c r="AL37" s="17">
-        <v>147</v>
-      </c>
-      <c r="AM37" s="17">
-        <v>84</v>
-      </c>
-      <c r="AN37" s="17">
-        <v>60</v>
-      </c>
-      <c r="AO37" s="17">
-        <v>463</v>
-      </c>
-      <c r="AP37" s="17">
-        <v>38</v>
-      </c>
-      <c r="AQ37" s="17">
-        <v>17</v>
-      </c>
-      <c r="AR37" s="17">
-        <v>20</v>
-      </c>
-      <c r="AS37" s="17">
-        <v>147</v>
-      </c>
-      <c r="AT37" s="17">
-        <v>136</v>
-      </c>
-      <c r="AU37" s="17">
-        <v>142</v>
-      </c>
-      <c r="AV37" s="17">
-        <v>161</v>
-      </c>
-      <c r="AW37" s="17">
-        <v>306</v>
-      </c>
-      <c r="AX37" s="17">
-        <v>304</v>
-      </c>
       <c r="AY37" s="17">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AZ37" s="17">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="BA37" s="17">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="BB37" s="17">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5025,11 +5025,11 @@
       <c r="AB39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>0</v>
+      <c r="AC39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE39" s="11" t="s">
         <v>58</v>
@@ -5157,8 +5157,8 @@
       <c r="S40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T40" s="13" t="s">
-        <v>58</v>
+      <c r="T40" s="13">
+        <v>0</v>
       </c>
       <c r="U40" s="13">
         <v>0</v>
@@ -5184,8 +5184,8 @@
       <c r="AB40" s="13">
         <v>0</v>
       </c>
-      <c r="AC40" s="13">
-        <v>0</v>
+      <c r="AC40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD40" s="13" t="s">
         <v>58</v>
@@ -5314,8 +5314,8 @@
       <c r="S41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T41" s="15" t="s">
-        <v>58</v>
+      <c r="T41" s="15">
+        <v>0</v>
       </c>
       <c r="U41" s="15">
         <v>0</v>
@@ -5528,8 +5528,8 @@
       <c r="S43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T43" s="15" t="s">
-        <v>58</v>
+      <c r="T43" s="15">
+        <v>0</v>
       </c>
       <c r="U43" s="15">
         <v>0</v>
@@ -5686,109 +5686,109 @@
         <v>0</v>
       </c>
       <c r="T44" s="17">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="U44" s="17">
-        <v>1311</v>
+        <v>1294</v>
       </c>
       <c r="V44" s="17">
-        <v>1294</v>
+        <v>1371</v>
       </c>
       <c r="W44" s="17">
-        <v>1371</v>
+        <v>1136</v>
       </c>
       <c r="X44" s="17">
-        <v>1136</v>
+        <v>1072</v>
       </c>
       <c r="Y44" s="17">
-        <v>1072</v>
+        <v>1410</v>
       </c>
       <c r="Z44" s="17">
-        <v>1410</v>
+        <v>1439</v>
       </c>
       <c r="AA44" s="17">
-        <v>1439</v>
+        <v>1334</v>
       </c>
       <c r="AB44" s="17">
-        <v>1334</v>
+        <v>1631</v>
       </c>
       <c r="AC44" s="17">
-        <v>1631</v>
+        <v>512</v>
       </c>
       <c r="AD44" s="17">
-        <v>512</v>
+        <v>1179</v>
       </c>
       <c r="AE44" s="17">
-        <v>1179</v>
+        <v>1055</v>
       </c>
       <c r="AF44" s="17">
-        <v>1055</v>
+        <v>1032</v>
       </c>
       <c r="AG44" s="17">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AH44" s="17">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="AI44" s="17">
-        <v>1011</v>
+        <v>1067</v>
       </c>
       <c r="AJ44" s="17">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="AK44" s="17">
-        <v>1069</v>
+        <v>1106</v>
       </c>
       <c r="AL44" s="17">
-        <v>1106</v>
+        <v>828</v>
       </c>
       <c r="AM44" s="17">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="AN44" s="17">
-        <v>864</v>
+        <v>571</v>
       </c>
       <c r="AO44" s="17">
-        <v>571</v>
+        <v>436</v>
       </c>
       <c r="AP44" s="17">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="AQ44" s="17">
-        <v>32</v>
+        <v>464</v>
       </c>
       <c r="AR44" s="17">
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="AS44" s="17">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="AT44" s="17">
-        <v>744</v>
+        <v>523</v>
       </c>
       <c r="AU44" s="17">
-        <v>523</v>
+        <v>705</v>
       </c>
       <c r="AV44" s="17">
-        <v>705</v>
+        <v>888</v>
       </c>
       <c r="AW44" s="17">
-        <v>888</v>
+        <v>555</v>
       </c>
       <c r="AX44" s="17">
-        <v>555</v>
+        <v>782</v>
       </c>
       <c r="AY44" s="17">
-        <v>782</v>
+        <v>670</v>
       </c>
       <c r="AZ44" s="17">
-        <v>670</v>
+        <v>797</v>
       </c>
       <c r="BA44" s="17">
-        <v>797</v>
+        <v>78</v>
       </c>
       <c r="BB44" s="17">
-        <v>78</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6278,110 +6278,110 @@
       <c r="S51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>58</v>
+      <c r="T51" s="11">
+        <v>12962</v>
       </c>
       <c r="U51" s="11">
-        <v>12962</v>
+        <v>11838</v>
       </c>
       <c r="V51" s="11">
-        <v>11838</v>
+        <v>15040</v>
       </c>
       <c r="W51" s="11">
-        <v>15040</v>
+        <v>28208</v>
       </c>
       <c r="X51" s="11">
-        <v>28208</v>
+        <v>24364</v>
       </c>
       <c r="Y51" s="11">
-        <v>24364</v>
+        <v>9319</v>
       </c>
       <c r="Z51" s="11">
-        <v>9319</v>
+        <v>25128</v>
       </c>
       <c r="AA51" s="11">
-        <v>25128</v>
+        <v>20524</v>
       </c>
       <c r="AB51" s="11">
-        <v>20524</v>
-      </c>
-      <c r="AC51" s="11">
         <v>8653</v>
       </c>
+      <c r="AC51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="11" t="s">
-        <v>58</v>
+      <c r="AE51" s="11">
+        <v>21324</v>
       </c>
       <c r="AF51" s="11">
-        <v>21324</v>
+        <v>9826</v>
       </c>
       <c r="AG51" s="11">
-        <v>9826</v>
+        <v>8550</v>
       </c>
       <c r="AH51" s="11">
-        <v>8550</v>
+        <v>8991</v>
       </c>
       <c r="AI51" s="11">
-        <v>8991</v>
+        <v>12874</v>
       </c>
       <c r="AJ51" s="11">
-        <v>12874</v>
+        <v>17112</v>
       </c>
       <c r="AK51" s="11">
-        <v>17112</v>
+        <v>36680</v>
       </c>
       <c r="AL51" s="11">
-        <v>36680</v>
+        <v>29292</v>
       </c>
       <c r="AM51" s="11">
-        <v>29292</v>
+        <v>49120</v>
       </c>
       <c r="AN51" s="11">
-        <v>49120</v>
+        <v>14380</v>
       </c>
       <c r="AO51" s="11">
-        <v>14380</v>
+        <v>9472</v>
       </c>
       <c r="AP51" s="11">
-        <v>9472</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="11">
-        <v>0</v>
+        <v>72135</v>
       </c>
       <c r="AR51" s="11">
-        <v>72135</v>
+        <v>54672</v>
       </c>
       <c r="AS51" s="11">
-        <v>54672</v>
+        <v>23415</v>
       </c>
       <c r="AT51" s="11">
-        <v>23415</v>
+        <v>51313</v>
       </c>
       <c r="AU51" s="11">
-        <v>51313</v>
+        <v>95458</v>
       </c>
       <c r="AV51" s="11">
-        <v>95458</v>
+        <v>111553</v>
       </c>
       <c r="AW51" s="11">
-        <v>111553</v>
+        <v>65064</v>
       </c>
       <c r="AX51" s="11">
-        <v>65064</v>
+        <v>98756</v>
       </c>
       <c r="AY51" s="11">
-        <v>98756</v>
+        <v>44863</v>
       </c>
       <c r="AZ51" s="11">
-        <v>44863</v>
+        <v>40173</v>
       </c>
       <c r="BA51" s="11">
-        <v>40173</v>
+        <v>997</v>
       </c>
       <c r="BB51" s="11">
-        <v>997</v>
+        <v>43814</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6470,38 +6470,38 @@
       <c r="AD52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE52" s="13" t="s">
-        <v>58</v>
+      <c r="AE52" s="13">
+        <v>120878</v>
       </c>
       <c r="AF52" s="13">
-        <v>120878</v>
+        <v>179709</v>
       </c>
       <c r="AG52" s="13">
-        <v>179709</v>
+        <v>225789</v>
       </c>
       <c r="AH52" s="13">
-        <v>225789</v>
+        <v>231341</v>
       </c>
       <c r="AI52" s="13">
-        <v>231341</v>
+        <v>256539</v>
       </c>
       <c r="AJ52" s="13">
-        <v>256539</v>
+        <v>260537</v>
       </c>
       <c r="AK52" s="13">
-        <v>260537</v>
+        <v>260136</v>
       </c>
       <c r="AL52" s="13">
-        <v>260136</v>
+        <v>214732</v>
       </c>
       <c r="AM52" s="13">
-        <v>214732</v>
+        <v>217920</v>
       </c>
       <c r="AN52" s="13">
-        <v>217920</v>
-      </c>
-      <c r="AO52" s="13">
         <v>13296</v>
+      </c>
+      <c r="AO52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP52" s="13" t="s">
         <v>58</v>
@@ -6596,110 +6596,110 @@
       <c r="S53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T53" s="11" t="s">
-        <v>58</v>
+      <c r="T53" s="11">
+        <v>21066</v>
       </c>
       <c r="U53" s="11">
-        <v>21066</v>
+        <v>14361</v>
       </c>
       <c r="V53" s="11">
-        <v>14361</v>
+        <v>17495</v>
       </c>
       <c r="W53" s="11">
-        <v>17495</v>
+        <v>18401</v>
       </c>
       <c r="X53" s="11">
-        <v>18401</v>
+        <v>30175</v>
       </c>
       <c r="Y53" s="11">
-        <v>30175</v>
+        <v>41672</v>
       </c>
       <c r="Z53" s="11">
-        <v>41672</v>
+        <v>25032</v>
       </c>
       <c r="AA53" s="11">
-        <v>25032</v>
+        <v>31354</v>
       </c>
       <c r="AB53" s="11">
-        <v>31354</v>
-      </c>
-      <c r="AC53" s="11">
         <v>16112</v>
       </c>
+      <c r="AC53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE53" s="11" t="s">
-        <v>58</v>
+      <c r="AE53" s="11">
+        <v>43623</v>
       </c>
       <c r="AF53" s="11">
-        <v>43623</v>
+        <v>37717</v>
       </c>
       <c r="AG53" s="11">
-        <v>37717</v>
+        <v>32439</v>
       </c>
       <c r="AH53" s="11">
-        <v>32439</v>
+        <v>39780</v>
       </c>
       <c r="AI53" s="11">
-        <v>39780</v>
+        <v>34651</v>
       </c>
       <c r="AJ53" s="11">
-        <v>34651</v>
+        <v>44073</v>
       </c>
       <c r="AK53" s="11">
-        <v>44073</v>
+        <v>40422</v>
       </c>
       <c r="AL53" s="11">
-        <v>40422</v>
+        <v>35453</v>
       </c>
       <c r="AM53" s="11">
-        <v>35453</v>
+        <v>39981</v>
       </c>
       <c r="AN53" s="11">
-        <v>39981</v>
+        <v>14970</v>
       </c>
       <c r="AO53" s="11">
-        <v>14970</v>
+        <v>28187</v>
       </c>
       <c r="AP53" s="11">
-        <v>28187</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="11">
-        <v>0</v>
+        <v>45111</v>
       </c>
       <c r="AR53" s="11">
-        <v>45111</v>
+        <v>56564</v>
       </c>
       <c r="AS53" s="11">
-        <v>56564</v>
+        <v>70231</v>
       </c>
       <c r="AT53" s="11">
-        <v>70231</v>
+        <v>105959</v>
       </c>
       <c r="AU53" s="11">
-        <v>105959</v>
+        <v>92588</v>
       </c>
       <c r="AV53" s="11">
-        <v>92588</v>
+        <v>60091</v>
       </c>
       <c r="AW53" s="11">
-        <v>60091</v>
+        <v>47482</v>
       </c>
       <c r="AX53" s="11">
-        <v>47482</v>
+        <v>48158</v>
       </c>
       <c r="AY53" s="11">
-        <v>48158</v>
+        <v>38893</v>
       </c>
       <c r="AZ53" s="11">
-        <v>38893</v>
+        <v>38029</v>
       </c>
       <c r="BA53" s="11">
-        <v>38029</v>
+        <v>996</v>
       </c>
       <c r="BB53" s="11">
-        <v>996</v>
+        <v>41740</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6755,41 +6755,41 @@
       <c r="S54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T54" s="13" t="s">
-        <v>58</v>
+      <c r="T54" s="13">
+        <v>157513</v>
       </c>
       <c r="U54" s="13">
-        <v>157513</v>
+        <v>154616</v>
       </c>
       <c r="V54" s="13">
-        <v>154616</v>
+        <v>186560</v>
       </c>
       <c r="W54" s="13">
-        <v>186560</v>
+        <v>121686</v>
       </c>
       <c r="X54" s="13">
-        <v>121686</v>
+        <v>144761</v>
       </c>
       <c r="Y54" s="13">
-        <v>144761</v>
+        <v>267708</v>
       </c>
       <c r="Z54" s="13">
-        <v>267708</v>
+        <v>264137</v>
       </c>
       <c r="AA54" s="13">
-        <v>264137</v>
+        <v>250331</v>
       </c>
       <c r="AB54" s="13">
-        <v>250331</v>
+        <v>89164</v>
       </c>
       <c r="AC54" s="13">
-        <v>89164</v>
+        <v>113936</v>
       </c>
       <c r="AD54" s="13">
-        <v>113936</v>
+        <v>267961</v>
       </c>
       <c r="AE54" s="13">
-        <v>267961</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="13">
         <v>0</v>
@@ -6800,8 +6800,8 @@
       <c r="AH54" s="13">
         <v>0</v>
       </c>
-      <c r="AI54" s="13">
-        <v>0</v>
+      <c r="AI54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ54" s="13" t="s">
         <v>58</v>
@@ -6818,47 +6818,47 @@
       <c r="AN54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO54" s="13" t="s">
-        <v>58</v>
+      <c r="AO54" s="13">
+        <v>121229</v>
       </c>
       <c r="AP54" s="13">
-        <v>121229</v>
+        <v>5323</v>
       </c>
       <c r="AQ54" s="13">
-        <v>5323</v>
+        <v>155961</v>
       </c>
       <c r="AR54" s="13">
-        <v>155961</v>
+        <v>298886</v>
       </c>
       <c r="AS54" s="13">
-        <v>298886</v>
+        <v>421953</v>
       </c>
       <c r="AT54" s="13">
-        <v>421953</v>
+        <v>129291</v>
       </c>
       <c r="AU54" s="13">
-        <v>129291</v>
+        <v>204901</v>
       </c>
       <c r="AV54" s="13">
-        <v>204901</v>
+        <v>252919</v>
       </c>
       <c r="AW54" s="13">
-        <v>252919</v>
+        <v>74546</v>
       </c>
       <c r="AX54" s="13">
-        <v>74546</v>
+        <v>188872</v>
       </c>
       <c r="AY54" s="13">
-        <v>188872</v>
+        <v>147833</v>
       </c>
       <c r="AZ54" s="13">
-        <v>147833</v>
+        <v>153432</v>
       </c>
       <c r="BA54" s="13">
-        <v>153432</v>
+        <v>3801</v>
       </c>
       <c r="BB54" s="13">
-        <v>3801</v>
+        <v>197043</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6913,109 +6913,109 @@
         <v>0</v>
       </c>
       <c r="T55" s="15">
-        <v>0</v>
+        <v>191541</v>
       </c>
       <c r="U55" s="15">
-        <v>191541</v>
+        <v>180815</v>
       </c>
       <c r="V55" s="15">
-        <v>180815</v>
+        <v>219095</v>
       </c>
       <c r="W55" s="15">
-        <v>219095</v>
+        <v>168295</v>
       </c>
       <c r="X55" s="15">
-        <v>168295</v>
+        <v>199300</v>
       </c>
       <c r="Y55" s="15">
-        <v>199300</v>
+        <v>318699</v>
       </c>
       <c r="Z55" s="15">
-        <v>318699</v>
+        <v>314297</v>
       </c>
       <c r="AA55" s="15">
-        <v>314297</v>
+        <v>302209</v>
       </c>
       <c r="AB55" s="15">
-        <v>302209</v>
+        <v>113929</v>
       </c>
       <c r="AC55" s="15">
-        <v>113929</v>
+        <v>113936</v>
       </c>
       <c r="AD55" s="15">
-        <v>113936</v>
+        <v>267961</v>
       </c>
       <c r="AE55" s="15">
-        <v>267961</v>
+        <v>185825</v>
       </c>
       <c r="AF55" s="15">
-        <v>185825</v>
+        <v>227252</v>
       </c>
       <c r="AG55" s="15">
-        <v>227252</v>
+        <v>266778</v>
       </c>
       <c r="AH55" s="15">
-        <v>266778</v>
+        <v>280112</v>
       </c>
       <c r="AI55" s="15">
-        <v>280112</v>
+        <v>304064</v>
       </c>
       <c r="AJ55" s="15">
-        <v>304064</v>
+        <v>321722</v>
       </c>
       <c r="AK55" s="15">
-        <v>321722</v>
+        <v>337238</v>
       </c>
       <c r="AL55" s="15">
-        <v>337238</v>
+        <v>279477</v>
       </c>
       <c r="AM55" s="15">
-        <v>279477</v>
+        <v>307021</v>
       </c>
       <c r="AN55" s="15">
-        <v>307021</v>
+        <v>42646</v>
       </c>
       <c r="AO55" s="15">
-        <v>42646</v>
+        <v>158888</v>
       </c>
       <c r="AP55" s="15">
-        <v>158888</v>
+        <v>5323</v>
       </c>
       <c r="AQ55" s="15">
-        <v>5323</v>
+        <v>273207</v>
       </c>
       <c r="AR55" s="15">
-        <v>273207</v>
+        <v>410122</v>
       </c>
       <c r="AS55" s="15">
-        <v>410122</v>
+        <v>515599</v>
       </c>
       <c r="AT55" s="15">
-        <v>515599</v>
+        <v>286563</v>
       </c>
       <c r="AU55" s="15">
-        <v>286563</v>
+        <v>392947</v>
       </c>
       <c r="AV55" s="15">
-        <v>392947</v>
+        <v>424563</v>
       </c>
       <c r="AW55" s="15">
-        <v>424563</v>
+        <v>187092</v>
       </c>
       <c r="AX55" s="15">
-        <v>187092</v>
+        <v>335786</v>
       </c>
       <c r="AY55" s="15">
-        <v>335786</v>
+        <v>231589</v>
       </c>
       <c r="AZ55" s="15">
-        <v>231589</v>
+        <v>231634</v>
       </c>
       <c r="BA55" s="15">
-        <v>231634</v>
+        <v>5794</v>
       </c>
       <c r="BB55" s="15">
-        <v>5794</v>
+        <v>282597</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7128,110 +7128,110 @@
       <c r="S57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T57" s="11" t="s">
-        <v>58</v>
+      <c r="T57" s="11">
+        <v>32065</v>
       </c>
       <c r="U57" s="11">
-        <v>32065</v>
+        <v>23554</v>
       </c>
       <c r="V57" s="11">
-        <v>23554</v>
+        <v>28816</v>
       </c>
       <c r="W57" s="11">
-        <v>28816</v>
+        <v>24759</v>
       </c>
       <c r="X57" s="11">
-        <v>24759</v>
+        <v>33874</v>
       </c>
       <c r="Y57" s="11">
-        <v>33874</v>
+        <v>20415</v>
       </c>
       <c r="Z57" s="11">
-        <v>20415</v>
+        <v>23610</v>
       </c>
       <c r="AA57" s="11">
-        <v>23610</v>
+        <v>15768</v>
       </c>
       <c r="AB57" s="11">
-        <v>15768</v>
+        <v>138324</v>
       </c>
       <c r="AC57" s="11">
-        <v>138324</v>
+        <v>9963</v>
       </c>
       <c r="AD57" s="11">
-        <v>9963</v>
+        <v>21193</v>
       </c>
       <c r="AE57" s="11">
-        <v>21193</v>
+        <v>89329</v>
       </c>
       <c r="AF57" s="11">
-        <v>89329</v>
+        <v>44996</v>
       </c>
       <c r="AG57" s="11">
-        <v>44996</v>
+        <v>17120</v>
       </c>
       <c r="AH57" s="11">
-        <v>17120</v>
+        <v>13351</v>
       </c>
       <c r="AI57" s="11">
-        <v>13351</v>
+        <v>18885</v>
       </c>
       <c r="AJ57" s="11">
-        <v>18885</v>
+        <v>33508</v>
       </c>
       <c r="AK57" s="11">
-        <v>33508</v>
+        <v>32455</v>
       </c>
       <c r="AL57" s="11">
-        <v>32455</v>
+        <v>19117</v>
       </c>
       <c r="AM57" s="11">
-        <v>19117</v>
+        <v>13524</v>
       </c>
       <c r="AN57" s="11">
-        <v>13524</v>
+        <v>117604</v>
       </c>
       <c r="AO57" s="11">
-        <v>117604</v>
+        <v>10911</v>
       </c>
       <c r="AP57" s="11">
-        <v>10911</v>
+        <v>4780</v>
       </c>
       <c r="AQ57" s="11">
-        <v>4780</v>
+        <v>6941</v>
       </c>
       <c r="AR57" s="11">
-        <v>6941</v>
+        <v>28507</v>
       </c>
       <c r="AS57" s="11">
-        <v>28507</v>
+        <v>34884</v>
       </c>
       <c r="AT57" s="11">
-        <v>34884</v>
+        <v>43365</v>
       </c>
       <c r="AU57" s="11">
-        <v>43365</v>
+        <v>57099</v>
       </c>
       <c r="AV57" s="11">
-        <v>57099</v>
+        <v>105651</v>
       </c>
       <c r="AW57" s="11">
-        <v>105651</v>
+        <v>113383</v>
       </c>
       <c r="AX57" s="11">
-        <v>113383</v>
+        <v>64429</v>
       </c>
       <c r="AY57" s="11">
-        <v>64429</v>
+        <v>50132</v>
       </c>
       <c r="AZ57" s="11">
-        <v>50132</v>
+        <v>86001</v>
       </c>
       <c r="BA57" s="11">
-        <v>86001</v>
+        <v>30173</v>
       </c>
       <c r="BB57" s="11">
-        <v>30173</v>
+        <v>52067</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7286,109 +7286,109 @@
         <v>0</v>
       </c>
       <c r="T58" s="17">
-        <v>0</v>
+        <v>32065</v>
       </c>
       <c r="U58" s="17">
-        <v>32065</v>
+        <v>23554</v>
       </c>
       <c r="V58" s="17">
-        <v>23554</v>
+        <v>28816</v>
       </c>
       <c r="W58" s="17">
-        <v>28816</v>
+        <v>24759</v>
       </c>
       <c r="X58" s="17">
-        <v>24759</v>
+        <v>33874</v>
       </c>
       <c r="Y58" s="17">
-        <v>33874</v>
+        <v>20415</v>
       </c>
       <c r="Z58" s="17">
-        <v>20415</v>
+        <v>23610</v>
       </c>
       <c r="AA58" s="17">
-        <v>23610</v>
+        <v>15768</v>
       </c>
       <c r="AB58" s="17">
-        <v>15768</v>
+        <v>138324</v>
       </c>
       <c r="AC58" s="17">
-        <v>138324</v>
+        <v>9963</v>
       </c>
       <c r="AD58" s="17">
-        <v>9963</v>
+        <v>21193</v>
       </c>
       <c r="AE58" s="17">
-        <v>21193</v>
+        <v>89329</v>
       </c>
       <c r="AF58" s="17">
-        <v>89329</v>
+        <v>44996</v>
       </c>
       <c r="AG58" s="17">
-        <v>44996</v>
+        <v>17120</v>
       </c>
       <c r="AH58" s="17">
-        <v>17120</v>
+        <v>13351</v>
       </c>
       <c r="AI58" s="17">
-        <v>13351</v>
+        <v>18885</v>
       </c>
       <c r="AJ58" s="17">
-        <v>18885</v>
+        <v>33508</v>
       </c>
       <c r="AK58" s="17">
-        <v>33508</v>
+        <v>32455</v>
       </c>
       <c r="AL58" s="17">
-        <v>32455</v>
+        <v>19117</v>
       </c>
       <c r="AM58" s="17">
-        <v>19117</v>
+        <v>13524</v>
       </c>
       <c r="AN58" s="17">
-        <v>13524</v>
+        <v>117604</v>
       </c>
       <c r="AO58" s="17">
-        <v>117604</v>
+        <v>10911</v>
       </c>
       <c r="AP58" s="17">
-        <v>10911</v>
+        <v>4780</v>
       </c>
       <c r="AQ58" s="17">
-        <v>4780</v>
+        <v>6941</v>
       </c>
       <c r="AR58" s="17">
-        <v>6941</v>
+        <v>28507</v>
       </c>
       <c r="AS58" s="17">
-        <v>28507</v>
+        <v>34884</v>
       </c>
       <c r="AT58" s="17">
-        <v>34884</v>
+        <v>43365</v>
       </c>
       <c r="AU58" s="17">
-        <v>43365</v>
+        <v>57099</v>
       </c>
       <c r="AV58" s="17">
-        <v>57099</v>
+        <v>105651</v>
       </c>
       <c r="AW58" s="17">
-        <v>105651</v>
+        <v>113383</v>
       </c>
       <c r="AX58" s="17">
-        <v>113383</v>
+        <v>64429</v>
       </c>
       <c r="AY58" s="17">
-        <v>64429</v>
+        <v>50132</v>
       </c>
       <c r="AZ58" s="17">
-        <v>50132</v>
+        <v>86001</v>
       </c>
       <c r="BA58" s="17">
-        <v>86001</v>
+        <v>30173</v>
       </c>
       <c r="BB58" s="17">
-        <v>30173</v>
+        <v>52067</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7528,8 +7528,8 @@
       <c r="AB60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC60" s="11" t="s">
-        <v>58</v>
+      <c r="AC60" s="11">
+        <v>0</v>
       </c>
       <c r="AD60" s="11">
         <v>0</v>
@@ -7546,8 +7546,8 @@
       <c r="AH60" s="11">
         <v>0</v>
       </c>
-      <c r="AI60" s="11">
-        <v>0</v>
+      <c r="AI60" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ60" s="11" t="s">
         <v>58</v>
@@ -7660,8 +7660,8 @@
       <c r="S61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T61" s="13" t="s">
-        <v>58</v>
+      <c r="T61" s="13">
+        <v>0</v>
       </c>
       <c r="U61" s="13">
         <v>0</v>
@@ -7687,8 +7687,8 @@
       <c r="AB61" s="13">
         <v>0</v>
       </c>
-      <c r="AC61" s="13">
-        <v>0</v>
+      <c r="AC61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD61" s="13" t="s">
         <v>58</v>
@@ -7819,8 +7819,8 @@
       <c r="S62" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T62" s="15" t="s">
-        <v>58</v>
+      <c r="T62" s="15">
+        <v>0</v>
       </c>
       <c r="U62" s="15">
         <v>0</v>
@@ -8035,8 +8035,8 @@
       <c r="S64" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T64" s="15" t="s">
-        <v>58</v>
+      <c r="T64" s="15">
+        <v>0</v>
       </c>
       <c r="U64" s="15">
         <v>0</v>
@@ -8251,8 +8251,8 @@
       <c r="S66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T66" s="11" t="s">
-        <v>58</v>
+      <c r="T66" s="11">
+        <v>0</v>
       </c>
       <c r="U66" s="11">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="11">
-        <v>0</v>
+        <v>-46951</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8409,109 +8409,109 @@
         <v>0</v>
       </c>
       <c r="T67" s="17">
-        <v>0</v>
+        <v>223606</v>
       </c>
       <c r="U67" s="17">
-        <v>223606</v>
+        <v>204369</v>
       </c>
       <c r="V67" s="17">
-        <v>204369</v>
+        <v>247911</v>
       </c>
       <c r="W67" s="17">
-        <v>247911</v>
+        <v>193054</v>
       </c>
       <c r="X67" s="17">
-        <v>193054</v>
+        <v>233174</v>
       </c>
       <c r="Y67" s="17">
-        <v>233174</v>
+        <v>339114</v>
       </c>
       <c r="Z67" s="17">
-        <v>339114</v>
+        <v>337907</v>
       </c>
       <c r="AA67" s="17">
-        <v>337907</v>
+        <v>317977</v>
       </c>
       <c r="AB67" s="17">
-        <v>317977</v>
+        <v>252253</v>
       </c>
       <c r="AC67" s="17">
-        <v>252253</v>
+        <v>123899</v>
       </c>
       <c r="AD67" s="17">
-        <v>123899</v>
+        <v>289154</v>
       </c>
       <c r="AE67" s="17">
-        <v>289154</v>
+        <v>275154</v>
       </c>
       <c r="AF67" s="17">
-        <v>275154</v>
+        <v>272248</v>
       </c>
       <c r="AG67" s="17">
-        <v>272248</v>
+        <v>283898</v>
       </c>
       <c r="AH67" s="17">
-        <v>283898</v>
+        <v>293463</v>
       </c>
       <c r="AI67" s="17">
-        <v>293463</v>
+        <v>322949</v>
       </c>
       <c r="AJ67" s="17">
-        <v>322949</v>
+        <v>355230</v>
       </c>
       <c r="AK67" s="17">
-        <v>355230</v>
+        <v>369693</v>
       </c>
       <c r="AL67" s="17">
-        <v>369693</v>
+        <v>298594</v>
       </c>
       <c r="AM67" s="17">
-        <v>298594</v>
+        <v>320545</v>
       </c>
       <c r="AN67" s="17">
-        <v>320545</v>
+        <v>160250</v>
       </c>
       <c r="AO67" s="17">
-        <v>160250</v>
+        <v>169799</v>
       </c>
       <c r="AP67" s="17">
-        <v>169799</v>
+        <v>10103</v>
       </c>
       <c r="AQ67" s="17">
-        <v>10103</v>
+        <v>280148</v>
       </c>
       <c r="AR67" s="17">
-        <v>280148</v>
+        <v>438629</v>
       </c>
       <c r="AS67" s="17">
-        <v>438629</v>
+        <v>550483</v>
       </c>
       <c r="AT67" s="17">
-        <v>550483</v>
+        <v>329928</v>
       </c>
       <c r="AU67" s="17">
-        <v>329928</v>
+        <v>450046</v>
       </c>
       <c r="AV67" s="17">
-        <v>450046</v>
+        <v>530214</v>
       </c>
       <c r="AW67" s="17">
-        <v>530214</v>
+        <v>300475</v>
       </c>
       <c r="AX67" s="17">
-        <v>300475</v>
+        <v>400215</v>
       </c>
       <c r="AY67" s="17">
-        <v>400215</v>
+        <v>281721</v>
       </c>
       <c r="AZ67" s="17">
-        <v>281721</v>
+        <v>317635</v>
       </c>
       <c r="BA67" s="17">
-        <v>317635</v>
+        <v>35967</v>
       </c>
       <c r="BB67" s="17">
-        <v>35967</v>
+        <v>287713</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9001,110 +9001,110 @@
       <c r="S74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T74" s="11" t="s">
-        <v>58</v>
+      <c r="T74" s="11">
+        <v>249269231</v>
       </c>
       <c r="U74" s="11">
-        <v>249269231</v>
+        <v>219222222</v>
       </c>
       <c r="V74" s="11">
-        <v>219222222</v>
+        <v>221176471</v>
       </c>
       <c r="W74" s="11">
-        <v>221176471</v>
+        <v>222110236</v>
       </c>
       <c r="X74" s="11">
-        <v>222110236</v>
+        <v>264826087</v>
       </c>
       <c r="Y74" s="11">
-        <v>264826087</v>
+        <v>291218750</v>
       </c>
       <c r="Z74" s="11">
-        <v>291218750</v>
+        <v>256411020</v>
       </c>
       <c r="AA74" s="11">
-        <v>256411020</v>
+        <v>259797468</v>
       </c>
       <c r="AB74" s="11">
-        <v>259797468</v>
-      </c>
-      <c r="AC74" s="11">
         <v>240361111</v>
       </c>
+      <c r="AC74" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE74" s="11" t="s">
-        <v>58</v>
+      <c r="AE74" s="11">
+        <v>300338028</v>
       </c>
       <c r="AF74" s="11">
-        <v>300338028</v>
+        <v>297757576</v>
       </c>
       <c r="AG74" s="11">
-        <v>297757576</v>
+        <v>305357143</v>
       </c>
       <c r="AH74" s="11">
-        <v>305357143</v>
+        <v>321107143</v>
       </c>
       <c r="AI74" s="11">
-        <v>321107143</v>
+        <v>330102564</v>
       </c>
       <c r="AJ74" s="11">
-        <v>330102564</v>
+        <v>388909091</v>
       </c>
       <c r="AK74" s="11">
-        <v>388909091</v>
+        <v>394408602</v>
       </c>
       <c r="AL74" s="11">
-        <v>394408602</v>
+        <v>412563380</v>
       </c>
       <c r="AM74" s="11">
-        <v>412563380</v>
+        <v>423448276</v>
       </c>
       <c r="AN74" s="11">
-        <v>423448276</v>
+        <v>422941176</v>
       </c>
       <c r="AO74" s="11">
-        <v>422941176</v>
-      </c>
-      <c r="AP74" s="11">
         <v>728615385</v>
       </c>
-      <c r="AQ74" s="11" t="s">
-        <v>58</v>
+      <c r="AP74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ74" s="11">
+        <v>936818182</v>
       </c>
       <c r="AR74" s="11">
-        <v>936818182</v>
+        <v>700923077</v>
       </c>
       <c r="AS74" s="11">
-        <v>700923077</v>
+        <v>780500000</v>
       </c>
       <c r="AT74" s="11">
-        <v>780500000</v>
+        <v>900228070</v>
       </c>
       <c r="AU74" s="11">
-        <v>900228070</v>
+        <v>815880342</v>
       </c>
       <c r="AV74" s="11">
-        <v>815880342</v>
+        <v>814255474</v>
       </c>
       <c r="AW74" s="11">
-        <v>814255474</v>
+        <v>813300000</v>
       </c>
       <c r="AX74" s="11">
-        <v>813300000</v>
+        <v>598521212</v>
       </c>
       <c r="AY74" s="11">
-        <v>598521212</v>
+        <v>431375000</v>
       </c>
       <c r="AZ74" s="11">
-        <v>431375000</v>
+        <v>409928571</v>
       </c>
       <c r="BA74" s="11">
-        <v>409928571</v>
+        <v>1060638298</v>
       </c>
       <c r="BB74" s="11">
-        <v>1060638298</v>
+        <v>1184162162</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9193,38 +9193,38 @@
       <c r="AD75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE75" s="13" t="s">
-        <v>58</v>
+      <c r="AE75" s="13">
+        <v>266838852</v>
       </c>
       <c r="AF75" s="13">
-        <v>266838852</v>
+        <v>275627301</v>
       </c>
       <c r="AG75" s="13">
-        <v>275627301</v>
+        <v>278751852</v>
       </c>
       <c r="AH75" s="13">
-        <v>278751852</v>
+        <v>291728878</v>
       </c>
       <c r="AI75" s="13">
-        <v>291728878</v>
+        <v>309455971</v>
       </c>
       <c r="AJ75" s="13">
-        <v>309455971</v>
+        <v>341912073</v>
       </c>
       <c r="AK75" s="13">
-        <v>341912073</v>
+        <v>342735178</v>
       </c>
       <c r="AL75" s="13">
-        <v>342735178</v>
+        <v>368322470</v>
       </c>
       <c r="AM75" s="13">
-        <v>368322470</v>
+        <v>370612245</v>
       </c>
       <c r="AN75" s="13">
-        <v>370612245</v>
-      </c>
-      <c r="AO75" s="13">
         <v>369333333</v>
+      </c>
+      <c r="AO75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP75" s="13" t="s">
         <v>58</v>
@@ -9319,110 +9319,110 @@
       <c r="S76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T76" s="11" t="s">
-        <v>58</v>
+      <c r="T76" s="11">
+        <v>196878505</v>
       </c>
       <c r="U76" s="11">
-        <v>196878505</v>
+        <v>179512500</v>
       </c>
       <c r="V76" s="11">
-        <v>179512500</v>
+        <v>184157895</v>
       </c>
       <c r="W76" s="11">
-        <v>184157895</v>
+        <v>175247619</v>
       </c>
       <c r="X76" s="11">
-        <v>175247619</v>
+        <v>232115385</v>
       </c>
       <c r="Y76" s="11">
-        <v>232115385</v>
+        <v>262088050</v>
       </c>
       <c r="Z76" s="11">
-        <v>262088050</v>
+        <v>231779352</v>
       </c>
       <c r="AA76" s="11">
-        <v>231779352</v>
+        <v>235744361</v>
       </c>
       <c r="AB76" s="11">
-        <v>235744361</v>
-      </c>
-      <c r="AC76" s="11">
         <v>203949367</v>
       </c>
+      <c r="AC76" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE76" s="11" t="s">
-        <v>58</v>
+      <c r="AE76" s="11">
+        <v>296755102</v>
       </c>
       <c r="AF76" s="11">
-        <v>296755102</v>
+        <v>294664063</v>
       </c>
       <c r="AG76" s="11">
-        <v>294664063</v>
+        <v>292243243</v>
       </c>
       <c r="AH76" s="11">
-        <v>292243243</v>
+        <v>318240000</v>
       </c>
       <c r="AI76" s="11">
-        <v>318240000</v>
+        <v>320842593</v>
       </c>
       <c r="AJ76" s="11">
-        <v>320842593</v>
+        <v>376692308</v>
       </c>
       <c r="AK76" s="11">
-        <v>376692308</v>
+        <v>377775701</v>
       </c>
       <c r="AL76" s="11">
-        <v>377775701</v>
+        <v>393922222</v>
       </c>
       <c r="AM76" s="11">
-        <v>393922222</v>
+        <v>399810000</v>
       </c>
       <c r="AN76" s="11">
-        <v>399810000</v>
+        <v>393947368</v>
       </c>
       <c r="AO76" s="11">
-        <v>393947368</v>
-      </c>
-      <c r="AP76" s="11">
         <v>447412698</v>
       </c>
-      <c r="AQ76" s="11" t="s">
-        <v>58</v>
+      <c r="AP76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ76" s="11">
+        <v>635366197</v>
       </c>
       <c r="AR76" s="11">
-        <v>635366197</v>
+        <v>844238806</v>
       </c>
       <c r="AS76" s="11">
-        <v>844238806</v>
+        <v>867049383</v>
       </c>
       <c r="AT76" s="11">
-        <v>867049383</v>
+        <v>868516393</v>
       </c>
       <c r="AU76" s="11">
-        <v>868516393</v>
+        <v>752747967</v>
       </c>
       <c r="AV76" s="11">
-        <v>752747967</v>
+        <v>751137500</v>
       </c>
       <c r="AW76" s="11">
-        <v>751137500</v>
+        <v>753682540</v>
       </c>
       <c r="AX76" s="11">
-        <v>753682540</v>
+        <v>553540230</v>
       </c>
       <c r="AY76" s="11">
-        <v>553540230</v>
+        <v>432144444</v>
       </c>
       <c r="AZ76" s="11">
-        <v>432144444</v>
+        <v>404563830</v>
       </c>
       <c r="BA76" s="11">
-        <v>404563830</v>
+        <v>1070967742</v>
       </c>
       <c r="BB76" s="11">
-        <v>1070967742</v>
+        <v>948636364</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -9478,42 +9478,42 @@
       <c r="S77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T77" s="13" t="s">
-        <v>58</v>
+      <c r="T77" s="13">
+        <v>166856992</v>
       </c>
       <c r="U77" s="13">
-        <v>166856992</v>
+        <v>154461538</v>
       </c>
       <c r="V77" s="13">
-        <v>154461538</v>
+        <v>181478599</v>
       </c>
       <c r="W77" s="13">
-        <v>181478599</v>
+        <v>163556452</v>
       </c>
       <c r="X77" s="13">
-        <v>163556452</v>
+        <v>225484424</v>
       </c>
       <c r="Y77" s="13">
-        <v>225484424</v>
+        <v>244705667</v>
       </c>
       <c r="Z77" s="13">
-        <v>244705667</v>
+        <v>242549633</v>
       </c>
       <c r="AA77" s="13">
-        <v>242549633</v>
+        <v>243749757</v>
       </c>
       <c r="AB77" s="13">
-        <v>243749757</v>
+        <v>138453416</v>
       </c>
       <c r="AC77" s="13">
-        <v>138453416</v>
+        <v>253755011</v>
       </c>
       <c r="AD77" s="13">
-        <v>253755011</v>
-      </c>
-      <c r="AE77" s="13">
         <v>256176864</v>
       </c>
+      <c r="AE77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF77" s="13" t="s">
         <v>58</v>
       </c>
@@ -9541,47 +9541,47 @@
       <c r="AN77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO77" s="13" t="s">
-        <v>58</v>
+      <c r="AO77" s="13">
+        <v>376487578</v>
       </c>
       <c r="AP77" s="13">
-        <v>376487578</v>
+        <v>354866667</v>
       </c>
       <c r="AQ77" s="13">
-        <v>354866667</v>
+        <v>526895270</v>
       </c>
       <c r="AR77" s="13">
-        <v>526895270</v>
+        <v>839567416</v>
       </c>
       <c r="AS77" s="13">
-        <v>839567416</v>
+        <v>849000000</v>
       </c>
       <c r="AT77" s="13">
-        <v>849000000</v>
+        <v>640054455</v>
       </c>
       <c r="AU77" s="13">
-        <v>640054455</v>
+        <v>674016447</v>
       </c>
       <c r="AV77" s="13">
-        <v>674016447</v>
+        <v>692928767</v>
       </c>
       <c r="AW77" s="13">
-        <v>692928767</v>
+        <v>690240741</v>
       </c>
       <c r="AX77" s="13">
-        <v>690240741</v>
+        <v>509088949</v>
       </c>
       <c r="AY77" s="13">
-        <v>509088949</v>
+        <v>428501449</v>
       </c>
       <c r="AZ77" s="13">
-        <v>428501449</v>
+        <v>396465116</v>
       </c>
       <c r="BA77" s="13">
-        <v>396465116</v>
+        <v>1027297297</v>
       </c>
       <c r="BB77" s="13">
-        <v>1027297297</v>
+        <v>842064103</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9694,110 +9694,110 @@
       <c r="S79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T79" s="11" t="s">
-        <v>58</v>
+      <c r="T79" s="11">
+        <v>154158654</v>
       </c>
       <c r="U79" s="11">
-        <v>154158654</v>
+        <v>148138365</v>
       </c>
       <c r="V79" s="11">
-        <v>148138365</v>
+        <v>160088889</v>
       </c>
       <c r="W79" s="11">
-        <v>160088889</v>
+        <v>154743750</v>
       </c>
       <c r="X79" s="11">
-        <v>154743750</v>
+        <v>162855769</v>
       </c>
       <c r="Y79" s="11">
-        <v>162855769</v>
+        <v>163320000</v>
       </c>
       <c r="Z79" s="11">
-        <v>163320000</v>
+        <v>163594789</v>
       </c>
       <c r="AA79" s="11">
-        <v>163594789</v>
+        <v>165978947</v>
       </c>
       <c r="AB79" s="11">
-        <v>165978947</v>
+        <v>158628440</v>
       </c>
       <c r="AC79" s="11">
-        <v>158628440</v>
+        <v>158142857</v>
       </c>
       <c r="AD79" s="11">
-        <v>158142857</v>
+        <v>159345865</v>
       </c>
       <c r="AE79" s="11">
-        <v>159345865</v>
+        <v>232627604</v>
       </c>
       <c r="AF79" s="11">
-        <v>232627604</v>
+        <v>205461187</v>
       </c>
       <c r="AG79" s="11">
-        <v>205461187</v>
+        <v>203809524</v>
       </c>
       <c r="AH79" s="11">
-        <v>203809524</v>
+        <v>205400000</v>
       </c>
       <c r="AI79" s="11">
-        <v>205400000</v>
+        <v>207527473</v>
       </c>
       <c r="AJ79" s="11">
-        <v>207527473</v>
+        <v>229506849</v>
       </c>
       <c r="AK79" s="11">
-        <v>229506849</v>
+        <v>220782313</v>
       </c>
       <c r="AL79" s="11">
-        <v>220782313</v>
+        <v>227583333</v>
       </c>
       <c r="AM79" s="11">
-        <v>227583333</v>
+        <v>225400000</v>
       </c>
       <c r="AN79" s="11">
-        <v>225400000</v>
+        <v>254004320</v>
       </c>
       <c r="AO79" s="11">
-        <v>254004320</v>
+        <v>287131579</v>
       </c>
       <c r="AP79" s="11">
-        <v>287131579</v>
+        <v>281176471</v>
       </c>
       <c r="AQ79" s="11">
-        <v>281176471</v>
+        <v>347050000</v>
       </c>
       <c r="AR79" s="11">
-        <v>347050000</v>
+        <v>193925170</v>
       </c>
       <c r="AS79" s="11">
-        <v>193925170</v>
+        <v>256500000</v>
       </c>
       <c r="AT79" s="11">
-        <v>256500000</v>
+        <v>305387324</v>
       </c>
       <c r="AU79" s="11">
-        <v>305387324</v>
+        <v>354652174</v>
       </c>
       <c r="AV79" s="11">
-        <v>354652174</v>
+        <v>345264706</v>
       </c>
       <c r="AW79" s="11">
-        <v>345264706</v>
+        <v>372970395</v>
       </c>
       <c r="AX79" s="11">
-        <v>372970395</v>
+        <v>405213836</v>
       </c>
       <c r="AY79" s="11">
-        <v>405213836</v>
+        <v>382687023</v>
       </c>
       <c r="AZ79" s="11">
-        <v>382687023</v>
+        <v>394500000</v>
       </c>
       <c r="BA79" s="11">
-        <v>394500000</v>
+        <v>418720511</v>
       </c>
       <c r="BB79" s="11">
-        <v>418720511</v>
+        <v>406773438</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9937,8 +9937,8 @@
       <c r="AB81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC81" s="11" t="s">
-        <v>58</v>
+      <c r="AC81" s="11">
+        <v>0</v>
       </c>
       <c r="AD81" s="11">
         <v>0</v>
@@ -9955,8 +9955,8 @@
       <c r="AH81" s="11">
         <v>0</v>
       </c>
-      <c r="AI81" s="11">
-        <v>0</v>
+      <c r="AI81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ81" s="11" t="s">
         <v>58</v>
@@ -10069,8 +10069,8 @@
       <c r="S82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T82" s="13" t="s">
-        <v>58</v>
+      <c r="T82" s="13">
+        <v>0</v>
       </c>
       <c r="U82" s="13">
         <v>0</v>
@@ -10096,8 +10096,8 @@
       <c r="AB82" s="13">
         <v>0</v>
       </c>
-      <c r="AC82" s="13">
-        <v>0</v>
+      <c r="AC82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD82" s="13" t="s">
         <v>58</v>
